--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620"/>
+    <workbookView xWindow="-1485" yWindow="480" windowWidth="15600" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="模型一" sheetId="4" r:id="rId1"/>
@@ -196,7 +196,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="101">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2346,7 +2346,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2412,6 +2412,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2421,7 +2424,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2487,6 +2490,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2529,7 +2535,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2595,6 +2601,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,7 +2613,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2670,6 +2679,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40972.111144103626</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41909.2786484682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,7 +2724,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2778,6 +2790,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,7 +2802,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2853,6 +2868,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3027.8888558963736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4090.7213515317999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,11 +2892,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="245177344"/>
-        <c:axId val="254292352"/>
+        <c:axId val="349896704"/>
+        <c:axId val="349898624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="245177344"/>
+        <c:axId val="349896704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,14 +2939,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254292352"/>
+        <c:crossAx val="349898624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254292352"/>
+        <c:axId val="349898624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,7 +2997,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245177344"/>
+        <c:crossAx val="349896704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3151,7 +3169,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3217,6 +3235,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,7 +3247,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3291,6 +3312,9 @@
                   <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3334,7 +3358,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3400,6 +3424,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3409,7 +3436,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3475,6 +3502,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>11727.752309680822</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11423.529854273223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3517,7 +3547,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3583,6 +3613,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3592,7 +3625,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3658,6 +3691,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-272.24769031917822</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-576.47014572677654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3679,11 +3715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="256393600"/>
-        <c:axId val="256395904"/>
+        <c:axId val="356222080"/>
+        <c:axId val="356223616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="256393600"/>
+        <c:axId val="356222080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3726,14 +3762,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256395904"/>
+        <c:crossAx val="356223616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="256395904"/>
+        <c:axId val="356223616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3784,7 +3820,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256393600"/>
+        <c:crossAx val="356222080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3956,7 +3992,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4022,6 +4058,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,7 +4070,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4097,6 +4136,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,7 +4181,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4205,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4259,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4280,6 +4325,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>48156.344537184021</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48907.150233646149</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,7 +4370,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4388,6 +4436,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4397,7 +4448,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4463,6 +4514,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3843.6554628159793</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5092.849766353851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4484,11 +4538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="272066048"/>
-        <c:axId val="272067584"/>
+        <c:axId val="357948032"/>
+        <c:axId val="357958784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="272066048"/>
+        <c:axId val="357948032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4531,14 +4585,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272067584"/>
+        <c:crossAx val="357958784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="272067584"/>
+        <c:axId val="357958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4589,7 +4643,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272066048"/>
+        <c:crossAx val="357948032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4761,7 +4815,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4827,6 +4881,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4836,7 +4893,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4902,6 +4959,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4944,7 +5004,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5010,6 +5070,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,7 +5082,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5085,6 +5148,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>41945.596032783295</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42857.510960582804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5127,7 +5193,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5193,6 +5259,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5202,7 +5271,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5268,6 +5337,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3054.4039672167055</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4142.4890394171962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5289,11 +5361,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36338304"/>
-        <c:axId val="36348288"/>
+        <c:axId val="593762176"/>
+        <c:axId val="607281152"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36338304"/>
+        <c:axId val="593762176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,14 +5408,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36348288"/>
+        <c:crossAx val="607281152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36348288"/>
+        <c:axId val="607281152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,7 +5466,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36338304"/>
+        <c:crossAx val="593762176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5566,7 +5638,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5632,6 +5704,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5641,7 +5716,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5707,6 +5782,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,7 +5827,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5815,6 +5893,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5824,7 +5905,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5890,6 +5971,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>40972.111144103626</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41909.2786484682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5932,7 +6016,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5998,6 +6082,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,7 +6094,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6073,6 +6160,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-3027.8888558963736</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4090.7213515317999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,11 +6184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36519296"/>
-        <c:axId val="36521088"/>
+        <c:axId val="607419392"/>
+        <c:axId val="661308544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="36519296"/>
+        <c:axId val="607419392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6141,14 +6231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36521088"/>
+        <c:crossAx val="661308544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="36521088"/>
+        <c:axId val="661308544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,7 +6289,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36519296"/>
+        <c:crossAx val="607419392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6753,14 +6843,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
@@ -6788,7 +6878,7 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6818,7 +6908,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -6834,7 +6924,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="14.1" customHeight="1">
       <c r="A3" s="16">
         <v>44377</v>
       </c>
@@ -6901,7 +6991,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="14.1" customHeight="1">
       <c r="A4" s="16">
         <v>44407</v>
       </c>
@@ -6968,7 +7058,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="14.1" customHeight="1">
       <c r="A5" s="16">
         <v>44439</v>
       </c>
@@ -7032,7 +7122,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="14.1" customHeight="1">
       <c r="A6" s="16">
         <v>44469</v>
       </c>
@@ -7068,7 +7158,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="14.1" customHeight="1">
       <c r="A7" s="16">
         <v>44498</v>
       </c>
@@ -7098,7 +7188,7 @@
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
         <v>44530</v>
       </c>
@@ -7131,7 +7221,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="14.1" customHeight="1">
       <c r="A9" s="16">
         <v>44561</v>
       </c>
@@ -7164,7 +7254,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="14.1" customHeight="1">
       <c r="A10" s="16">
         <v>44589</v>
       </c>
@@ -7197,7 +7287,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="14.1" customHeight="1">
       <c r="A11" s="16">
         <v>44620</v>
       </c>
@@ -7228,7 +7318,7 @@
       <c r="J11" s="7"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="14.1" customHeight="1">
       <c r="A12" s="16">
         <v>44651</v>
       </c>
@@ -7259,7 +7349,7 @@
       <c r="J12" s="7"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="14.1" customHeight="1">
       <c r="A13" s="16">
         <v>44680</v>
       </c>
@@ -7289,7 +7379,7 @@
       </c>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="14.1" customHeight="1">
       <c r="A14" s="16">
         <v>44712</v>
       </c>
@@ -7319,7 +7409,7 @@
       </c>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="14.1" customHeight="1">
       <c r="A15" s="16">
         <v>44742</v>
       </c>
@@ -7349,7 +7439,7 @@
       </c>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="14.1" customHeight="1">
       <c r="A16" s="16">
         <v>44771</v>
       </c>
@@ -7379,7 +7469,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.1" customHeight="1">
       <c r="A17" s="16">
         <v>44804</v>
       </c>
@@ -7409,7 +7499,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.1" customHeight="1">
       <c r="A18" s="16">
         <v>44834</v>
       </c>
@@ -7439,7 +7529,7 @@
       </c>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75">
       <c r="A19" s="16">
         <v>44865</v>
       </c>
@@ -7468,7 +7558,7 @@
         <v>-6624.8592822413775</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75">
       <c r="A20" s="16">
         <v>44895</v>
       </c>
@@ -7497,7 +7587,7 @@
         <v>-5309.8940751962364</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="12.75">
       <c r="A21" s="16">
         <v>44925</v>
       </c>
@@ -7526,7 +7616,7 @@
         <v>-5182.0202852697112</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.75">
       <c r="A22" s="16">
         <v>44957</v>
       </c>
@@ -7555,7 +7645,7 @@
         <v>-2186.1887632661601</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75">
       <c r="A23" s="16">
         <v>44985</v>
       </c>
@@ -7584,7 +7674,7 @@
         <v>-3432.2695430597669</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75">
       <c r="A24" s="16">
         <v>45016</v>
       </c>
@@ -7611,6 +7701,35 @@
       </c>
       <c r="I24" s="19">
         <v>-3027.8888558963736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="E25" s="19">
+        <v>55804.632978602807</v>
+      </c>
+      <c r="F25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="G25" s="19">
+        <v>46000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-4090.7213515317999</v>
       </c>
     </row>
   </sheetData>
@@ -7624,14 +7743,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -7658,7 +7777,7 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7691,7 +7810,7 @@
       </c>
       <c r="K1" s="13"/>
     </row>
-    <row r="2" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -7707,7 +7826,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="14.1" customHeight="1">
       <c r="A3" s="16">
         <v>44377</v>
       </c>
@@ -7776,7 +7895,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="14.1" customHeight="1">
       <c r="A4" s="16">
         <v>44407</v>
       </c>
@@ -7845,7 +7964,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="14.1" customHeight="1">
       <c r="A5" s="16">
         <v>44439</v>
       </c>
@@ -7911,7 +8030,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="14.1" customHeight="1">
       <c r="A6" s="16">
         <v>44469</v>
       </c>
@@ -7949,7 +8068,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="14.1" customHeight="1">
       <c r="A7" s="16">
         <v>44498</v>
       </c>
@@ -7981,7 +8100,7 @@
         <v>67.867888185983432</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
         <v>44530</v>
       </c>
@@ -8016,7 +8135,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="14.1" customHeight="1">
       <c r="A9" s="16">
         <v>44561</v>
       </c>
@@ -8051,7 +8170,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="14.1" customHeight="1">
       <c r="A10" s="16">
         <v>44589</v>
       </c>
@@ -8086,7 +8205,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="14.1" customHeight="1">
       <c r="A11" s="16">
         <v>44620</v>
       </c>
@@ -8119,7 +8238,7 @@
       </c>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="14.1" customHeight="1">
       <c r="A12" s="16">
         <v>44651</v>
       </c>
@@ -8152,7 +8271,7 @@
       </c>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="14.1" customHeight="1">
       <c r="A13" s="16">
         <v>44680</v>
       </c>
@@ -8184,7 +8303,7 @@
         <v>-29.745409510831923</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="14.1" customHeight="1">
       <c r="A14" s="16">
         <v>44712</v>
       </c>
@@ -8216,7 +8335,7 @@
         <v>121.48316506417596</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="14.1" customHeight="1">
       <c r="A15" s="16">
         <v>44742</v>
       </c>
@@ -8248,7 +8367,7 @@
         <v>82.073682168853153</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="14.1" customHeight="1">
       <c r="A16" s="16">
         <v>44771</v>
       </c>
@@ -8280,7 +8399,7 @@
         <v>-127.3183196634585</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.1" customHeight="1">
       <c r="A17" s="16">
         <v>44804</v>
       </c>
@@ -8312,7 +8431,7 @@
         <v>-140.34722331220857</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.1" customHeight="1">
       <c r="A18" s="16">
         <v>44834</v>
       </c>
@@ -8344,7 +8463,7 @@
         <v>-112.42427728939072</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75">
       <c r="A19" s="16">
         <v>44865</v>
       </c>
@@ -8376,7 +8495,7 @@
         <v>-146.0933885866429</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75">
       <c r="A20" s="16">
         <v>44895</v>
       </c>
@@ -8408,7 +8527,7 @@
         <v>-12.858623413630797</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="12.75">
       <c r="A21" s="16">
         <v>44925</v>
       </c>
@@ -8440,7 +8559,7 @@
         <v>-13.703085779356849</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.75">
       <c r="A22" s="16">
         <v>44957</v>
       </c>
@@ -8472,7 +8591,7 @@
         <v>100.32182122410893</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75">
       <c r="A23" s="16">
         <v>44985</v>
       </c>
@@ -8504,7 +8623,7 @@
         <v>-92.003912876830128</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75">
       <c r="A24" s="16">
         <v>45016</v>
       </c>
@@ -8534,6 +8653,38 @@
       </c>
       <c r="J24" s="7">
         <v>121.19851098278713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>15211.091944221036</v>
+      </c>
+      <c r="F25" s="19">
+        <v>11423.529854273223</v>
+      </c>
+      <c r="G25" s="19">
+        <v>12000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>11423.529854273223</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-576.47014572677654</v>
+      </c>
+      <c r="J25" s="7">
+        <v>-64.205140990854673</v>
       </c>
     </row>
   </sheetData>
@@ -8547,14 +8698,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -8582,7 +8733,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -8626,7 +8777,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -8642,7 +8793,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="14.1" customHeight="1">
       <c r="A3" s="16">
         <v>44377</v>
       </c>
@@ -8709,7 +8860,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="14.1" customHeight="1">
       <c r="A4" s="16">
         <v>44407</v>
       </c>
@@ -8790,7 +8941,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
     </row>
-    <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="14.1" customHeight="1">
       <c r="A5" s="16">
         <v>44439</v>
       </c>
@@ -8868,7 +9019,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
     </row>
-    <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="14.1" customHeight="1">
       <c r="A6" s="16">
         <v>44469</v>
       </c>
@@ -8918,7 +9069,7 @@
       </c>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="14.1" customHeight="1">
       <c r="A7" s="16">
         <v>44498</v>
       </c>
@@ -8962,7 +9113,7 @@
         <v>21.227182147461402</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="14.1" customHeight="1">
       <c r="A8" s="16">
         <v>44530</v>
       </c>
@@ -9009,7 +9160,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="14.1" customHeight="1">
       <c r="A9" s="16">
         <v>44561</v>
       </c>
@@ -9056,7 +9207,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="14.1" customHeight="1">
       <c r="A10" s="16">
         <v>44589</v>
       </c>
@@ -9103,7 +9254,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="16">
         <v>44620</v>
       </c>
@@ -9148,7 +9299,7 @@
       </c>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="16">
         <v>44651</v>
       </c>
@@ -9193,7 +9344,7 @@
       </c>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="16">
         <v>44680</v>
       </c>
@@ -9237,7 +9388,7 @@
         <v>6.4205042138901032</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="16">
         <v>44712</v>
       </c>
@@ -9281,7 +9432,7 @@
         <v>16.460272725009055</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="16">
         <v>44742</v>
       </c>
@@ -9325,7 +9476,7 @@
         <v>42.410281485830289</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="16">
         <v>44771</v>
       </c>
@@ -9369,7 +9520,7 @@
         <v>36.33007091430315</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="14.1" customHeight="1">
       <c r="A17" s="16">
         <v>44804</v>
       </c>
@@ -9413,7 +9564,7 @@
         <v>31.847259478939737</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="14.1" customHeight="1">
       <c r="A18" s="16">
         <v>44834</v>
       </c>
@@ -9457,7 +9608,7 @@
         <v>24.80703135118333</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="16">
         <v>44865</v>
       </c>
@@ -9501,7 +9652,7 @@
         <v>23.977388204158451</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="16">
         <v>44895</v>
       </c>
@@ -9545,7 +9696,7 @@
         <v>33.729329900837342</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="16">
         <v>44925</v>
       </c>
@@ -9589,7 +9740,7 @@
         <v>34.643899430457921</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="16">
         <v>44957</v>
       </c>
@@ -9633,7 +9784,7 @@
         <v>52.096849935138493</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="16">
         <v>44985</v>
       </c>
@@ -9677,7 +9828,7 @@
         <v>46.257374337161167</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="16">
         <v>45016</v>
       </c>
@@ -9719,6 +9870,50 @@
       </c>
       <c r="N24" s="1">
         <v>48.393213658495924</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="E25" s="19">
+        <v>65122.704490113363</v>
+      </c>
+      <c r="F25" s="19">
+        <v>48907.150233646149</v>
+      </c>
+      <c r="G25" s="19">
+        <v>54000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>48907.150233646149</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-5092.849766353851</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1.3529854833592056E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2.0000040531158447E-2</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.129150572941633E-2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>43.238107333623745</v>
       </c>
     </row>
   </sheetData>
@@ -9732,14 +9927,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -9767,7 +9962,7 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -9820,7 +10015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
@@ -9836,7 +10031,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" ht="14.1" customHeight="1">
       <c r="A3" s="16">
         <v>44377</v>
       </c>
@@ -9926,7 +10121,7 @@
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
     </row>
-    <row r="4" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="14.1" customHeight="1">
       <c r="A4" s="16">
         <v>44407</v>
       </c>
@@ -10016,7 +10211,7 @@
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
     </row>
-    <row r="5" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" ht="14.1" customHeight="1">
       <c r="A5" s="16">
         <v>44439</v>
       </c>
@@ -10103,7 +10298,7 @@
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
     </row>
-    <row r="6" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="14.1" customHeight="1">
       <c r="A6" s="16">
         <v>44469</v>
       </c>
@@ -10162,7 +10357,7 @@
       </c>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" ht="14.1" customHeight="1">
       <c r="A7" s="16">
         <v>44498</v>
       </c>
@@ -10215,7 +10410,7 @@
         <v>21.676636258652678</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" ht="14.1" customHeight="1">
       <c r="A8" s="16">
         <v>44530</v>
       </c>
@@ -10271,7 +10466,7 @@
       <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" ht="14.1" customHeight="1">
       <c r="A9" s="16">
         <v>44561</v>
       </c>
@@ -10327,7 +10522,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" ht="14.1" customHeight="1">
       <c r="A10" s="16">
         <v>44589</v>
       </c>
@@ -10383,7 +10578,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" ht="14.1" customHeight="1">
       <c r="A11" s="16">
         <v>44620</v>
       </c>
@@ -10437,7 +10632,7 @@
       </c>
       <c r="Z11" s="6"/>
     </row>
-    <row r="12" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="14.1" customHeight="1">
       <c r="A12" s="16">
         <v>44651</v>
       </c>
@@ -10491,7 +10686,7 @@
       </c>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="14.1" customHeight="1">
       <c r="A13" s="16">
         <v>44680</v>
       </c>
@@ -10544,7 +10739,7 @@
         <v>2.1281103986359042</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="14.1" customHeight="1">
       <c r="A14" s="16">
         <v>44712</v>
       </c>
@@ -10597,7 +10792,7 @@
         <v>11.019807770558877</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="14.1" customHeight="1">
       <c r="A15" s="16">
         <v>44742</v>
       </c>
@@ -10650,7 +10845,7 @@
         <v>36.525034671230067</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="14.1" customHeight="1">
       <c r="A16" s="16">
         <v>44771</v>
       </c>
@@ -10703,7 +10898,7 @@
         <v>40.381296993507206</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="14.1" customHeight="1">
       <c r="A17" s="16">
         <v>44804</v>
       </c>
@@ -10756,7 +10951,7 @@
         <v>34.538203285825638</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="14.1" customHeight="1">
       <c r="A18" s="16">
         <v>44834</v>
       </c>
@@ -10809,7 +11004,7 @@
         <v>18.181668685899815</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="12.75">
       <c r="A19" s="16">
         <v>44865</v>
       </c>
@@ -10862,7 +11057,7 @@
         <v>10.691805251451996</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="12.75">
       <c r="A20" s="16">
         <v>44895</v>
       </c>
@@ -10915,7 +11110,7 @@
         <v>19.741142646180776</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="12.75">
       <c r="A21" s="16">
         <v>44925</v>
       </c>
@@ -10968,7 +11163,7 @@
         <v>28.655857849585068</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="12.75">
       <c r="A22" s="16">
         <v>44957</v>
       </c>
@@ -11021,7 +11216,7 @@
         <v>54.539760966268283</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="12.75">
       <c r="A23" s="16">
         <v>44985</v>
       </c>
@@ -11074,7 +11269,7 @@
         <v>55.649206886545954</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="12.75">
       <c r="A24" s="16">
         <v>45016</v>
       </c>
@@ -11125,6 +11320,59 @@
       </c>
       <c r="Q24" s="1">
         <v>59.008717736258845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="E25" s="19">
+        <v>57067.259248070739</v>
+      </c>
+      <c r="F25" s="19">
+        <v>42857.510960582804</v>
+      </c>
+      <c r="G25" s="19">
+        <v>47000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>42857.510960582804</v>
+      </c>
+      <c r="I25" s="19">
+        <v>-4142.4890394171962</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N25" s="7">
+        <v>48.993281878673784</v>
+      </c>
+      <c r="O25" s="7">
+        <v>46.088542294299735</v>
+      </c>
+      <c r="P25" s="7">
+        <v>40.329447354792997</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>57.606732173313205</v>
       </c>
     </row>
   </sheetData>
@@ -11138,14 +11386,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC24"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
@@ -11172,7 +11420,7 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -11205,7 +11453,7 @@
       </c>
       <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="14.1" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -11222,7 +11470,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="14.1" customHeight="1">
       <c r="A3" s="16">
         <v>44377</v>
       </c>
@@ -11292,7 +11540,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="14.1" customHeight="1">
       <c r="A4" s="16">
         <v>44407</v>
       </c>
@@ -11362,7 +11610,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="14.1" customHeight="1">
       <c r="A5" s="16">
         <v>44439</v>
       </c>
@@ -11429,7 +11677,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="14.1" customHeight="1">
       <c r="A6" s="16">
         <v>44469</v>
       </c>
@@ -11468,7 +11716,7 @@
       </c>
       <c r="AC6" s="2"/>
     </row>
-    <row r="7" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="14.1" customHeight="1">
       <c r="A7" s="16">
         <v>44498</v>
       </c>
@@ -11501,7 +11749,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
         <v>44530</v>
       </c>
@@ -11537,7 +11785,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="14.1" customHeight="1">
       <c r="A9" s="16">
         <v>44561</v>
       </c>
@@ -11573,7 +11821,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="14.1" customHeight="1">
       <c r="A10" s="16">
         <v>44589</v>
       </c>
@@ -11609,7 +11857,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="14.1" customHeight="1">
       <c r="A11" s="16">
         <v>44620</v>
       </c>
@@ -11643,7 +11891,7 @@
       <c r="K11" s="7"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="14.1" customHeight="1">
       <c r="A12" s="16">
         <v>44651</v>
       </c>
@@ -11677,7 +11925,7 @@
       <c r="K12" s="7"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="14.1" customHeight="1">
       <c r="A13" s="16">
         <v>44680</v>
       </c>
@@ -11710,7 +11958,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="14.1" customHeight="1">
       <c r="A14" s="16">
         <v>44712</v>
       </c>
@@ -11743,7 +11991,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="14.1" customHeight="1">
       <c r="A15" s="16">
         <v>44742</v>
       </c>
@@ -11776,7 +12024,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:29" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="14.1" customHeight="1">
       <c r="A16" s="16">
         <v>44771</v>
       </c>
@@ -11809,7 +12057,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="14.1" customHeight="1">
       <c r="A17" s="16">
         <v>44804</v>
       </c>
@@ -11842,7 +12090,7 @@
       </c>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="14.1" customHeight="1">
       <c r="A18" s="16">
         <v>44834</v>
       </c>
@@ -11875,7 +12123,7 @@
       </c>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75">
       <c r="A19" s="16">
         <v>44865</v>
       </c>
@@ -11907,7 +12155,7 @@
         <v>-6624.8592822413775</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75">
       <c r="A20" s="16">
         <v>44895</v>
       </c>
@@ -11939,7 +12187,7 @@
         <v>-5309.8940751962364</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="12.75">
       <c r="A21" s="16">
         <v>44925</v>
       </c>
@@ -11971,7 +12219,7 @@
         <v>-5182.0202852697112</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="12.75">
       <c r="A22" s="16">
         <v>44957</v>
       </c>
@@ -12003,7 +12251,7 @@
         <v>-2186.1887632661601</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="12.75">
       <c r="A23" s="16">
         <v>44985</v>
       </c>
@@ -12035,7 +12283,7 @@
         <v>-3432.2695430597669</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="12.75">
       <c r="A24" s="16">
         <v>45016</v>
       </c>
@@ -12065,6 +12313,38 @@
       </c>
       <c r="J24" s="19">
         <v>-3027.8888558963736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="12.75">
+      <c r="A25" s="16">
+        <v>45044</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C25" s="17">
+        <v>23.469999309999999</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2663.1158911938223</v>
+      </c>
+      <c r="F25" s="19">
+        <v>55804.632978602807</v>
+      </c>
+      <c r="G25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="H25" s="19">
+        <v>46000</v>
+      </c>
+      <c r="I25" s="19">
+        <v>41909.2786484682</v>
+      </c>
+      <c r="J25" s="19">
+        <v>-4090.7213515317999</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,15 +115,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2346,7 +2338,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2415,6 +2407,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,7 +2422,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2493,6 +2491,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2535,7 +2539,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2604,6 +2608,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2613,7 +2623,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2682,6 +2692,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>41909.2786484682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42179.337341177379</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46229.719758388521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2724,7 +2740,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2793,6 +2809,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2802,7 +2824,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2871,6 +2893,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-4090.7213515317999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5820.6626588226209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3770.2802416114791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2892,11 +2920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="349896704"/>
-        <c:axId val="349898624"/>
+        <c:axId val="511573376"/>
+        <c:axId val="511616128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="349896704"/>
+        <c:axId val="511573376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,14 +2967,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349898624"/>
+        <c:crossAx val="511616128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="349898624"/>
+        <c:axId val="511616128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2997,7 +3025,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349896704"/>
+        <c:crossAx val="511573376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,7 +3197,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3238,6 +3266,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,7 +3281,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3316,6 +3350,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3358,7 +3398,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3427,6 +3467,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3436,7 +3482,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3505,6 +3551,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>11423.529854273223</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12951.986635031979</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13581.596470995371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3547,7 +3599,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3616,6 +3668,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,7 +3683,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3694,6 +3752,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-576.47014572677654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1048.0133649680211</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-418.40352900462858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,11 +3779,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="356222080"/>
-        <c:axId val="356223616"/>
+        <c:axId val="512985728"/>
+        <c:axId val="513098112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="356222080"/>
+        <c:axId val="512985728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3762,14 +3826,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356223616"/>
+        <c:crossAx val="513098112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="356223616"/>
+        <c:axId val="513098112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3884,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356222080"/>
+        <c:crossAx val="512985728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3992,7 +4056,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4061,6 +4125,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,7 +4140,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4139,6 +4209,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4181,7 +4257,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4250,6 +4326,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4259,7 +4341,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4328,6 +4410,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>48907.150233646149</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48888.349096057143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>53264.863705146956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4370,7 +4458,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4439,6 +4527,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4448,7 +4542,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4517,6 +4611,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-5092.849766353851</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7111.6509039428565</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-4735.1362948530441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4538,11 +4638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="357948032"/>
-        <c:axId val="357958784"/>
+        <c:axId val="619520384"/>
+        <c:axId val="619522304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="357948032"/>
+        <c:axId val="619520384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4585,14 +4685,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357958784"/>
+        <c:crossAx val="619522304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="357958784"/>
+        <c:axId val="619522304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +4743,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="357948032"/>
+        <c:crossAx val="619520384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4815,7 +4915,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4884,6 +4984,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4893,7 +4999,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4962,6 +5068,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5004,7 +5116,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5073,6 +5185,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5082,7 +5200,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5151,6 +5269,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42857.510960582804</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43088.42829131832</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47183.002585816139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5193,7 +5317,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5262,6 +5386,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5271,7 +5401,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5340,6 +5470,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-4142.4890394171962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5911.5717086816803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3816.9974141838611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5361,11 +5497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593762176"/>
-        <c:axId val="607281152"/>
+        <c:axId val="620764544"/>
+        <c:axId val="620778624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593762176"/>
+        <c:axId val="620764544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5408,14 +5544,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607281152"/>
+        <c:crossAx val="620778624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607281152"/>
+        <c:axId val="620778624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,7 +5602,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593762176"/>
+        <c:crossAx val="620764544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5638,7 +5774,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5707,6 +5843,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5716,7 +5858,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5785,6 +5927,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,7 +5975,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5896,6 +6044,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5905,7 +6059,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5974,6 +6128,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>41909.2786484682</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42179.337341177379</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46229.719758388521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6016,7 +6176,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6085,6 +6245,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,7 +6260,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6163,6 +6329,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-4090.7213515317999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5820.6626588226209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3770.2802416114791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6184,11 +6356,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607419392"/>
-        <c:axId val="661308544"/>
+        <c:axId val="626014848"/>
+        <c:axId val="626391296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607419392"/>
+        <c:axId val="626014848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6231,14 +6403,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661308544"/>
+        <c:crossAx val="626391296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="661308544"/>
+        <c:axId val="626391296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6289,7 +6461,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607419392"/>
+        <c:crossAx val="626014848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6843,7 +7015,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7732,6 +7904,64 @@
         <v>-4090.7213515317999</v>
       </c>
     </row>
+    <row r="26" spans="1:10" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>58582.410646001619</v>
+      </c>
+      <c r="F26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="G26" s="19">
+        <v>48000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-5820.6626588226209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="E27" s="19">
+        <v>61231.417285248572</v>
+      </c>
+      <c r="F27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="G27" s="19">
+        <v>50000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-3770.2802416114791</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7743,7 +7973,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7785,7 +8015,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -7806,7 +8036,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -7817,7 +8047,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8685,6 +8915,70 @@
       </c>
       <c r="J25" s="7">
         <v>-64.205140990854673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F26" s="19">
+        <v>12951.986635031979</v>
+      </c>
+      <c r="G26" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>12951.986635031979</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-1048.0133649680211</v>
+      </c>
+      <c r="J26" s="7">
+        <v>-122.69771180703479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F27" s="19">
+        <v>13581.596470995371</v>
+      </c>
+      <c r="G27" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>13581.596470995371</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-418.40352900462858</v>
+      </c>
+      <c r="J27" s="7">
+        <v>24.912007435828137</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8992,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8735,7 +9029,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -8762,19 +9056,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -8784,7 +9078,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9914,6 +10208,94 @@
       </c>
       <c r="N25" s="1">
         <v>43.238107333623745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>67900.482157512175</v>
+      </c>
+      <c r="F26" s="19">
+        <v>48888.349096057143</v>
+      </c>
+      <c r="G26" s="19">
+        <v>56000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>48888.349096057143</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-7111.6509039428565</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1.127487902799338E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>3.0999958515167236E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3.124291452704148E-2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>36.087795260697291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="E27" s="19">
+        <v>70549.48879675912</v>
+      </c>
+      <c r="F27" s="19">
+        <v>53264.863705146956</v>
+      </c>
+      <c r="G27" s="19">
+        <v>58000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>53264.863705146956</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-4735.1362948530441</v>
+      </c>
+      <c r="J27" s="7">
+        <v>3.4999966621398926E-2</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1.522906029356097E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>3.4999966621398926E-2</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3.1869089876101056E-2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>47.786304387002254</v>
       </c>
     </row>
   </sheetData>
@@ -9927,7 +10309,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9964,13 +10346,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -9991,28 +10373,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11373,6 +11755,112 @@
       </c>
       <c r="Q25" s="1">
         <v>57.606732173313205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="E26" s="19">
+        <v>59845.036915469551</v>
+      </c>
+      <c r="F26" s="19">
+        <v>43088.42829131832</v>
+      </c>
+      <c r="G26" s="19">
+        <v>49000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>43088.42829131832</v>
+      </c>
+      <c r="I26" s="19">
+        <v>-5911.5717086816803</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N26" s="7">
+        <v>31.818216710700341</v>
+      </c>
+      <c r="O26" s="7">
+        <v>41.331767099766601</v>
+      </c>
+      <c r="P26" s="7">
+        <v>40.66355393645086</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>42.668193426398076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="E27" s="19">
+        <v>62494.043554716503</v>
+      </c>
+      <c r="F27" s="19">
+        <v>47183.002585816139</v>
+      </c>
+      <c r="G27" s="19">
+        <v>51000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>47183.002585816139</v>
+      </c>
+      <c r="I27" s="19">
+        <v>-3816.9974141838611</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="N27" s="7">
+        <v>58.333337096251995</v>
+      </c>
+      <c r="O27" s="7">
+        <v>46.998957098595064</v>
+      </c>
+      <c r="P27" s="7">
+        <v>42.775354990498926</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>55.446161314787332</v>
       </c>
     </row>
   </sheetData>
@@ -11386,7 +11874,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11422,13 +11910,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -11461,7 +11949,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -12345,6 +12833,70 @@
       </c>
       <c r="J25" s="19">
         <v>-4090.7213515317999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="12.75">
+      <c r="A26" s="16">
+        <v>45077</v>
+      </c>
+      <c r="B26" s="17">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C26" s="17">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="19">
+        <v>2777.7776673988105</v>
+      </c>
+      <c r="F26" s="19">
+        <v>58582.410646001619</v>
+      </c>
+      <c r="G26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="H26" s="19">
+        <v>48000</v>
+      </c>
+      <c r="I26" s="19">
+        <v>42179.337341177379</v>
+      </c>
+      <c r="J26" s="19">
+        <v>-5820.6626588226209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="12.75">
+      <c r="A27" s="16">
+        <v>45107</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C27" s="17">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2649.0066392469512</v>
+      </c>
+      <c r="F27" s="19">
+        <v>61231.417285248572</v>
+      </c>
+      <c r="G27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="H27" s="19">
+        <v>50000</v>
+      </c>
+      <c r="I27" s="19">
+        <v>46229.719758388521</v>
+      </c>
+      <c r="J27" s="19">
+        <v>-3770.2802416114791</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -117,6 +117,10 @@
   <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -2338,7 +2342,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2413,6 +2417,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,7 +2429,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2497,6 +2504,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,7 +2549,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2614,6 +2624,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,7 +2636,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2698,6 +2711,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>46229.719758388521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48597.107181795654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2740,7 +2756,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2815,6 +2831,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2824,7 +2843,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2899,6 +2918,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-3770.2802416114791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3402.8928182043455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,11 +2942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511573376"/>
-        <c:axId val="511616128"/>
+        <c:axId val="504064640"/>
+        <c:axId val="504075008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511573376"/>
+        <c:axId val="504064640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,14 +2989,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511616128"/>
+        <c:crossAx val="504075008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511616128"/>
+        <c:axId val="504075008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511573376"/>
+        <c:crossAx val="504064640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3197,7 +3219,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3272,6 +3294,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,7 +3306,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3355,6 +3380,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3398,7 +3426,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3473,6 +3501,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,7 +3513,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3557,6 +3588,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>13581.596470995371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13689.529371287916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3599,7 +3633,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3674,6 +3708,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3720,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3758,6 +3795,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-418.40352900462858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-310.47062871208436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3779,11 +3819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="512985728"/>
-        <c:axId val="513098112"/>
+        <c:axId val="506700928"/>
+        <c:axId val="506702464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="512985728"/>
+        <c:axId val="506700928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,14 +3866,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513098112"/>
+        <c:crossAx val="506702464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="513098112"/>
+        <c:axId val="506702464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3924,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512985728"/>
+        <c:crossAx val="506700928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4056,7 +4096,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4131,6 +4171,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,7 +4183,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4215,6 +4258,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4257,7 +4303,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4332,6 +4378,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4341,7 +4390,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4416,6 +4465,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53264.863705146956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55688.159393224654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,7 +4510,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4533,6 +4585,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4597,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4617,6 +4672,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-4735.1362948530441</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4311.8406067753458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,11 +4696,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619520384"/>
-        <c:axId val="619522304"/>
+        <c:axId val="528694656"/>
+        <c:axId val="529192064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619520384"/>
+        <c:axId val="528694656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,14 +4743,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619522304"/>
+        <c:crossAx val="529192064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619522304"/>
+        <c:axId val="529192064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4801,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619520384"/>
+        <c:crossAx val="528694656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4915,7 +4973,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4990,6 +5048,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4999,7 +5060,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5074,6 +5135,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5116,7 +5180,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5191,6 +5255,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5200,7 +5267,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5275,6 +5342,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>47183.002585816139</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49557.965744563597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5317,7 +5387,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5392,6 +5462,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5401,7 +5474,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5476,6 +5549,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-3816.9974141838611</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3442.0342554364033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5497,11 +5573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="620764544"/>
-        <c:axId val="620778624"/>
+        <c:axId val="539719168"/>
+        <c:axId val="541570560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="620764544"/>
+        <c:axId val="539719168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5544,14 +5620,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620778624"/>
+        <c:crossAx val="541570560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="620778624"/>
+        <c:axId val="541570560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5602,7 +5678,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620764544"/>
+        <c:crossAx val="539719168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5774,7 +5850,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5849,6 +5925,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,7 +5937,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5933,6 +6012,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,7 +6057,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6050,6 +6132,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6059,7 +6144,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6134,6 +6219,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>46229.719758388521</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48597.107181795654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6176,7 +6264,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6251,6 +6339,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6260,7 +6351,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6335,6 +6426,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-3770.2802416114791</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3402.8928182043455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6356,11 +6450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626014848"/>
-        <c:axId val="626391296"/>
+        <c:axId val="611877248"/>
+        <c:axId val="611878784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626014848"/>
+        <c:axId val="611877248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6403,14 +6497,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626391296"/>
+        <c:crossAx val="611878784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626391296"/>
+        <c:axId val="611878784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6461,7 +6555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626014848"/>
+        <c:crossAx val="611877248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7015,7 +7109,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7962,6 +8056,35 @@
         <v>-3770.2802416114791</v>
       </c>
     </row>
+    <row r="28" spans="1:10" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="E28" s="19">
+        <v>63859.538256207481</v>
+      </c>
+      <c r="F28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="G28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-3402.8928182043455</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7973,7 +8096,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8009,13 +8132,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -8036,7 +8159,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -8979,6 +9102,38 @@
       </c>
       <c r="J27" s="7">
         <v>24.912007435828137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F28" s="19">
+        <v>13689.529371287916</v>
+      </c>
+      <c r="G28" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>13689.529371287916</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-310.47062871208436</v>
+      </c>
+      <c r="J28" s="7">
+        <v>132.15337272513426</v>
       </c>
     </row>
   </sheetData>
@@ -8992,7 +9147,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9056,19 +9211,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10296,6 +10451,50 @@
       </c>
       <c r="N27" s="1">
         <v>47.786304387002254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="E28" s="19">
+        <v>73177.609767718022</v>
+      </c>
+      <c r="F28" s="19">
+        <v>55688.159393224654</v>
+      </c>
+      <c r="G28" s="19">
+        <v>60000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>55688.159393224654</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-4311.8406067753458</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5.9999823570251465E-3</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1.3690880637471666E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>5.9999823570251465E-3</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2.7557571956255068E-2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>49.681012025314104</v>
       </c>
     </row>
   </sheetData>
@@ -10309,7 +10508,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10352,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -10373,28 +10572,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11861,6 +12060,59 @@
       </c>
       <c r="Q27" s="1">
         <v>55.446161314787332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="E28" s="19">
+        <v>65122.164525675413</v>
+      </c>
+      <c r="F28" s="19">
+        <v>49557.965744563597</v>
+      </c>
+      <c r="G28" s="19">
+        <v>53000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>49557.965744563597</v>
+      </c>
+      <c r="I28" s="19">
+        <v>-3442.0342554364033</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="N28" s="7">
+        <v>61.111087458471879</v>
+      </c>
+      <c r="O28" s="7">
+        <v>51.703000551887335</v>
+      </c>
+      <c r="P28" s="7">
+        <v>45.751236844295057</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>63.606527967071898</v>
       </c>
     </row>
   </sheetData>
@@ -11874,7 +12126,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12811,7 +13063,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="17">
-        <v>23.469999309999999</v>
+        <v>23.579999919999999</v>
       </c>
       <c r="D25" s="18">
         <v>2000</v>
@@ -12843,7 +13095,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="17">
-        <v>23.579999919999999</v>
+        <v>21.329999919999999</v>
       </c>
       <c r="D26" s="18">
         <v>2000</v>
@@ -12897,6 +13149,38 @@
       </c>
       <c r="J27" s="19">
         <v>-3770.2802416114791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="12.75">
+      <c r="A28" s="16">
+        <v>45138</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C28" s="17">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2628.1209709589089</v>
+      </c>
+      <c r="F28" s="19">
+        <v>63859.538256207481</v>
+      </c>
+      <c r="G28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="H28" s="19">
+        <v>52000</v>
+      </c>
+      <c r="I28" s="19">
+        <v>48597.107181795654</v>
+      </c>
+      <c r="J28" s="19">
+        <v>-3402.8928182043455</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -2342,7 +2342,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2420,6 +2420,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,7 +2432,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2507,6 +2510,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,7 +2555,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2627,6 +2633,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2636,7 +2645,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2714,6 +2723,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>48597.107181795654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47595.709462315317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,7 +2768,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2834,6 +2846,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,7 +2858,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2921,6 +2936,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-3402.8928182043455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6404.2905376846829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2942,11 +2960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504064640"/>
-        <c:axId val="504075008"/>
+        <c:axId val="552950400"/>
+        <c:axId val="553009920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504064640"/>
+        <c:axId val="552950400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,14 +3007,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504075008"/>
+        <c:crossAx val="553009920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="504075008"/>
+        <c:axId val="553009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3065,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504064640"/>
+        <c:crossAx val="552950400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3219,7 +3237,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3297,6 +3315,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3306,7 +3327,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3383,6 +3404,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3426,7 +3450,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3504,6 +3528,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3513,7 +3540,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3591,6 +3618,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>13689.529371287916</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12844.052662519251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3633,7 +3663,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3711,6 +3741,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3720,7 +3753,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3798,6 +3831,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-310.47062871208436</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1155.9473374807494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3819,11 +3855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506700928"/>
-        <c:axId val="506702464"/>
+        <c:axId val="553420672"/>
+        <c:axId val="558131456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506700928"/>
+        <c:axId val="553420672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3866,14 +3902,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506702464"/>
+        <c:crossAx val="558131456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506702464"/>
+        <c:axId val="558131456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3924,7 +3960,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506700928"/>
+        <c:crossAx val="553420672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4096,7 +4132,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4174,6 +4210,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4183,7 +4222,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4261,6 +4300,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4303,7 +4345,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4381,6 +4423,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,7 +4435,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4468,6 +4513,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>55688.159393224654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54248.812397124166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,7 +4558,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4588,6 +4636,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,7 +4648,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4675,6 +4726,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-4311.8406067753458</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-7751.1876028758343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4696,11 +4750,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528694656"/>
-        <c:axId val="529192064"/>
+        <c:axId val="626677632"/>
+        <c:axId val="626680960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528694656"/>
+        <c:axId val="626677632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,14 +4797,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529192064"/>
+        <c:crossAx val="626680960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529192064"/>
+        <c:axId val="626680960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4801,7 +4855,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528694656"/>
+        <c:crossAx val="626677632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4973,7 +5027,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5051,6 +5105,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5060,7 +5117,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5138,6 +5195,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,7 +5240,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5258,6 +5318,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,7 +5330,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5345,6 +5408,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>49557.965744563597</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48497.224601857546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5387,7 +5453,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5465,6 +5531,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5474,7 +5543,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5552,6 +5621,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-3442.0342554364033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6502.7753981424539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5573,11 +5645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="539719168"/>
-        <c:axId val="541570560"/>
+        <c:axId val="626757632"/>
+        <c:axId val="626759168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="539719168"/>
+        <c:axId val="626757632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5620,14 +5692,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="541570560"/>
+        <c:crossAx val="626759168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="541570560"/>
+        <c:axId val="626759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5678,7 +5750,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539719168"/>
+        <c:crossAx val="626757632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5850,7 +5922,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5928,6 +6000,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5937,7 +6012,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6015,6 +6090,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,7 +6135,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6135,6 +6213,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6144,7 +6225,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6222,6 +6303,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>48597.107181795654</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47595.709462315317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6264,7 +6348,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6342,6 +6426,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,7 +6438,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6429,6 +6516,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-3402.8928182043455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6404.2905376846829</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6450,11 +6540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="611877248"/>
-        <c:axId val="611878784"/>
+        <c:axId val="640895616"/>
+        <c:axId val="641323776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="611877248"/>
+        <c:axId val="640895616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,14 +6587,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611878784"/>
+        <c:crossAx val="641323776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="611878784"/>
+        <c:axId val="641323776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,7 +6645,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="611877248"/>
+        <c:crossAx val="640895616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7109,7 +7199,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8085,6 +8175,35 @@
         <v>-3402.8928182043455</v>
       </c>
     </row>
+    <row r="29" spans="1:10" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="E29" s="19">
+        <v>66660.658756766294</v>
+      </c>
+      <c r="F29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="G29" s="19">
+        <v>54000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-6404.2905376846829</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8096,7 +8215,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9136,6 +9255,38 @@
         <v>132.15337272513426</v>
       </c>
     </row>
+    <row r="29" spans="1:10" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F29" s="19">
+        <v>12844.052662519251</v>
+      </c>
+      <c r="G29" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>12844.052662519251</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-1155.9473374807494</v>
+      </c>
+      <c r="J29" s="7">
+        <v>19.588439525500419</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9147,7 +9298,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9184,7 +9335,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -10495,6 +10646,50 @@
       </c>
       <c r="N28" s="1">
         <v>49.681012025314104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="E29" s="19">
+        <v>75978.730268276835</v>
+      </c>
+      <c r="F29" s="19">
+        <v>54248.812397124166</v>
+      </c>
+      <c r="G29" s="19">
+        <v>62000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>54248.812397124166</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-7751.1876028758343</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1.1409067197893056E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4.6999990940093994E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3.0797975120228221E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>37.04486140194178</v>
       </c>
     </row>
   </sheetData>
@@ -10508,7 +10703,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10545,7 +10740,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -12113,6 +12308,59 @@
       </c>
       <c r="Q28" s="1">
         <v>63.606527967071898</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="E29" s="19">
+        <v>67923.285026234225</v>
+      </c>
+      <c r="F29" s="19">
+        <v>48497.224601857546</v>
+      </c>
+      <c r="G29" s="19">
+        <v>55000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>48497.224601857546</v>
+      </c>
+      <c r="I29" s="19">
+        <v>-6502.7753981424539</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="N29" s="7">
+        <v>21.951223057979316</v>
+      </c>
+      <c r="O29" s="7">
+        <v>41.785741387251328</v>
+      </c>
+      <c r="P29" s="7">
+        <v>44.429405025280481</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>36.498414111193014</v>
       </c>
     </row>
   </sheetData>
@@ -12126,7 +12374,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13183,6 +13431,38 @@
         <v>-3402.8928182043455</v>
       </c>
     </row>
+    <row r="29" spans="1:11" ht="12.75">
+      <c r="A29" s="16">
+        <v>45169</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C29" s="17">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D29" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="19">
+        <v>2801.1205005588145</v>
+      </c>
+      <c r="F29" s="19">
+        <v>66660.658756766294</v>
+      </c>
+      <c r="G29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="H29" s="19">
+        <v>54000</v>
+      </c>
+      <c r="I29" s="19">
+        <v>47595.709462315317</v>
+      </c>
+      <c r="J29" s="19">
+        <v>-6404.2905376846829</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,12 +115,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -149,6 +149,10 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -2342,7 +2346,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2423,6 +2427,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2432,7 +2439,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2513,6 +2520,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2565,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2636,6 +2646,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,7 +2658,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2726,6 +2739,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47595.709462315317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47662.551407316307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2784,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2849,6 +2865,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2877,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2939,6 +2958,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-6404.2905376846829</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8337.4485926836933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,11 +2982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552950400"/>
-        <c:axId val="553009920"/>
+        <c:axId val="424420480"/>
+        <c:axId val="477534080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="552950400"/>
+        <c:axId val="424420480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3007,14 +3029,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553009920"/>
+        <c:crossAx val="477534080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="553009920"/>
+        <c:axId val="477534080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,7 +3087,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552950400"/>
+        <c:crossAx val="424420480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3237,7 +3259,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3318,6 +3340,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3327,7 +3352,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3407,6 +3432,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3450,7 +3478,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3531,6 +3559,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3540,7 +3571,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3621,6 +3652,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>12844.052662519251</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12322.375726848402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,7 +3697,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3744,6 +3778,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3753,7 +3790,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3834,6 +3871,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-1155.9473374807494</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1677.6242731515977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,11 +3895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="553420672"/>
-        <c:axId val="558131456"/>
+        <c:axId val="527667968"/>
+        <c:axId val="527669504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="553420672"/>
+        <c:axId val="527667968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,14 +3942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558131456"/>
+        <c:crossAx val="527669504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="558131456"/>
+        <c:axId val="527669504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,7 +4000,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553420672"/>
+        <c:crossAx val="527667968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4132,7 +4172,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4213,6 +4253,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4222,7 +4265,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4303,6 +4346,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,7 +4391,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4426,6 +4472,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4435,7 +4484,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4516,6 +4565,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54248.812397124166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54045.430414917042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4558,7 +4610,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4639,6 +4691,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4648,7 +4703,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4729,6 +4784,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-7751.1876028758343</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-9954.5695850829579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4750,11 +4808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626677632"/>
-        <c:axId val="626680960"/>
+        <c:axId val="601662208"/>
+        <c:axId val="601663744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626677632"/>
+        <c:axId val="601662208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4797,14 +4855,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626680960"/>
+        <c:crossAx val="601663744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626680960"/>
+        <c:axId val="601663744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,7 +4913,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626677632"/>
+        <c:crossAx val="601662208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5027,7 +5085,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5108,6 +5166,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,7 +5178,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5198,6 +5259,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,7 +5304,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5321,6 +5385,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,7 +5397,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5411,6 +5478,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>48497.224601857546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48527.450404912175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5453,7 +5523,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5534,6 +5604,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5543,7 +5616,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5624,6 +5697,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-6502.7753981424539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8472.5495950878249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5645,11 +5721,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="626757632"/>
-        <c:axId val="626759168"/>
+        <c:axId val="607933184"/>
+        <c:axId val="607935488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="626757632"/>
+        <c:axId val="607933184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,14 +5768,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626759168"/>
+        <c:crossAx val="607935488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="626759168"/>
+        <c:axId val="607935488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5750,7 +5826,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="626757632"/>
+        <c:crossAx val="607933184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5922,7 +5998,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6003,6 +6079,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6012,7 +6091,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6093,6 +6172,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6135,7 +6217,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6216,6 +6298,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6225,7 +6310,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6306,6 +6391,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47595.709462315317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>47662.551407316307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6348,7 +6436,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6429,6 +6517,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,7 +6529,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6519,6 +6610,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-6404.2905376846829</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-8337.4485926836933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6540,11 +6634,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640895616"/>
-        <c:axId val="641323776"/>
+        <c:axId val="618766720"/>
+        <c:axId val="618769024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640895616"/>
+        <c:axId val="618766720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6587,14 +6681,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="641323776"/>
+        <c:crossAx val="618769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="641323776"/>
+        <c:axId val="618769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6645,7 +6739,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640895616"/>
+        <c:crossAx val="618766720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7199,7 +7293,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8204,6 +8298,35 @@
         <v>-6404.2905376846829</v>
       </c>
     </row>
+    <row r="30" spans="1:10" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="E30" s="19">
+        <v>69580.366775801143</v>
+      </c>
+      <c r="F30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="G30" s="19">
+        <v>56000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-8337.4485926836933</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8215,7 +8338,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8251,7 +8374,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -9285,6 +9408,38 @@
       </c>
       <c r="J29" s="7">
         <v>19.588439525500419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F30" s="19">
+        <v>12322.375726848402</v>
+      </c>
+      <c r="G30" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>12322.375726848402</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-1677.6242731515977</v>
+      </c>
+      <c r="J30" s="7">
+        <v>-38.600823638801678</v>
       </c>
     </row>
   </sheetData>
@@ -9298,7 +9453,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9335,7 +9490,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -10690,6 +10845,50 @@
       </c>
       <c r="N29" s="1">
         <v>37.04486140194178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="E30" s="19">
+        <v>78898.438287311685</v>
+      </c>
+      <c r="F30" s="19">
+        <v>54045.430414917042</v>
+      </c>
+      <c r="G30" s="19">
+        <v>64000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>54045.430414917042</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-9954.5695850829579</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>9.5075559982442139E-3</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2.8999984264373779E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>3.0498309977585816E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>31.174042119814576</v>
       </c>
     </row>
   </sheetData>
@@ -10703,7 +10902,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10740,7 +10939,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -10767,28 +10966,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12361,6 +12560,59 @@
       </c>
       <c r="Q29" s="1">
         <v>36.498414111193014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="E30" s="19">
+        <v>70842.993045269075</v>
+      </c>
+      <c r="F30" s="19">
+        <v>48527.450404912175</v>
+      </c>
+      <c r="G30" s="19">
+        <v>57000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>48527.450404912175</v>
+      </c>
+      <c r="I30" s="19">
+        <v>-8472.5495950878249</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="N30" s="7">
+        <v>7.4074008664308382</v>
+      </c>
+      <c r="O30" s="7">
+        <v>30.326294546977831</v>
+      </c>
+      <c r="P30" s="7">
+        <v>39.728368199179599</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>11.522147242574292</v>
       </c>
     </row>
   </sheetData>
@@ -12374,7 +12626,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12410,13 +12662,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -13461,6 +13713,38 @@
       </c>
       <c r="J29" s="19">
         <v>-6404.2905376846829</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="12.75">
+      <c r="A30" s="16">
+        <v>45197</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C30" s="17">
+        <v>19.25</v>
+      </c>
+      <c r="D30" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E30" s="19">
+        <v>2919.708019034852</v>
+      </c>
+      <c r="F30" s="19">
+        <v>69580.366775801143</v>
+      </c>
+      <c r="G30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="H30" s="19">
+        <v>56000</v>
+      </c>
+      <c r="I30" s="19">
+        <v>47662.551407316307</v>
+      </c>
+      <c r="J30" s="19">
+        <v>-8337.4485926836933</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -2346,7 +2338,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2430,6 +2422,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,7 +2434,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2523,6 +2518,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2565,7 +2563,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2649,6 +2647,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,7 +2659,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2742,6 +2743,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47662.551407316307</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48131.782309715047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,7 +2788,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2868,6 +2872,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2877,7 +2884,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2961,6 +2968,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-8337.4485926836933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9868.2176902849533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2982,11 +2992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424420480"/>
-        <c:axId val="477534080"/>
+        <c:axId val="516338432"/>
+        <c:axId val="518030464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424420480"/>
+        <c:axId val="516338432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,14 +3039,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477534080"/>
+        <c:crossAx val="518030464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477534080"/>
+        <c:axId val="518030464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +3097,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424420480"/>
+        <c:crossAx val="516338432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3259,7 +3269,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3343,6 +3353,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3352,7 +3365,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3435,6 +3448,9 @@
                   <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>14000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3478,7 +3494,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3562,6 +3578,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3571,7 +3590,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3655,6 +3674,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>12322.375726848402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11926.620329482161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3697,7 +3719,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3781,6 +3803,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3790,7 +3815,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3874,6 +3899,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-1677.6242731515977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2073.3796705178393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,11 +3923,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527667968"/>
-        <c:axId val="527669504"/>
+        <c:axId val="518860160"/>
+        <c:axId val="518862336"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527667968"/>
+        <c:axId val="518860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,14 +3970,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527669504"/>
+        <c:crossAx val="518862336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527669504"/>
+        <c:axId val="518862336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +4028,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527667968"/>
+        <c:crossAx val="518860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4172,7 +4200,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4256,6 +4284,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4265,7 +4296,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4349,6 +4380,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4391,7 +4425,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4475,6 +4509,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4484,7 +4521,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4568,6 +4605,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>54045.430414917042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54309.663606323265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4610,7 +4650,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4694,6 +4734,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4703,7 +4746,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4787,6 +4830,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-9954.5695850829579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11690.336393676735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,11 +4854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="601662208"/>
-        <c:axId val="601663744"/>
+        <c:axId val="520809088"/>
+        <c:axId val="520823552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="601662208"/>
+        <c:axId val="520809088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4855,14 +4901,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601663744"/>
+        <c:crossAx val="520823552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="601663744"/>
+        <c:axId val="520823552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4959,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="601662208"/>
+        <c:crossAx val="520809088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5085,7 +5131,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5169,6 +5215,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5178,7 +5227,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5262,6 +5311,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5304,7 +5356,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5388,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,7 +5452,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5481,6 +5536,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>48527.450404912175</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48968.903510718541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,7 +5581,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5607,6 +5665,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5616,7 +5677,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5700,6 +5761,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-8472.5495950878249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10031.096489281459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5721,11 +5785,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607933184"/>
-        <c:axId val="607935488"/>
+        <c:axId val="574567552"/>
+        <c:axId val="574569472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607933184"/>
+        <c:axId val="574567552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,14 +5832,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607935488"/>
+        <c:crossAx val="574569472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607935488"/>
+        <c:axId val="574569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,7 +5890,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607933184"/>
+        <c:crossAx val="574567552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5998,7 +6062,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6082,6 +6146,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6091,7 +6158,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6175,6 +6242,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>58000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6217,7 +6287,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6301,6 +6371,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,7 +6383,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6394,6 +6467,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>47662.551407316307</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48131.782309715047</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6436,7 +6512,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6520,6 +6596,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,7 +6608,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6613,6 +6692,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-8337.4485926836933</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-9868.2176902849533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6634,11 +6716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="618766720"/>
-        <c:axId val="618769024"/>
+        <c:axId val="596478592"/>
+        <c:axId val="638724352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="618766720"/>
+        <c:axId val="596478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6681,14 +6763,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618769024"/>
+        <c:crossAx val="638724352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="618769024"/>
+        <c:axId val="638724352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6739,7 +6821,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="618766720"/>
+        <c:crossAx val="596478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7293,7 +7375,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8327,6 +8409,35 @@
         <v>-8337.4485926836933</v>
       </c>
     </row>
+    <row r="31" spans="1:10" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="E31" s="19">
+        <v>72596.958084095255</v>
+      </c>
+      <c r="F31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="G31" s="19">
+        <v>58000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-9868.2176902849533</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8338,7 +8449,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8374,13 +8485,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -8401,7 +8512,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -9440,6 +9551,38 @@
       </c>
       <c r="J30" s="7">
         <v>-38.600823638801678</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>17988.869611619848</v>
+      </c>
+      <c r="F31" s="19">
+        <v>11926.620329482161</v>
+      </c>
+      <c r="G31" s="19">
+        <v>14000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>11926.620329482161</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-2073.3796705178393</v>
+      </c>
+      <c r="J31" s="7">
+        <v>11.750560187063723</v>
       </c>
     </row>
   </sheetData>
@@ -9453,7 +9596,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9490,7 +9633,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -9517,19 +9660,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10889,6 +11032,50 @@
       </c>
       <c r="N30" s="1">
         <v>31.174042119814576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="E31" s="19">
+        <v>81915.029595605796</v>
+      </c>
+      <c r="F31" s="19">
+        <v>54309.663606323265</v>
+      </c>
+      <c r="G31" s="19">
+        <v>66000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>54309.663606323265</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-11690.336393676735</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>7.9229633318701771E-3</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2.2000014781951904E-2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>2.9081927444980161E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>27.24359775279531</v>
       </c>
     </row>
   </sheetData>
@@ -10902,7 +11089,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10939,13 +11126,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -10966,28 +11153,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12613,6 +12800,59 @@
       </c>
       <c r="Q30" s="1">
         <v>11.522147242574292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="E31" s="19">
+        <v>73859.584353563187</v>
+      </c>
+      <c r="F31" s="19">
+        <v>48968.903510718541</v>
+      </c>
+      <c r="G31" s="19">
+        <v>59000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>48968.903510718541</v>
+      </c>
+      <c r="I31" s="19">
+        <v>-10031.096489281459</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="N31" s="7">
+        <v>16.766465783542337</v>
+      </c>
+      <c r="O31" s="7">
+        <v>25.806351625832665</v>
+      </c>
+      <c r="P31" s="7">
+        <v>35.087696008063951</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>7.2436628613700975</v>
       </c>
     </row>
   </sheetData>
@@ -12626,7 +12866,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC30"/>
+  <dimension ref="A1:AC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12662,13 +12902,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -13745,6 +13985,38 @@
       </c>
       <c r="J30" s="19">
         <v>-8337.4485926836933</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="12.75">
+      <c r="A31" s="16">
+        <v>45230</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C31" s="17">
+        <v>19.25</v>
+      </c>
+      <c r="D31" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3016.5913082941079</v>
+      </c>
+      <c r="F31" s="19">
+        <v>72596.958084095255</v>
+      </c>
+      <c r="G31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="H31" s="19">
+        <v>58000</v>
+      </c>
+      <c r="I31" s="19">
+        <v>48131.782309715047</v>
+      </c>
+      <c r="J31" s="19">
+        <v>-9868.2176902849533</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -127,6 +127,18 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +189,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2338,7 +2354,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2425,6 +2441,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2434,7 +2456,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2521,6 +2543,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +2591,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2650,6 +2678,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +2693,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2746,6 +2780,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48131.782309715047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49260.62137435851</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50806.60327157443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2788,7 +2828,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2875,6 +2915,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,7 +2930,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2971,6 +3017,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-9868.2176902849533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10739.37862564149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11193.39672842557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,11 +3044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516338432"/>
-        <c:axId val="518030464"/>
+        <c:axId val="442694656"/>
+        <c:axId val="456683904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516338432"/>
+        <c:axId val="442694656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,14 +3091,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518030464"/>
+        <c:crossAx val="456683904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518030464"/>
+        <c:axId val="456683904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3149,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516338432"/>
+        <c:crossAx val="442694656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3269,7 +3321,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3356,6 +3408,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,7 +3423,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3452,6 +3510,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3558,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3581,6 +3645,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3660,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3677,6 +3747,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>11926.620329482161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13710.75452889707</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13584.387248394427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3795,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3806,6 +3882,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3815,7 +3897,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3902,6 +3984,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-2073.3796705178393</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2289.2454711029295</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2415.6127516055731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,11 +4011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518860160"/>
-        <c:axId val="518862336"/>
+        <c:axId val="534173184"/>
+        <c:axId val="534650880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518860160"/>
+        <c:axId val="534173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3970,14 +4058,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518862336"/>
+        <c:crossAx val="534650880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518862336"/>
+        <c:axId val="534650880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,7 +4116,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518860160"/>
+        <c:crossAx val="534173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4200,7 +4288,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4287,6 +4375,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,7 +4390,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4383,6 +4477,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4425,7 +4525,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4512,6 +4612,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4521,7 +4627,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4608,6 +4714,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>54309.663606323265</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55326.686141625607</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56816.759218770618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,7 +4762,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4737,6 +4849,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4746,7 +4864,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4833,6 +4951,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-11690.336393676735</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-12673.313858374393</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-13183.240781229382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4854,11 +4978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520809088"/>
-        <c:axId val="520823552"/>
+        <c:axId val="607728000"/>
+        <c:axId val="607770112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520809088"/>
+        <c:axId val="607728000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4901,14 +5025,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520823552"/>
+        <c:crossAx val="607770112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="520823552"/>
+        <c:axId val="607770112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +5083,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520809088"/>
+        <c:crossAx val="607728000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5131,7 +5255,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5218,6 +5342,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5227,7 +5357,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5314,6 +5444,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5356,7 +5492,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5443,6 +5579,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,7 +5594,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5539,6 +5681,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48968.903510718541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50082.591104681356</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51620.997191298564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5581,7 +5729,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5668,6 +5816,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,7 +5831,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5764,6 +5918,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-10031.096489281459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10917.408895318644</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11379.002808701436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5785,11 +5945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="574567552"/>
-        <c:axId val="574569472"/>
+        <c:axId val="619013632"/>
+        <c:axId val="619078400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="574567552"/>
+        <c:axId val="619013632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5832,14 +5992,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574569472"/>
+        <c:crossAx val="619078400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="574569472"/>
+        <c:axId val="619078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5890,7 +6050,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="574567552"/>
+        <c:crossAx val="619013632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6062,7 +6222,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6149,6 +6309,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6158,7 +6324,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6245,6 +6411,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>62000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6287,7 +6459,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6374,6 +6546,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6383,7 +6561,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6470,6 +6648,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>48131.782309715047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49260.62137435851</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50806.60327157443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6512,7 +6696,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6599,6 +6783,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6608,7 +6798,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6695,6 +6885,12 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-9868.2176902849533</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10739.37862564149</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11193.39672842557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6716,11 +6912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596478592"/>
-        <c:axId val="638724352"/>
+        <c:axId val="624237952"/>
+        <c:axId val="625045504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="596478592"/>
+        <c:axId val="624237952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6763,14 +6959,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638724352"/>
+        <c:crossAx val="625045504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="638724352"/>
+        <c:axId val="625045504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6821,7 +7017,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596478592"/>
+        <c:crossAx val="624237952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7375,7 +7571,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8438,6 +8634,64 @@
         <v>-9868.2176902849533</v>
       </c>
     </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>75669.154596665147</v>
+      </c>
+      <c r="F32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="G32" s="19">
+        <v>60000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-10739.37862564149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="E33" s="19">
+        <v>78769.929882157536</v>
+      </c>
+      <c r="F33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="G33" s="19">
+        <v>62000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-11193.39672842557</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8449,7 +8703,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9585,6 +9839,70 @@
         <v>11.750560187063723</v>
       </c>
     </row>
+    <row r="32" spans="1:10" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>21061.066124189743</v>
+      </c>
+      <c r="F32" s="19">
+        <v>13710.75452889707</v>
+      </c>
+      <c r="G32" s="19">
+        <v>16000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>13710.75452889707</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-2289.2454711029295</v>
+      </c>
+      <c r="J32" s="7">
+        <v>-113.41457128255375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>21061.066124189743</v>
+      </c>
+      <c r="F33" s="19">
+        <v>13584.387248394427</v>
+      </c>
+      <c r="G33" s="19">
+        <v>16000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>13584.387248394427</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-2415.6127516055731</v>
+      </c>
+      <c r="J33" s="7">
+        <v>134.00503901876459</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9596,7 +9914,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9633,13 +9951,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -9660,19 +9978,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11076,6 +11394,94 @@
       </c>
       <c r="N31" s="1">
         <v>27.24359775279531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>84987.226108175688</v>
+      </c>
+      <c r="F32" s="19">
+        <v>55326.686141625607</v>
+      </c>
+      <c r="G32" s="19">
+        <v>68000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>55326.686141625607</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-12673.313858374393</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="7">
+        <v>6.6024694432251473E-3</v>
+      </c>
+      <c r="L32" s="7">
+        <v>1.1999964714050293E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2.6234933656491849E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>25.166709127893537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="E33" s="19">
+        <v>88088.001393668077</v>
+      </c>
+      <c r="F33" s="19">
+        <v>56816.759218770618</v>
+      </c>
+      <c r="G33" s="19">
+        <v>70000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>56816.759218770618</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-13183.240781229382</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>5.5020578693542902E-3</v>
+      </c>
+      <c r="L33" s="7">
+        <v>6.0000419616699219E-3</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2.2862451707354861E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>24.065913576470347</v>
       </c>
     </row>
   </sheetData>
@@ -11089,7 +11495,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11126,7 +11532,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -11153,28 +11559,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11184,7 +11590,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12853,6 +13259,112 @@
       </c>
       <c r="Q31" s="1">
         <v>7.2436628613700975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="E32" s="19">
+        <v>76931.780866133078</v>
+      </c>
+      <c r="F32" s="19">
+        <v>50082.591104681356</v>
+      </c>
+      <c r="G32" s="19">
+        <v>61000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>50082.591104681356</v>
+      </c>
+      <c r="I32" s="19">
+        <v>-10917.408895318644</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="N32" s="7">
+        <v>10.457536880796289</v>
+      </c>
+      <c r="O32" s="7">
+        <v>20.690080044153873</v>
+      </c>
+      <c r="P32" s="7">
+        <v>30.288490686760593</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1.4932587589404349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="E33" s="19">
+        <v>80032.556151625467</v>
+      </c>
+      <c r="F33" s="19">
+        <v>51620.997191298564</v>
+      </c>
+      <c r="G33" s="19">
+        <v>63000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>51620.997191298564</v>
+      </c>
+      <c r="I33" s="19">
+        <v>-11379.002808701436</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="N33" s="7">
+        <v>18.749994445931186</v>
+      </c>
+      <c r="O33" s="7">
+        <v>20.04338484474631</v>
+      </c>
+      <c r="P33" s="7">
+        <v>26.873455406089164</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>6.3832437220605982</v>
       </c>
     </row>
   </sheetData>
@@ -12866,7 +13378,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC31"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13995,7 +14507,7 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="17">
-        <v>19.25</v>
+        <v>18.770000459999999</v>
       </c>
       <c r="D31" s="18">
         <v>2000</v>
@@ -14017,6 +14529,70 @@
       </c>
       <c r="J31" s="19">
         <v>-9868.2176902849533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75">
+      <c r="A32" s="16">
+        <v>45260</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C32" s="17">
+        <v>17.93000031</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="19">
+        <v>3072.1965125698957</v>
+      </c>
+      <c r="F32" s="19">
+        <v>75669.154596665147</v>
+      </c>
+      <c r="G32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="H32" s="19">
+        <v>60000</v>
+      </c>
+      <c r="I32" s="19">
+        <v>49260.62137435851</v>
+      </c>
+      <c r="J32" s="19">
+        <v>-10739.37862564149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.75">
+      <c r="A33" s="16">
+        <v>45289</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C33" s="17">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="19">
+        <v>3100.7752854923956</v>
+      </c>
+      <c r="F33" s="19">
+        <v>78769.929882157536</v>
+      </c>
+      <c r="G33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="H33" s="19">
+        <v>62000</v>
+      </c>
+      <c r="I33" s="19">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="J33" s="19">
+        <v>-11193.39672842557</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -127,18 +127,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +145,22 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -2354,7 +2358,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2447,6 +2451,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,7 +2463,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2549,6 +2556,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,7 +2601,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2684,6 +2694,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2693,7 +2706,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2786,6 +2799,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>50806.60327157443</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46189.929837560929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,7 +2844,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2921,6 +2937,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2930,7 +2949,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3023,6 +3042,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11193.39672842557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-17810.070162439071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3044,11 +3066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="442694656"/>
-        <c:axId val="456683904"/>
+        <c:axId val="366606592"/>
+        <c:axId val="367003904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="442694656"/>
+        <c:axId val="366606592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,14 +3113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456683904"/>
+        <c:crossAx val="367003904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="456683904"/>
+        <c:axId val="367003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442694656"/>
+        <c:crossAx val="366606592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3321,7 +3343,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3414,6 +3436,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,7 +3448,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3516,6 +3541,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,7 +3586,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3651,6 +3679,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3660,7 +3691,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3753,6 +3784,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>13584.387248394427</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13815.257874731071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3795,7 +3829,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3888,6 +3922,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,7 +3934,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3990,6 +4027,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-2415.6127516055731</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4184.7421252689292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4011,11 +4051,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534173184"/>
-        <c:axId val="534650880"/>
+        <c:axId val="454865280"/>
+        <c:axId val="455197440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534173184"/>
+        <c:axId val="454865280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,14 +4098,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534650880"/>
+        <c:crossAx val="455197440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534650880"/>
+        <c:axId val="455197440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4116,7 +4156,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534173184"/>
+        <c:crossAx val="454865280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4288,7 +4328,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4381,6 +4421,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,7 +4433,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4483,6 +4526,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>73000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,7 +4571,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4618,6 +4664,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4627,7 +4676,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4720,6 +4769,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>56816.759218770618</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>52417.36785776788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4762,7 +4814,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4855,6 +4907,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4864,7 +4919,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4957,6 +5012,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-13183.240781229382</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-20582.63214223212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,11 +5036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="607728000"/>
-        <c:axId val="607770112"/>
+        <c:axId val="461784576"/>
+        <c:axId val="529490304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="607728000"/>
+        <c:axId val="461784576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,14 +5083,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607770112"/>
+        <c:crossAx val="529490304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="607770112"/>
+        <c:axId val="529490304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5141,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="607728000"/>
+        <c:crossAx val="461784576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5255,7 +5313,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5348,6 +5406,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5357,7 +5418,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5450,6 +5511,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>63000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5492,7 +5556,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5585,6 +5649,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5594,7 +5661,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5687,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>51620.997191298564</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47898.263161486961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5729,7 +5799,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5822,6 +5892,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,7 +5904,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5924,6 +5997,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11379.002808701436</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-18101.736838513039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5945,11 +6021,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619013632"/>
-        <c:axId val="619078400"/>
+        <c:axId val="529524992"/>
+        <c:axId val="529567744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619013632"/>
+        <c:axId val="529524992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5992,14 +6068,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619078400"/>
+        <c:crossAx val="529567744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="619078400"/>
+        <c:axId val="529567744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6050,7 +6126,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619013632"/>
+        <c:crossAx val="529524992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6222,7 +6298,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6315,6 +6391,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6324,7 +6403,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6417,6 +6496,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>62000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>64000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6459,7 +6541,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6552,6 +6634,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6561,7 +6646,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6654,6 +6739,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>50806.60327157443</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46189.929837560929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6696,7 +6784,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6789,6 +6877,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,7 +6889,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6891,6 +6982,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-11193.39672842557</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-17810.070162439071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6912,11 +7006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="624237952"/>
-        <c:axId val="625045504"/>
+        <c:axId val="530798080"/>
+        <c:axId val="530800000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="624237952"/>
+        <c:axId val="530798080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6959,14 +7053,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625045504"/>
+        <c:crossAx val="530800000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="625045504"/>
+        <c:axId val="530800000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7017,7 +7111,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624237952"/>
+        <c:crossAx val="530798080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7571,7 +7665,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8692,6 +8786,35 @@
         <v>-11193.39672842557</v>
       </c>
     </row>
+    <row r="34" spans="1:9" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3565.0624552566728</v>
+      </c>
+      <c r="E34" s="19">
+        <v>82334.992337414209</v>
+      </c>
+      <c r="F34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="G34" s="19">
+        <v>64000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-17810.070162439071</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8703,7 +8826,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9903,6 +10026,38 @@
         <v>134.00503901876459</v>
       </c>
     </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>3565.0624552566728</v>
+      </c>
+      <c r="E34" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F34" s="19">
+        <v>13815.257874731071</v>
+      </c>
+      <c r="G34" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>13815.257874731071</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-4184.7421252689292</v>
+      </c>
+      <c r="J34" s="7">
+        <v>-202.99979347003418</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9914,7 +10069,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9951,13 +10106,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -9978,19 +10133,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="N1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10000,7 +10155,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -11482,6 +11637,50 @@
       </c>
       <c r="N33" s="1">
         <v>24.065913576470347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5347.593682885009</v>
+      </c>
+      <c r="E34" s="19">
+        <v>93435.595076553087</v>
+      </c>
+      <c r="F34" s="19">
+        <v>52417.36785776788</v>
+      </c>
+      <c r="G34" s="19">
+        <v>73000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>52417.36785776788</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-20582.63214223212</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>4.5850482244619087E-3</v>
+      </c>
+      <c r="L34" s="7">
+        <v>8.3999991416931152E-2</v>
+      </c>
+      <c r="M34" s="7">
+        <v>3.3052041658950905E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>13.872208778425705</v>
       </c>
     </row>
   </sheetData>
@@ -11495,7 +11694,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11532,13 +11731,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -11559,28 +11758,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11590,7 +11789,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13365,6 +13564,59 @@
       </c>
       <c r="Q33" s="1">
         <v>6.3832437220605982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="18">
+        <v>3000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>5347.593682885009</v>
+      </c>
+      <c r="E34" s="19">
+        <v>85380.149834510477</v>
+      </c>
+      <c r="F34" s="19">
+        <v>47898.263161486961</v>
+      </c>
+      <c r="G34" s="19">
+        <v>66000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>47898.263161486961</v>
+      </c>
+      <c r="I34" s="19">
+        <v>-18101.736838513039</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0.93022069523420603</v>
+      </c>
+      <c r="O34" s="7">
+        <v>13.672330128242274</v>
+      </c>
+      <c r="P34" s="7">
+        <v>22.473080313473535</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-3.9291702422202448</v>
       </c>
     </row>
   </sheetData>
@@ -13378,7 +13630,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14595,6 +14847,38 @@
         <v>-11193.39672842557</v>
       </c>
     </row>
+    <row r="34" spans="1:10" ht="12.75">
+      <c r="A34" s="16">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="C34" s="17">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D34" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="19">
+        <v>3565.0624552566728</v>
+      </c>
+      <c r="F34" s="19">
+        <v>82334.992337414209</v>
+      </c>
+      <c r="G34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="H34" s="19">
+        <v>64000</v>
+      </c>
+      <c r="I34" s="19">
+        <v>46189.929837560929</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-17810.070162439071</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,7 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,14 +157,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
@@ -189,14 +193,6 @@
   <si>
     <t>D</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2358,7 +2354,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2454,6 +2450,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,7 +2462,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2559,6 +2558,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2601,7 +2603,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2697,6 +2699,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,7 +2711,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2802,6 +2807,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46189.929837560929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54529.726053519473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,7 +2852,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2940,6 +2948,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2949,7 +2960,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3045,6 +3056,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-17810.070162439071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11470.273946480527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3066,11 +3080,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="366606592"/>
-        <c:axId val="367003904"/>
+        <c:axId val="462820480"/>
+        <c:axId val="462846208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="366606592"/>
+        <c:axId val="462820480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3113,14 +3127,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367003904"/>
+        <c:crossAx val="462846208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="367003904"/>
+        <c:axId val="462846208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366606592"/>
+        <c:crossAx val="462820480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3343,7 +3357,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3439,6 +3453,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3448,7 +3465,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3543,6 +3560,9 @@
                   <c:v>16000</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3586,7 +3606,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3682,6 +3702,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3691,7 +3714,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3787,6 +3810,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>13815.257874731071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15711.470315510489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3829,7 +3855,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3925,6 +3951,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3934,7 +3963,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4030,6 +4059,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-4184.7421252689292</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2288.5296844895111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4051,11 +4083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="454865280"/>
-        <c:axId val="455197440"/>
+        <c:axId val="464042240"/>
+        <c:axId val="464048512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="454865280"/>
+        <c:axId val="464042240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,14 +4130,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455197440"/>
+        <c:crossAx val="464048512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="455197440"/>
+        <c:axId val="464048512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4188,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454865280"/>
+        <c:crossAx val="464042240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4328,7 +4360,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4424,6 +4456,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,7 +4468,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4529,6 +4564,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>73000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>75000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4571,7 +4609,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4667,6 +4705,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4676,7 +4717,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4772,6 +4813,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>52417.36785776788</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>61611.910728126393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,7 +4858,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4910,6 +4954,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,7 +4966,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5015,6 +5062,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-20582.63214223212</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-13388.089271873607</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5036,11 +5086,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461784576"/>
-        <c:axId val="529490304"/>
+        <c:axId val="465243136"/>
+        <c:axId val="524260096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461784576"/>
+        <c:axId val="465243136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,14 +5133,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529490304"/>
+        <c:crossAx val="524260096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529490304"/>
+        <c:axId val="524260096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,7 +5191,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461784576"/>
+        <c:crossAx val="465243136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5313,7 +5363,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5409,6 +5459,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,7 +5471,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5514,6 +5567,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5556,7 +5612,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5652,6 +5708,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5661,7 +5720,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5757,6 +5816,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>47898.263161486961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56472.536571515957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5799,7 +5861,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5895,6 +5957,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5904,7 +5969,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6000,6 +6065,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-18101.736838513039</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11527.463428484043</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6021,11 +6089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="529524992"/>
-        <c:axId val="529567744"/>
+        <c:axId val="533304832"/>
+        <c:axId val="533306752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="529524992"/>
+        <c:axId val="533304832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6068,14 +6136,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529567744"/>
+        <c:crossAx val="533306752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529567744"/>
+        <c:axId val="533306752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6126,7 +6194,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529524992"/>
+        <c:crossAx val="533304832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6298,7 +6366,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6394,6 +6462,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6403,7 +6474,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6499,6 +6570,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6541,7 +6615,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6637,6 +6711,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6646,7 +6723,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6742,6 +6819,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>46189.929837560929</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54529.726053519473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6784,7 +6864,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6880,6 +6960,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6889,7 +6972,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6985,6 +7068,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-17810.070162439071</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11470.273946480527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7006,11 +7092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530798080"/>
-        <c:axId val="530800000"/>
+        <c:axId val="536701568"/>
+        <c:axId val="536704896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530798080"/>
+        <c:axId val="536701568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7053,14 +7139,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530800000"/>
+        <c:crossAx val="536704896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="530800000"/>
+        <c:axId val="536704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7111,7 +7197,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530798080"/>
+        <c:crossAx val="536701568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7665,7 +7751,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7702,31 +7788,31 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -7737,7 +7823,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7776,25 +7862,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="M3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -8813,6 +8899,35 @@
       </c>
       <c r="I34" s="19">
         <v>-17810.070162439071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="E35" s="19">
+        <v>85469.788519428475</v>
+      </c>
+      <c r="F35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="G35" s="19">
+        <v>66000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-11470.273946480527</v>
       </c>
     </row>
   </sheetData>
@@ -8826,7 +8941,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8862,34 +8977,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -8900,7 +9015,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8941,25 +9056,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -10056,6 +10171,38 @@
       </c>
       <c r="J34" s="7">
         <v>-202.99979347003418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F35" s="19">
+        <v>15711.470315510489</v>
+      </c>
+      <c r="G35" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>15711.470315510489</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-2288.5296844895111</v>
+      </c>
+      <c r="J35" s="7">
+        <v>102.81793481326457</v>
       </c>
     </row>
   </sheetData>
@@ -10069,7 +10216,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10106,46 +10253,46 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10155,7 +10302,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -10194,25 +10341,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="R3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -11681,6 +11828,50 @@
       </c>
       <c r="N34" s="1">
         <v>13.872208778425705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="E35" s="19">
+        <v>96570.391258567353</v>
+      </c>
+      <c r="F35" s="19">
+        <v>61611.910728126393</v>
+      </c>
+      <c r="G35" s="19">
+        <v>75000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>61611.910728126393</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-13388.089271873607</v>
+      </c>
+      <c r="J35" s="7">
+        <v>7.7000021934509277E-2</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1.6654210509469802E-2</v>
+      </c>
+      <c r="L35" s="7">
+        <v>7.7000021934509277E-2</v>
+      </c>
+      <c r="M35" s="7">
+        <v>4.0376705038210635E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>41.247076733252584</v>
       </c>
     </row>
   </sheetData>
@@ -11694,7 +11885,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11731,55 +11922,55 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11789,7 +11980,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -11851,25 +12042,25 @@
         <v>86.363636363635862</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -13617,6 +13808,59 @@
       </c>
       <c r="Q34" s="1">
         <v>-3.9291702422202448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="E35" s="19">
+        <v>88514.946016524744</v>
+      </c>
+      <c r="F35" s="19">
+        <v>56472.536571515957</v>
+      </c>
+      <c r="G35" s="19">
+        <v>68000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>56472.536571515957</v>
+      </c>
+      <c r="I35" s="19">
+        <v>-11527.463428484043</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N35" s="7">
+        <v>42.857146434852993</v>
+      </c>
+      <c r="O35" s="7">
+        <v>23.400602230445845</v>
+      </c>
+      <c r="P35" s="7">
+        <v>22.782254285797638</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>24.637298119742262</v>
       </c>
     </row>
   </sheetData>
@@ -13630,7 +13874,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC34"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13666,34 +13910,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="13"/>
     </row>
@@ -13705,7 +13949,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -13747,25 +13991,25 @@
       </c>
       <c r="K3" s="7"/>
       <c r="M3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -14877,6 +15121,38 @@
       </c>
       <c r="J34" s="19">
         <v>-17810.070162439071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75">
+      <c r="A35" s="16">
+        <v>45351</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C35" s="17">
+        <v>16.959999079999999</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="19">
+        <v>3134.7961820142709</v>
+      </c>
+      <c r="F35" s="19">
+        <v>85469.788519428475</v>
+      </c>
+      <c r="G35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="H35" s="19">
+        <v>66000</v>
+      </c>
+      <c r="I35" s="19">
+        <v>54529.726053519473</v>
+      </c>
+      <c r="J35" s="19">
+        <v>-11470.273946480527</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,11 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -127,8 +123,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>总资产</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -137,6 +141,10 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -157,14 +165,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -193,6 +193,14 @@
   <si>
     <t>D</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2354,7 +2362,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2453,6 +2461,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2462,7 +2473,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2561,6 +2572,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,7 +2617,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2702,6 +2716,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2711,7 +2728,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2810,6 +2827,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>54529.726053519473</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57213.485747350715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2872,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2951,6 +2971,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2983,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3059,6 +3082,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-11470.273946480527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10786.514252649285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,11 +3106,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="462820480"/>
-        <c:axId val="462846208"/>
+        <c:axId val="460746752"/>
+        <c:axId val="460750208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="462820480"/>
+        <c:axId val="460746752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,14 +3153,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462846208"/>
+        <c:crossAx val="460750208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="462846208"/>
+        <c:axId val="460750208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3185,7 +3211,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="462820480"/>
+        <c:crossAx val="460746752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3357,7 +3383,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3456,6 +3482,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3465,7 +3494,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3563,6 +3592,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3606,7 +3638,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3705,6 +3737,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +3749,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3813,6 +3848,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>15711.470315510489</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15908.479743396269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3855,7 +3893,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3954,6 +3992,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,7 +4004,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4062,6 +4103,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-2288.5296844895111</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2091.5202566037315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,11 +4127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464042240"/>
-        <c:axId val="464048512"/>
+        <c:axId val="473752320"/>
+        <c:axId val="473754240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464042240"/>
+        <c:axId val="473752320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4130,14 +4174,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464048512"/>
+        <c:crossAx val="473754240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464048512"/>
+        <c:axId val="473754240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4232,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464042240"/>
+        <c:crossAx val="473752320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4360,7 +4404,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4459,6 +4503,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4468,7 +4515,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4567,6 +4614,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>77000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,7 +4659,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4708,6 +4758,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4717,7 +4770,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4816,6 +4869,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>61611.910728126393</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64384.475423838863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4858,7 +4914,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4957,6 +5013,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4966,7 +5025,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5065,6 +5124,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-13388.089271873607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-12615.524576161137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5086,11 +5148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465243136"/>
-        <c:axId val="524260096"/>
+        <c:axId val="473998464"/>
+        <c:axId val="474000384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465243136"/>
+        <c:axId val="473998464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5133,14 +5195,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524260096"/>
+        <c:crossAx val="474000384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="524260096"/>
+        <c:axId val="474000384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5191,7 +5253,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465243136"/>
+        <c:crossAx val="473998464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5363,7 +5425,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5462,6 +5524,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,7 +5536,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5570,6 +5635,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5612,7 +5680,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5711,6 +5779,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5720,7 +5791,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5819,6 +5890,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>56472.536571515957</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59180.657574693469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5861,7 +5935,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5960,6 +6034,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5969,7 +6046,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6068,6 +6145,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-11527.463428484043</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10819.342425306531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,11 +6169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533304832"/>
-        <c:axId val="533306752"/>
+        <c:axId val="474088192"/>
+        <c:axId val="474089728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533304832"/>
+        <c:axId val="474088192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6136,14 +6216,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533306752"/>
+        <c:crossAx val="474089728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533306752"/>
+        <c:axId val="474089728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,7 +6274,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533304832"/>
+        <c:crossAx val="474088192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6366,7 +6446,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6465,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6474,7 +6557,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6573,6 +6656,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6615,7 +6701,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6714,6 +6800,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6723,7 +6812,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6822,6 +6911,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>54529.726053519473</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57213.485747350715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,7 +6956,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6963,6 +7055,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6972,7 +7067,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7071,6 +7166,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-11470.273946480527</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10786.514252649285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7092,11 +7190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536701568"/>
-        <c:axId val="536704896"/>
+        <c:axId val="474519424"/>
+        <c:axId val="474521984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536701568"/>
+        <c:axId val="474519424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7139,14 +7237,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536704896"/>
+        <c:crossAx val="474521984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536704896"/>
+        <c:axId val="474521984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7197,7 +7295,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536701568"/>
+        <c:crossAx val="474519424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7751,7 +7849,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -7788,31 +7886,31 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -7823,7 +7921,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -7862,25 +7960,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -8928,6 +9026,35 @@
       </c>
       <c r="I35" s="19">
         <v>-11470.273946480527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="E36" s="19">
+        <v>88565.763619081714</v>
+      </c>
+      <c r="F36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="G36" s="19">
+        <v>68000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-10786.514252649285</v>
       </c>
     </row>
   </sheetData>
@@ -8941,7 +9068,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8977,34 +9104,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -9015,7 +9142,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9056,25 +9183,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -10203,6 +10330,38 @@
       </c>
       <c r="J35" s="7">
         <v>102.81793481326457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F36" s="19">
+        <v>15908.479743396269</v>
+      </c>
+      <c r="G36" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>15908.479743396269</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-2091.5202566037315</v>
+      </c>
+      <c r="J36" s="7">
+        <v>-98.887766665906639</v>
       </c>
     </row>
   </sheetData>
@@ -10216,7 +10375,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10253,46 +10412,46 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10302,7 +10461,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -10341,25 +10500,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="R3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -11872,6 +12031,50 @@
       </c>
       <c r="N35" s="1">
         <v>41.247076733252584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="E36" s="19">
+        <v>99666.366358220592</v>
+      </c>
+      <c r="F36" s="19">
+        <v>64384.475423838863</v>
+      </c>
+      <c r="G36" s="19">
+        <v>77000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>64384.475423838863</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-12615.524576161137</v>
+      </c>
+      <c r="J36" s="7">
+        <v>8.0000162124633789E-3</v>
+      </c>
+      <c r="K36" s="7">
+        <v>1.5211844793302065E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>8.0000162124633789E-3</v>
+      </c>
+      <c r="M36" s="7">
+        <v>3.4980590233919424E-2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>43.48652979146042</v>
       </c>
     </row>
   </sheetData>
@@ -11885,7 +12088,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11922,31 +12125,31 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>30</v>
@@ -11970,7 +12173,7 @@
         <v>36</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11980,7 +12183,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12042,25 +12245,25 @@
         <v>86.363636363635862</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -13861,6 +14064,59 @@
       </c>
       <c r="Q35" s="1">
         <v>24.637298119742262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="E36" s="19">
+        <v>91610.921116177982</v>
+      </c>
+      <c r="F36" s="19">
+        <v>59180.657574693469</v>
+      </c>
+      <c r="G36" s="19">
+        <v>70000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>59180.657574693469</v>
+      </c>
+      <c r="I36" s="19">
+        <v>-10819.342425306531</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N36" s="7">
+        <v>46.808513876214093</v>
+      </c>
+      <c r="O36" s="7">
+        <v>31.203239445701929</v>
+      </c>
+      <c r="P36" s="7">
+        <v>25.589249339099069</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>42.431219658907651</v>
       </c>
     </row>
   </sheetData>
@@ -13874,7 +14130,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AC36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13910,34 +14166,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="13"/>
     </row>
@@ -13991,25 +14247,25 @@
       </c>
       <c r="K3" s="7"/>
       <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>12</v>
-      </c>
       <c r="P3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -15153,6 +15409,38 @@
       </c>
       <c r="J35" s="19">
         <v>-11470.273946480527</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.75">
+      <c r="A36" s="16">
+        <v>45380</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C36" s="17">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="19">
+        <v>3095.9750996532412</v>
+      </c>
+      <c r="F36" s="19">
+        <v>88565.763619081714</v>
+      </c>
+      <c r="G36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="H36" s="19">
+        <v>68000</v>
+      </c>
+      <c r="I36" s="19">
+        <v>57213.485747350715</v>
+      </c>
+      <c r="J36" s="19">
+        <v>-10786.514252649285</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,24 +115,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总资产</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -143,8 +127,16 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -165,6 +157,10 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -2362,7 +2358,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2464,6 +2460,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,7 +2472,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2575,6 +2574,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2617,7 +2619,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2719,6 +2721,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2728,7 +2733,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2830,6 +2835,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>57213.485747350715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60807.664804803564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +2880,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2974,6 +2982,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2983,7 +2994,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3085,6 +3096,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-10786.514252649285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9192.335195196436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,11 +3120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460746752"/>
-        <c:axId val="460750208"/>
+        <c:axId val="477710208"/>
+        <c:axId val="477724672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460746752"/>
+        <c:axId val="477710208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3153,14 +3167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460750208"/>
+        <c:crossAx val="477724672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460750208"/>
+        <c:axId val="477724672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +3225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460746752"/>
+        <c:crossAx val="477710208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,7 +3397,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3485,6 +3499,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3494,7 +3511,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3595,6 +3612,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3638,7 +3658,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3740,6 +3760,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3749,7 +3772,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3851,6 +3874,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>15908.479743396269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16351.748754391803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3919,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3995,6 +4021,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,7 +4033,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4106,6 +4135,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-2091.5202566037315</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1648.2512456081968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,11 +4159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473752320"/>
-        <c:axId val="473754240"/>
+        <c:axId val="503394688"/>
+        <c:axId val="503397376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473752320"/>
+        <c:axId val="503394688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4174,14 +4206,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473754240"/>
+        <c:crossAx val="503397376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473754240"/>
+        <c:axId val="503397376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +4264,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473752320"/>
+        <c:crossAx val="503394688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4404,7 +4436,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4506,6 +4538,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,7 +4550,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4617,6 +4652,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>77000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>79000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4659,7 +4697,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4761,6 +4799,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,7 +4811,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4872,6 +4913,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>64384.475423838863</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68178.46474305325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4914,7 +4958,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5016,6 +5060,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5025,7 +5072,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5127,6 +5174,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-12615.524576161137</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-10821.53525694675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,11 +5198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473998464"/>
-        <c:axId val="474000384"/>
+        <c:axId val="509358080"/>
+        <c:axId val="509360768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473998464"/>
+        <c:axId val="509358080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5195,14 +5245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474000384"/>
+        <c:crossAx val="509360768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474000384"/>
+        <c:axId val="509360768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5253,7 +5303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473998464"/>
+        <c:crossAx val="509358080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5425,7 +5475,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5527,6 +5577,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5536,7 +5589,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5638,6 +5691,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5680,7 +5736,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5782,6 +5838,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5791,7 +5850,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5893,6 +5952,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>59180.657574693469</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>62829.649305917141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5935,7 +5997,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6037,6 +6099,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6046,7 +6111,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6148,6 +6213,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-10819.342425306531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9170.3506940828593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6169,11 +6237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474088192"/>
-        <c:axId val="474089728"/>
+        <c:axId val="510004608"/>
+        <c:axId val="510063360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474088192"/>
+        <c:axId val="510004608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,14 +6284,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474089728"/>
+        <c:crossAx val="510063360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474089728"/>
+        <c:axId val="510063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6274,7 +6342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474088192"/>
+        <c:crossAx val="510004608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6446,7 +6514,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6548,6 +6616,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6557,7 +6628,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6659,6 +6730,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>68000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6701,7 +6775,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6803,6 +6877,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6812,7 +6889,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6914,6 +6991,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>57213.485747350715</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60807.664804803564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6956,7 +7036,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7058,6 +7138,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7067,7 +7150,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7169,6 +7252,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-10786.514252649285</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9192.335195196436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7190,11 +7276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474519424"/>
-        <c:axId val="474521984"/>
+        <c:axId val="511408384"/>
+        <c:axId val="511428864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474519424"/>
+        <c:axId val="511408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7237,14 +7323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474521984"/>
+        <c:crossAx val="511428864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474521984"/>
+        <c:axId val="511428864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7295,7 +7381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474519424"/>
+        <c:crossAx val="511408384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7849,7 +7935,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9057,6 +9143,35 @@
         <v>-10786.514252649285</v>
       </c>
     </row>
+    <row r="37" spans="1:9" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="E37" s="19">
+        <v>91577.811926493756</v>
+      </c>
+      <c r="F37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="G37" s="19">
+        <v>70000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-9192.335195196436</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9068,7 +9183,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9104,13 +9219,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -9131,7 +9246,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -10362,6 +10477,38 @@
       </c>
       <c r="J36" s="7">
         <v>-98.887766665906639</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F37" s="19">
+        <v>16351.748754391803</v>
+      </c>
+      <c r="G37" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>16351.748754391803</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-1648.2512456081968</v>
+      </c>
+      <c r="J37" s="7">
+        <v>191.90436156354073</v>
       </c>
     </row>
   </sheetData>
@@ -10375,7 +10522,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10412,13 +10559,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -10439,19 +10586,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12075,6 +12222,50 @@
       </c>
       <c r="N36" s="1">
         <v>43.48652979146042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="E37" s="19">
+        <v>102678.41466563263</v>
+      </c>
+      <c r="F37" s="19">
+        <v>68178.46474305325</v>
+      </c>
+      <c r="G37" s="19">
+        <v>79000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>68178.46474305325</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-10821.53525694675</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1.7999947071075439E-2</v>
+      </c>
+      <c r="K37" s="7">
+        <v>1.5676528506264293E-2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>1.7999947071075439E-2</v>
+      </c>
+      <c r="M37" s="7">
+        <v>3.2150483040112095E-2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>48.759853737518327</v>
       </c>
     </row>
   </sheetData>
@@ -12088,7 +12279,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH36"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12125,13 +12316,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -12152,28 +12343,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12183,7 +12374,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14117,6 +14308,59 @@
       </c>
       <c r="Q36" s="1">
         <v>42.431219658907651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="E37" s="19">
+        <v>94622.969423590024</v>
+      </c>
+      <c r="F37" s="19">
+        <v>62829.649305917141</v>
+      </c>
+      <c r="G37" s="19">
+        <v>72000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>62829.649305917141</v>
+      </c>
+      <c r="I37" s="19">
+        <v>-9170.3506940828593</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N37" s="7">
+        <v>54.700845774743321</v>
+      </c>
+      <c r="O37" s="7">
+        <v>39.035774888715729</v>
+      </c>
+      <c r="P37" s="7">
+        <v>30.071424522304625</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>56.964475621537929</v>
       </c>
     </row>
   </sheetData>
@@ -14130,7 +14374,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC36"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14166,13 +14410,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -14205,7 +14449,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -14256,7 +14500,7 @@
         <v>11</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>13</v>
@@ -15441,6 +15685,38 @@
       </c>
       <c r="J36" s="19">
         <v>-10786.514252649285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.75">
+      <c r="A37" s="16">
+        <v>45412</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C37" s="17">
+        <v>18.11000061</v>
+      </c>
+      <c r="D37" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="19">
+        <v>3012.0483074120443</v>
+      </c>
+      <c r="F37" s="19">
+        <v>91577.811926493756</v>
+      </c>
+      <c r="G37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="H37" s="19">
+        <v>70000</v>
+      </c>
+      <c r="I37" s="19">
+        <v>60807.664804803564</v>
+      </c>
+      <c r="J37" s="19">
+        <v>-9192.335195196436</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -119,24 +119,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>买卖金额</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CCI</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -157,6 +149,14 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -3120,11 +3120,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477710208"/>
-        <c:axId val="477724672"/>
+        <c:axId val="502398336"/>
+        <c:axId val="502503296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477710208"/>
+        <c:axId val="502398336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,14 +3167,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477724672"/>
+        <c:crossAx val="502503296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477724672"/>
+        <c:axId val="502503296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3225,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477710208"/>
+        <c:crossAx val="502398336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4159,11 +4159,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="503394688"/>
-        <c:axId val="503397376"/>
+        <c:axId val="506542336"/>
+        <c:axId val="517558272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="503394688"/>
+        <c:axId val="506542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,14 +4206,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503397376"/>
+        <c:crossAx val="517558272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="503397376"/>
+        <c:axId val="517558272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4264,7 +4264,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="503394688"/>
+        <c:crossAx val="506542336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5198,11 +5198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="509358080"/>
-        <c:axId val="509360768"/>
+        <c:axId val="517744512"/>
+        <c:axId val="517746048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="509358080"/>
+        <c:axId val="517744512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,14 +5245,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509360768"/>
+        <c:crossAx val="517746048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="509360768"/>
+        <c:axId val="517746048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,7 +5303,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="509358080"/>
+        <c:crossAx val="517744512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6237,11 +6237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510004608"/>
-        <c:axId val="510063360"/>
+        <c:axId val="603059712"/>
+        <c:axId val="603061248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510004608"/>
+        <c:axId val="603059712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,14 +6284,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510063360"/>
+        <c:crossAx val="603061248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510063360"/>
+        <c:axId val="603061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6342,7 +6342,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510004608"/>
+        <c:crossAx val="603059712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7276,11 +7276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511408384"/>
-        <c:axId val="511428864"/>
+        <c:axId val="619335040"/>
+        <c:axId val="620850176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511408384"/>
+        <c:axId val="619335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7323,14 +7323,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511428864"/>
+        <c:crossAx val="620850176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511428864"/>
+        <c:axId val="620850176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7381,7 +7381,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511408384"/>
+        <c:crossAx val="619335040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9219,13 +9219,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -9246,7 +9246,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -10559,13 +10559,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -10586,19 +10586,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="M1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10608,7 +10608,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12316,10 +12316,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>28</v>
@@ -14712,7 +14712,7 @@
         <v>0.99299997091293335</v>
       </c>
       <c r="C7" s="17">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D7" s="18">
         <v>2000</v>
@@ -14745,7 +14745,7 @@
         <v>1.0110000371932983</v>
       </c>
       <c r="C8" s="17">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D8" s="18">
         <v>2000</v>
@@ -14781,7 +14781,7 @@
         <v>0.99199998378753662</v>
       </c>
       <c r="C9" s="17">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D9" s="18">
         <v>2000</v>
@@ -14817,7 +14817,7 @@
         <v>0.89099997282028198</v>
       </c>
       <c r="C10" s="17">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D10" s="18">
         <v>2000</v>
@@ -14853,7 +14853,7 @@
         <v>0.88200002908706665</v>
       </c>
       <c r="C11" s="17">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D11" s="18">
         <v>2000</v>
@@ -14887,7 +14887,7 @@
         <v>0.79199999570846558</v>
       </c>
       <c r="C12" s="17">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D12" s="18">
         <v>2000</v>
@@ -14921,7 +14921,7 @@
         <v>0.71899998188018799</v>
       </c>
       <c r="C13" s="17">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D13" s="18">
         <v>2000</v>
@@ -14954,7 +14954,7 @@
         <v>0.74699997901916504</v>
       </c>
       <c r="C14" s="17">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D14" s="18">
         <v>2000</v>
@@ -14987,7 +14987,7 @@
         <v>0.84500002861022949</v>
       </c>
       <c r="C15" s="17">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D15" s="18">
         <v>2000</v>
@@ -15020,7 +15020,7 @@
         <v>0.80099999904632568</v>
       </c>
       <c r="C16" s="17">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D16" s="18">
         <v>2000</v>
@@ -15053,7 +15053,7 @@
         <v>0.76499998569488525</v>
       </c>
       <c r="C17" s="17">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D17" s="18">
         <v>2000</v>
@@ -15086,7 +15086,7 @@
         <v>0.69599997997283936</v>
       </c>
       <c r="C18" s="17">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D18" s="18">
         <v>2000</v>
@@ -15119,7 +15119,7 @@
         <v>0.68699997663497925</v>
       </c>
       <c r="C19" s="17">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D19" s="18">
         <v>2000</v>
@@ -15151,7 +15151,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C20" s="17">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D20" s="18">
         <v>2000</v>
@@ -15183,7 +15183,7 @@
         <v>0.72299998998641968</v>
       </c>
       <c r="C21" s="17">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D21" s="18">
         <v>2000</v>
@@ -15247,7 +15247,7 @@
         <v>0.7630000114440918</v>
       </c>
       <c r="C23" s="17">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D23" s="18">
         <v>2000</v>
@@ -15279,7 +15279,7 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="17">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D24" s="18">
         <v>2000</v>
@@ -15311,7 +15311,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="17">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D25" s="18">
         <v>2000</v>
@@ -15343,7 +15343,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="17">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D26" s="18">
         <v>2000</v>
@@ -15375,7 +15375,7 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="17">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D27" s="18">
         <v>2000</v>
@@ -15407,7 +15407,7 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="17">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D28" s="18">
         <v>2000</v>
@@ -15439,7 +15439,7 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="17">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D29" s="18">
         <v>2000</v>
@@ -15503,7 +15503,7 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="17">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D31" s="18">
         <v>2000</v>
@@ -15535,7 +15535,7 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="17">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D32" s="18">
         <v>2000</v>
@@ -15567,7 +15567,7 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="17">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D33" s="18">
         <v>2000</v>
@@ -15599,7 +15599,7 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="17">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D34" s="18">
         <v>2000</v>
@@ -15631,7 +15631,7 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="17">
-        <v>16.959999079999999</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D35" s="18">
         <v>2000</v>
@@ -15663,7 +15663,7 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="17">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D36" s="18">
         <v>2000</v>
@@ -15695,7 +15695,7 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="17">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D37" s="18">
         <v>2000</v>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -119,8 +119,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -129,6 +129,26 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -149,18 +169,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -193,10 +201,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3120,11 +3124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="502398336"/>
-        <c:axId val="502503296"/>
+        <c:axId val="528858112"/>
+        <c:axId val="528859904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="502398336"/>
+        <c:axId val="528858112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3167,14 +3171,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502503296"/>
+        <c:crossAx val="528859904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502503296"/>
+        <c:axId val="528859904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3229,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502398336"/>
+        <c:crossAx val="528858112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4159,11 +4163,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506542336"/>
-        <c:axId val="517558272"/>
+        <c:axId val="533316352"/>
+        <c:axId val="533317888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506542336"/>
+        <c:axId val="533316352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4206,14 +4210,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517558272"/>
+        <c:crossAx val="533317888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517558272"/>
+        <c:axId val="533317888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4264,7 +4268,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506542336"/>
+        <c:crossAx val="533316352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5198,11 +5202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="517744512"/>
-        <c:axId val="517746048"/>
+        <c:axId val="591323904"/>
+        <c:axId val="591870976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="517744512"/>
+        <c:axId val="591323904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5245,14 +5249,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517746048"/>
+        <c:crossAx val="591870976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517746048"/>
+        <c:axId val="591870976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5303,7 +5307,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517744512"/>
+        <c:crossAx val="591323904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6237,11 +6241,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="603059712"/>
-        <c:axId val="603061248"/>
+        <c:axId val="637461632"/>
+        <c:axId val="637464576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="603059712"/>
+        <c:axId val="637461632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,14 +6288,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603061248"/>
+        <c:crossAx val="637464576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="603061248"/>
+        <c:axId val="637464576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6342,7 +6346,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="603059712"/>
+        <c:crossAx val="637461632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7276,11 +7280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="619335040"/>
-        <c:axId val="620850176"/>
+        <c:axId val="696228480"/>
+        <c:axId val="697888128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="619335040"/>
+        <c:axId val="696228480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7323,14 +7327,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="620850176"/>
+        <c:crossAx val="697888128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="620850176"/>
+        <c:axId val="697888128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7381,7 +7385,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="619335040"/>
+        <c:crossAx val="696228480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9219,7 +9223,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -9257,7 +9261,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9307,7 +9311,7 @@
         <v>11</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>13</v>
@@ -10559,13 +10563,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -10586,19 +10590,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10608,7 +10612,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12316,13 +12320,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -12343,28 +12347,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12374,7 +12378,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14449,7 +14453,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,14 +45,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -119,8 +119,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -131,24 +131,8 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>总资产</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -169,6 +153,14 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -201,6 +193,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1973,7 +1969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2027,6 +2023,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -2362,7 +2359,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2467,6 +2464,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,7 +2476,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2581,6 +2581,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,7 +2626,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2728,6 +2731,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,7 +2743,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2842,6 +2848,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>60807.664804803564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61525.57556883576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2884,7 +2893,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2989,6 +2998,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,7 +3010,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3103,6 +3115,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-9192.335195196436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10474.42443116424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,11 +3139,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="528858112"/>
-        <c:axId val="528859904"/>
+        <c:axId val="475539328"/>
+        <c:axId val="475554944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="528858112"/>
+        <c:axId val="475539328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,14 +3186,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528859904"/>
+        <c:crossAx val="475554944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="528859904"/>
+        <c:axId val="475554944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3244,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528858112"/>
+        <c:crossAx val="475539328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3401,7 +3416,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3506,6 +3521,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3515,7 +3533,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3619,6 +3637,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>18000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3662,7 +3683,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3767,6 +3788,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,7 +3800,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3881,6 +3905,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>16351.748754391803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16006.982989507513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,7 +3950,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4028,6 +4055,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,7 +4067,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4142,6 +4172,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-1648.2512456081968</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1993.0170104924873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,11 +4196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="533316352"/>
-        <c:axId val="533317888"/>
+        <c:axId val="476686976"/>
+        <c:axId val="476693632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="533316352"/>
+        <c:axId val="476686976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,14 +4243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533317888"/>
+        <c:crossAx val="476693632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="533317888"/>
+        <c:axId val="476693632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="533316352"/>
+        <c:crossAx val="476686976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4440,7 +4473,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4545,6 +4578,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4554,7 +4590,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4659,6 +4695,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>81000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,7 +4740,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4806,6 +4845,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4815,7 +4857,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4920,6 +4962,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>68178.46474305325</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68740.967084617034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4962,7 +5007,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5067,6 +5112,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5076,7 +5124,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5181,6 +5229,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-10821.53525694675</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-12259.032915382966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5202,11 +5253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="591323904"/>
-        <c:axId val="591870976"/>
+        <c:axId val="477861376"/>
+        <c:axId val="486518784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="591323904"/>
+        <c:axId val="477861376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5249,14 +5300,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591870976"/>
+        <c:crossAx val="486518784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591870976"/>
+        <c:axId val="486518784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5307,7 +5358,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591323904"/>
+        <c:crossAx val="477861376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5479,7 +5530,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5584,6 +5635,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5593,7 +5647,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5698,6 +5752,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5740,7 +5797,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5845,6 +5902,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5854,7 +5914,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5959,6 +6019,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>62829.649305917141</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63504.927869346124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6001,7 +6064,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6106,6 +6169,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,7 +6181,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6220,6 +6286,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-9170.3506940828593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10495.072130653876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6241,11 +6310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637461632"/>
-        <c:axId val="637464576"/>
+        <c:axId val="605360896"/>
+        <c:axId val="605362432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637461632"/>
+        <c:axId val="605360896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6288,14 +6357,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637464576"/>
+        <c:crossAx val="605362432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637464576"/>
+        <c:axId val="605362432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6346,7 +6415,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637461632"/>
+        <c:crossAx val="605360896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6518,7 +6587,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6623,6 +6692,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6632,7 +6704,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6737,6 +6809,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6779,7 +6854,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6884,6 +6959,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6893,7 +6971,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6998,6 +7076,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>60807.664804803564</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61525.57556883576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7040,7 +7121,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7145,6 +7226,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7154,7 +7238,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7259,6 +7343,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-9192.335195196436</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10474.42443116424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7280,11 +7367,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="696228480"/>
-        <c:axId val="697888128"/>
+        <c:axId val="610196480"/>
+        <c:axId val="610208768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="696228480"/>
+        <c:axId val="610196480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7327,14 +7414,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697888128"/>
+        <c:crossAx val="610208768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697888128"/>
+        <c:axId val="610208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7385,7 +7472,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="696228480"/>
+        <c:crossAx val="610196480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7939,7 +8026,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8080,9 +8167,16 @@
         <f>-V3</f>
         <v>-14000</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="X3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>-Y3</f>
+        <v>-14000</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -8147,9 +8241,16 @@
         <f>-V4</f>
         <v>-24000</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>-Y4</f>
+        <v>-24000</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -8211,9 +8312,16 @@
       <c r="W5" s="26">
         <v>32817.979714730289</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
+      <c r="X5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>-Y5</f>
+        <v>-24000</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -8247,11 +8355,38 @@
         <v>-235.60568221502308</v>
       </c>
       <c r="J6" s="7"/>
+      <c r="M6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="N6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>62000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-11193.39672842557</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-0.18053865691008986</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-0.10435256236509272</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
         <v>-0.10248183981043768</v>
       </c>
+      <c r="X6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>50806.60327157443</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -8283,6 +8418,9 @@
         <v>22.937910215428928</v>
       </c>
       <c r="J7" s="7"/>
+      <c r="Z7" s="2">
+        <v>-0.10435256236509272</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -9175,6 +9313,38 @@
       <c r="I37" s="19">
         <v>-9192.335195196436</v>
       </c>
+    </row>
+    <row r="38" spans="1:9" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="E38" s="19">
+        <v>94654.735116277705</v>
+      </c>
+      <c r="F38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="G38" s="19">
+        <v>72000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-10474.42443116424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9187,7 +9357,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9226,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>19</v>
@@ -9261,7 +9431,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9311,7 +9481,7 @@
         <v>11</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>13</v>
@@ -9332,9 +9502,16 @@
         <f>-V3</f>
         <v>-2000</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="X3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>-Y3</f>
+        <v>-2000</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -9401,9 +9578,16 @@
         <f>-V4</f>
         <v>-10000</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>-Y4</f>
+        <v>-10000</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -9467,9 +9651,16 @@
       <c r="W5" s="26">
         <v>10997.619323354318</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
+      <c r="X5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>4000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>-Y5</f>
+        <v>-4000</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -9504,12 +9695,39 @@
       </c>
       <c r="J6" s="7">
         <v>-30.243784697079619</v>
+      </c>
+      <c r="M6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>16000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>13584.387248394427</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-2415.6127516055731</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-0.15097579697534833</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-8.4267762104583088E-2</v>
       </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
         <v>-7.2346332886421894E-2</v>
       </c>
+      <c r="X6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>13584.387248394427</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -9543,6 +9761,9 @@
       <c r="J7" s="7">
         <v>67.867888185983432</v>
       </c>
+      <c r="Z7" s="2">
+        <v>-8.4267762104583088E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -10514,6 +10735,41 @@
       <c r="J37" s="7">
         <v>191.90436156354073</v>
       </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <v>24626.128579446417</v>
+      </c>
+      <c r="F38" s="19">
+        <v>16006.982989507513</v>
+      </c>
+      <c r="G38" s="19">
+        <v>18000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>16006.982989507513</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-1993.0170104924873</v>
+      </c>
+      <c r="J38" s="7">
+        <v>-76.574709137121957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -10526,7 +10782,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10563,13 +10819,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -10590,19 +10846,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10612,7 +10868,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -10681,9 +10937,16 @@
         <f>-AA3</f>
         <v>-17000</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AC3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>17000</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>-AD3</f>
+        <v>-17000</v>
+      </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
@@ -10762,9 +11025,16 @@
         <f>-AA4</f>
         <v>-29000</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>29000</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-29000</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -10840,9 +11110,16 @@
       <c r="AB5" s="26">
         <v>39554.945324245164</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="8"/>
+      <c r="AC5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>-AD5</f>
+        <v>-24000</v>
+      </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -10889,12 +11166,39 @@
       </c>
       <c r="N6" s="1">
         <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="T6" s="4">
+        <v>70000</v>
+      </c>
+      <c r="U6" s="4">
+        <v>56816.759218770618</v>
+      </c>
+      <c r="V6" s="4">
+        <v>-13183.240781229382</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.18833201116041975</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-0.10569026332566067</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-0.10529414683888616</v>
       </c>
+      <c r="AC6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>56816.759218770618</v>
+      </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
@@ -10940,6 +11244,9 @@
       <c r="N7" s="1">
         <v>21.227182147461402</v>
       </c>
+      <c r="AE7" s="2">
+        <v>-0.10569026332566067</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -12271,6 +12578,53 @@
       <c r="N37" s="1">
         <v>48.759853737518327</v>
       </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="E38" s="19">
+        <v>105755.33785541658</v>
+      </c>
+      <c r="F38" s="19">
+        <v>68740.967084617034</v>
+      </c>
+      <c r="G38" s="19">
+        <v>81000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>68740.967084617034</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-12259.032915382966</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="7">
+        <v>1.3063773755220243E-2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>1.3999998569488525E-2</v>
+      </c>
+      <c r="M38" s="7">
+        <v>2.9125402295008165E-2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>44.853539267539169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12283,7 +12637,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12320,10 +12674,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>19</v>
@@ -12347,28 +12701,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12378,7 +12732,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12470,9 +12824,16 @@
         <f>-AA3</f>
         <v>-14000</v>
       </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
+      <c r="AC3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="AE3" s="7">
+        <f>-AD3</f>
+        <v>-14000</v>
+      </c>
       <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
@@ -12560,9 +12921,16 @@
         <f>-AA4</f>
         <v>-25000</v>
       </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
+      <c r="AC4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>25000</v>
+      </c>
+      <c r="AE4" s="7">
+        <f>-AD4</f>
+        <v>-25000</v>
+      </c>
       <c r="AF4" s="6"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
@@ -12647,9 +13015,16 @@
       <c r="AB5" s="26">
         <v>33730.858494912194</v>
       </c>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="8"/>
+      <c r="AC5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="AE5" s="8">
+        <f>-AD5</f>
+        <v>-24000</v>
+      </c>
       <c r="AF5" s="6"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="7"/>
@@ -12705,12 +13080,39 @@
       </c>
       <c r="Q6" s="1">
         <v>7.3892319506355477</v>
+      </c>
+      <c r="R6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="S6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="T6" s="4">
+        <v>63000</v>
+      </c>
+      <c r="U6" s="4">
+        <v>51620.997191298564</v>
+      </c>
+      <c r="V6" s="4">
+        <v>-11379.002808701436</v>
+      </c>
+      <c r="W6" s="9">
+        <v>-0.1806190922016101</v>
+      </c>
+      <c r="X6" s="9">
+        <v>-0.1042334230244325</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="8">
         <v>-0.1021754534154119</v>
       </c>
+      <c r="AC6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>51620.997191298564</v>
+      </c>
       <c r="AH6" s="2"/>
     </row>
     <row r="7" spans="1:34" ht="14.1" customHeight="1">
@@ -12765,6 +13167,9 @@
       <c r="Q7" s="1">
         <v>21.676636258652678</v>
       </c>
+      <c r="AE7" s="2">
+        <v>-0.1042334230244325</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -14366,6 +14771,62 @@
       <c r="Q37" s="1">
         <v>56.964475621537929</v>
       </c>
+    </row>
+    <row r="38" spans="1:17" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="E38" s="19">
+        <v>97699.892613373973</v>
+      </c>
+      <c r="F38" s="19">
+        <v>63504.927869346124</v>
+      </c>
+      <c r="G38" s="19">
+        <v>74000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>63504.927869346124</v>
+      </c>
+      <c r="I38" s="19">
+        <v>-10495.072130653876</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N38" s="7">
+        <v>59.999981177480358</v>
+      </c>
+      <c r="O38" s="7">
+        <v>46.023843651637272</v>
+      </c>
+      <c r="P38" s="7">
+        <v>35.388897565415505</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>67.293735824080812</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -14378,7 +14839,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC37"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14453,7 +14914,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -14525,9 +14986,16 @@
         <f>-V3</f>
         <v>-14000</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="X3" s="21">
+        <v>44561</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>14000</v>
+      </c>
+      <c r="Z3" s="7">
+        <f>-Y3</f>
+        <v>-14000</v>
+      </c>
       <c r="AA3" s="6"/>
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
@@ -14595,9 +15063,16 @@
         <f>-V4</f>
         <v>-24000</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="X4" s="21">
+        <v>44925</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>-Y4</f>
+        <v>-24000</v>
+      </c>
       <c r="AA4" s="6"/>
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
@@ -14662,9 +15137,16 @@
       <c r="W5" s="26">
         <v>32817.979714730289</v>
       </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="8"/>
+      <c r="X5" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>24000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>-Y5</f>
+        <v>-24000</v>
+      </c>
       <c r="AA5" s="6"/>
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
@@ -14701,11 +15183,38 @@
         <v>-235.60568221502308</v>
       </c>
       <c r="K6" s="7"/>
+      <c r="M6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="N6" s="10">
+        <v>24000</v>
+      </c>
+      <c r="O6" s="4">
+        <v>62000</v>
+      </c>
+      <c r="P6" s="4">
+        <v>50806.60327157443</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-11193.39672842557</v>
+      </c>
+      <c r="R6" s="9">
+        <v>-0.18053865691008986</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-0.10435256236509272</v>
+      </c>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="8">
         <v>-0.10248183981043768</v>
       </c>
+      <c r="X6" s="21">
+        <v>45289</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>50806.60327157443</v>
+      </c>
       <c r="AC6" s="2"/>
     </row>
     <row r="7" spans="1:29" ht="14.1" customHeight="1">
@@ -14740,6 +15249,9 @@
         <v>22.937910215428928</v>
       </c>
       <c r="K7" s="7"/>
+      <c r="Z7" s="2">
+        <v>-0.10435256236509272</v>
+      </c>
     </row>
     <row r="8" spans="1:29" ht="14.1" customHeight="1">
       <c r="A8" s="16">
@@ -15283,7 +15795,7 @@
         <v>0.77100002765655518</v>
       </c>
       <c r="C24" s="17">
-        <v>24.159999847412109</v>
+        <v>24.159999849999998</v>
       </c>
       <c r="D24" s="18">
         <v>2000</v>
@@ -15315,7 +15827,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="C25" s="17">
-        <v>23.579999923706055</v>
+        <v>23.579999919999999</v>
       </c>
       <c r="D25" s="18">
         <v>2000</v>
@@ -15347,7 +15859,7 @@
         <v>0.72000002861022949</v>
       </c>
       <c r="C26" s="17">
-        <v>21.329999923706055</v>
+        <v>21.329999919999999</v>
       </c>
       <c r="D26" s="18">
         <v>2000</v>
@@ -15379,7 +15891,7 @@
         <v>0.75499999523162842</v>
       </c>
       <c r="C27" s="17">
-        <v>22.200000762939453</v>
+        <v>22.200000760000002</v>
       </c>
       <c r="D27" s="18">
         <v>2000</v>
@@ -15411,7 +15923,7 @@
         <v>0.76099997758865356</v>
       </c>
       <c r="C28" s="17">
-        <v>22.409999847412109</v>
+        <v>22.409999849999998</v>
       </c>
       <c r="D28" s="18">
         <v>2000</v>
@@ -15443,7 +15955,7 @@
         <v>0.71399998664855957</v>
       </c>
       <c r="C29" s="17">
-        <v>20.899999618530273</v>
+        <v>20.899999619999999</v>
       </c>
       <c r="D29" s="18">
         <v>2000</v>
@@ -15507,7 +16019,7 @@
         <v>0.66299998760223389</v>
       </c>
       <c r="C31" s="17">
-        <v>18.770000457763672</v>
+        <v>18.770000459999999</v>
       </c>
       <c r="D31" s="18">
         <v>2000</v>
@@ -15539,7 +16051,7 @@
         <v>0.65100002288818359</v>
       </c>
       <c r="C32" s="17">
-        <v>17.930000305175781</v>
+        <v>17.93000031</v>
       </c>
       <c r="D32" s="18">
         <v>2000</v>
@@ -15571,7 +16083,7 @@
         <v>0.64499998092651367</v>
       </c>
       <c r="C33" s="17">
-        <v>17.709999084472656</v>
+        <v>17.709999079999999</v>
       </c>
       <c r="D33" s="18">
         <v>2000</v>
@@ -15603,7 +16115,7 @@
         <v>0.56099998950958252</v>
       </c>
       <c r="C34" s="17">
-        <v>15.380000114440918</v>
+        <v>15.380000109999999</v>
       </c>
       <c r="D34" s="18">
         <v>2000</v>
@@ -15635,7 +16147,7 @@
         <v>0.6380000114440918</v>
       </c>
       <c r="C35" s="17">
-        <v>17.479999542236328</v>
+        <v>17.479999540000001</v>
       </c>
       <c r="D35" s="18">
         <v>2000</v>
@@ -15667,7 +16179,7 @@
         <v>0.64600002765655518</v>
       </c>
       <c r="C36" s="17">
-        <v>17.700000762939453</v>
+        <v>17.700000760000002</v>
       </c>
       <c r="D36" s="18">
         <v>2000</v>
@@ -15699,7 +16211,7 @@
         <v>0.66399997472763062</v>
       </c>
       <c r="C37" s="17">
-        <v>18.110000610351563</v>
+        <v>18.11000061</v>
       </c>
       <c r="D37" s="18">
         <v>2000</v>
@@ -15722,6 +16234,41 @@
       <c r="J37" s="19">
         <v>-9192.335195196436</v>
       </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.75">
+      <c r="A38" s="16">
+        <v>45443</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C38" s="17">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3076.9231897839468</v>
+      </c>
+      <c r="F38" s="19">
+        <v>94654.735116277705</v>
+      </c>
+      <c r="G38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="H38" s="19">
+        <v>72000</v>
+      </c>
+      <c r="I38" s="19">
+        <v>61525.57556883576</v>
+      </c>
+      <c r="J38" s="19">
+        <v>-10474.42443116424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -131,10 +131,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
@@ -1969,7 +1969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2023,7 +2023,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -2359,7 +2358,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2467,6 +2466,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,7 +2478,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2584,6 +2586,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,7 +2631,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2734,6 +2739,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,7 +2751,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2851,6 +2859,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>61525.57556883576</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62200.409412612564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2893,7 +2904,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3001,6 +3012,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3010,7 +3024,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3118,6 +3132,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-10474.42443116424</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11799.590587387436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,11 +3156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475539328"/>
-        <c:axId val="475554944"/>
+        <c:axId val="538057344"/>
+        <c:axId val="538064768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475539328"/>
+        <c:axId val="538057344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,14 +3203,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475554944"/>
+        <c:crossAx val="538064768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="475554944"/>
+        <c:axId val="538064768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3244,7 +3261,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475539328"/>
+        <c:crossAx val="538057344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3416,7 +3433,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3524,6 +3541,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,7 +3553,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3641,6 +3661,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3683,7 +3706,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3791,6 +3814,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3800,7 +3826,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3908,6 +3934,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>16006.982989507513</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17662.217224623222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3950,7 +3979,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4058,6 +4087,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4067,7 +4099,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4175,6 +4207,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-1993.0170104924873</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2337.7827753767779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,11 +4231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476686976"/>
-        <c:axId val="476693632"/>
+        <c:axId val="538218880"/>
+        <c:axId val="538331008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476686976"/>
+        <c:axId val="538218880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,14 +4278,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476693632"/>
+        <c:crossAx val="538331008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476693632"/>
+        <c:axId val="538331008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,7 +4336,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476686976"/>
+        <c:crossAx val="538218880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4473,7 +4508,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4581,6 +4616,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4590,7 +4628,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4698,6 +4736,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>83000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4740,7 +4781,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4848,6 +4889,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4857,7 +4901,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4965,6 +5009,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>68740.967084617034</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69260.39250592544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5007,7 +5054,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5115,6 +5162,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5124,7 +5174,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5232,6 +5282,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-12259.032915382966</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-13739.60749407456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5253,11 +5306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="477861376"/>
-        <c:axId val="486518784"/>
+        <c:axId val="538863488"/>
+        <c:axId val="539015040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="477861376"/>
+        <c:axId val="538863488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5300,14 +5353,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="486518784"/>
+        <c:crossAx val="539015040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="486518784"/>
+        <c:axId val="539015040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,7 +5411,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477861376"/>
+        <c:crossAx val="538863488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5530,7 +5583,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5638,6 +5691,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5647,7 +5703,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5755,6 +5811,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,7 +5856,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5905,6 +5964,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5914,7 +5976,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6022,6 +6084,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>63504.927869346124</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64137.129512519707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6064,7 +6129,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6172,6 +6237,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6181,7 +6249,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6289,6 +6357,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-10495.072130653876</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11862.870487480293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6310,11 +6381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="605360896"/>
-        <c:axId val="605362432"/>
+        <c:axId val="546418048"/>
+        <c:axId val="609357824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="605360896"/>
+        <c:axId val="546418048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6357,14 +6428,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605362432"/>
+        <c:crossAx val="609357824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="605362432"/>
+        <c:axId val="609357824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6415,7 +6486,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605360896"/>
+        <c:crossAx val="546418048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6587,7 +6658,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6695,6 +6766,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6704,7 +6778,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6812,6 +6886,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>74000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6854,7 +6931,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6962,6 +7039,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,7 +7051,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7079,6 +7159,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>61525.57556883576</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62200.409412612564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7121,7 +7204,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7229,6 +7312,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7238,7 +7324,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7346,6 +7432,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-10474.42443116424</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-11799.590587387436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7367,11 +7456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="610196480"/>
-        <c:axId val="610208768"/>
+        <c:axId val="609403648"/>
+        <c:axId val="609405184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="610196480"/>
+        <c:axId val="609403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7414,14 +7503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610208768"/>
+        <c:crossAx val="609405184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610208768"/>
+        <c:axId val="609405184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7472,7 +7561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610196480"/>
+        <c:crossAx val="609403648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9343,8 +9432,34 @@
         <v>-10474.42443116424</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:9" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>97799.38931513924</v>
+      </c>
+      <c r="F39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="G39" s="19">
+        <v>74000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-11799.590587387436</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10768,8 +10883,37 @@
         <v>-76.574709137121957</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F39" s="19">
+        <v>17662.217224623222</v>
+      </c>
+      <c r="G39" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>17662.217224623222</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-2337.7827753767779</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-109.41232702522433</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -10819,7 +10963,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -10846,19 +10990,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -10868,7 +11012,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12623,8 +12767,49 @@
         <v>44.853539267539169</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:14" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>108899.99205427812</v>
+      </c>
+      <c r="F39" s="19">
+        <v>69260.39250592544</v>
+      </c>
+      <c r="G39" s="19">
+        <v>83000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>69260.39250592544</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-13739.60749407456</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="7">
+        <v>1.0886478129350202E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <v>1.3999998569488525E-2</v>
+      </c>
+      <c r="M39" s="7">
+        <v>2.6604501674088222E-2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>40.919684430523347</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12674,7 +12859,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>28</v>
@@ -14825,8 +15010,58 @@
         <v>67.293735824080812</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:17" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="E39" s="19">
+        <v>100844.54681223551</v>
+      </c>
+      <c r="F39" s="19">
+        <v>64137.129512519707</v>
+      </c>
+      <c r="G39" s="19">
+        <v>76000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>64137.129512519707</v>
+      </c>
+      <c r="I39" s="19">
+        <v>-11862.870487480293</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N39" s="7">
+        <v>62.893067379123451</v>
+      </c>
+      <c r="O39" s="7">
+        <v>51.646918227465996</v>
+      </c>
+      <c r="P39" s="7">
+        <v>40.808237786098999</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>73.324279110199996</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -16267,8 +16502,37 @@
         <v>-10474.42443116424</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="27"/>
+    <row r="39" spans="1:10" ht="12.75">
+      <c r="A39" s="16">
+        <v>45471</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C39" s="17">
+        <v>17.86000061</v>
+      </c>
+      <c r="D39" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="19">
+        <v>3144.6541988615327</v>
+      </c>
+      <c r="F39" s="19">
+        <v>97799.38931513924</v>
+      </c>
+      <c r="G39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="H39" s="19">
+        <v>74000</v>
+      </c>
+      <c r="I39" s="19">
+        <v>62200.409412612564</v>
+      </c>
+      <c r="J39" s="19">
+        <v>-11799.590587387436</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,7 +119,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PE</t>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,6 +141,14 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -149,18 +169,6 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -193,10 +201,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2358,7 +2362,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2469,6 +2473,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2478,7 +2485,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2589,6 +2596,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,7 +2641,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2742,6 +2752,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,7 +2764,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2862,6 +2875,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>62200.409412612564</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63907.015022052161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,7 +2920,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3015,6 +3031,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,7 +3043,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3135,6 +3154,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-11799.590587387436</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12092.984977947839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,11 +3178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538057344"/>
-        <c:axId val="538064768"/>
+        <c:axId val="491295488"/>
+        <c:axId val="491297024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538057344"/>
+        <c:axId val="491295488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3203,14 +3225,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538064768"/>
+        <c:crossAx val="491297024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538064768"/>
+        <c:axId val="491297024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,7 +3283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538057344"/>
+        <c:crossAx val="491295488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3433,7 +3455,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3544,6 +3566,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3553,7 +3578,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3663,6 +3688,9 @@
                   <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3706,7 +3734,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3817,6 +3845,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,7 +3857,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3937,6 +3968,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>17662.217224623222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17578.905948901731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +4013,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4090,6 +4124,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,7 +4136,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4210,6 +4247,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-2337.7827753767779</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2421.0940510982691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,11 +4271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538218880"/>
-        <c:axId val="538331008"/>
+        <c:axId val="493891584"/>
+        <c:axId val="493893888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538218880"/>
+        <c:axId val="493891584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,14 +4318,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538331008"/>
+        <c:crossAx val="493893888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="538331008"/>
+        <c:axId val="493893888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4336,7 +4376,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538218880"/>
+        <c:crossAx val="493891584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4508,7 +4548,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4619,6 +4659,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4628,7 +4671,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4739,6 +4782,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>83000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>85000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4781,7 +4827,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4892,6 +4938,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4901,7 +4950,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5012,6 +5061,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>69260.39250592544</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70933.696735895181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5054,7 +5106,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5165,6 +5217,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5174,7 +5229,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5285,6 +5340,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-13739.60749407456</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-14066.303264104819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,11 +5364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="538863488"/>
-        <c:axId val="539015040"/>
+        <c:axId val="494251008"/>
+        <c:axId val="494380544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="538863488"/>
+        <c:axId val="494251008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5353,14 +5411,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539015040"/>
+        <c:crossAx val="494380544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539015040"/>
+        <c:axId val="494380544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,7 +5469,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538863488"/>
+        <c:crossAx val="494251008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5583,7 +5641,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5694,6 +5752,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,7 +5764,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5814,6 +5875,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5856,7 +5920,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5967,6 +6031,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5976,7 +6043,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6087,6 +6154,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>64137.129512519707</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65834.599767083608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6129,7 +6199,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6240,6 +6310,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6249,7 +6322,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6360,6 +6433,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-11862.870487480293</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12165.400232916392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6381,11 +6457,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="546418048"/>
-        <c:axId val="609357824"/>
+        <c:axId val="501216384"/>
+        <c:axId val="501237632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="546418048"/>
+        <c:axId val="501216384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6428,14 +6504,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609357824"/>
+        <c:crossAx val="501237632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609357824"/>
+        <c:axId val="501237632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6486,7 +6562,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="546418048"/>
+        <c:crossAx val="501216384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6658,7 +6734,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6769,6 +6845,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6778,7 +6857,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6889,6 +6968,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>74000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6931,7 +7013,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7042,6 +7124,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7051,7 +7136,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7162,6 +7247,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>62200.409412612564</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63907.015022052161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7204,7 +7292,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7315,6 +7403,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7324,7 +7415,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7435,6 +7526,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-11799.590587387436</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-12092.984977947839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7456,11 +7550,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609403648"/>
-        <c:axId val="609405184"/>
+        <c:axId val="526570240"/>
+        <c:axId val="526572160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609403648"/>
+        <c:axId val="526570240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,14 +7597,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609405184"/>
+        <c:crossAx val="526572160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609405184"/>
+        <c:axId val="526572160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7561,7 +7655,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609403648"/>
+        <c:crossAx val="526570240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8115,7 +8209,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8152,31 +8246,31 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -8187,7 +8281,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8226,25 +8320,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="M3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -9459,6 +9553,35 @@
       </c>
       <c r="I39" s="19">
         <v>-11799.590587387436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="E40" s="19">
+        <v>100958.94689614365</v>
+      </c>
+      <c r="F40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="G40" s="19">
+        <v>76000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-12092.984977947839</v>
       </c>
     </row>
   </sheetData>
@@ -9472,7 +9595,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9508,34 +9631,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -9546,7 +9669,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9587,25 +9710,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -10913,6 +11036,38 @@
       </c>
       <c r="J39" s="7">
         <v>-109.41232702522433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F40" s="19">
+        <v>17578.905948901731</v>
+      </c>
+      <c r="G40" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>17578.905948901731</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-2421.0940510982691</v>
+      </c>
+      <c r="J40" s="7">
+        <v>-35.422966834096719</v>
       </c>
     </row>
   </sheetData>
@@ -10926,7 +11081,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10963,46 +11118,46 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11012,7 +11167,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -11051,25 +11206,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="R3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -12809,6 +12964,50 @@
       </c>
       <c r="N39" s="1">
         <v>40.919684430523347</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="E40" s="19">
+        <v>112059.54963528253</v>
+      </c>
+      <c r="F40" s="19">
+        <v>70933.696735895181</v>
+      </c>
+      <c r="G40" s="19">
+        <v>85000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>70933.696735895181</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-14066.303264104819</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="7">
+        <v>9.0720651077918352E-3</v>
+      </c>
+      <c r="L40" s="7">
+        <v>2.9999613761901855E-3</v>
+      </c>
+      <c r="M40" s="7">
+        <v>2.2670411624438547E-2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>40.017205060415456</v>
       </c>
     </row>
   </sheetData>
@@ -12822,7 +13021,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12859,55 +13058,55 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12917,7 +13116,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12979,25 +13178,25 @@
         <v>86.363636363635862</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -15061,6 +15260,59 @@
       </c>
       <c r="Q39" s="1">
         <v>73.324279110199996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="E40" s="19">
+        <v>104004.10439323992</v>
+      </c>
+      <c r="F40" s="19">
+        <v>65834.599767083608</v>
+      </c>
+      <c r="G40" s="19">
+        <v>78000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>65834.599767083608</v>
+      </c>
+      <c r="I40" s="19">
+        <v>-12165.400232916392</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N40" s="7">
+        <v>65.986389868671111</v>
+      </c>
+      <c r="O40" s="7">
+        <v>56.426742107867703</v>
+      </c>
+      <c r="P40" s="7">
+        <v>46.014405893355239</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>77.251414536892625</v>
       </c>
     </row>
   </sheetData>
@@ -15074,7 +15326,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15110,34 +15362,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="13"/>
     </row>
@@ -15149,7 +15401,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -15191,25 +15443,25 @@
       </c>
       <c r="K3" s="7"/>
       <c r="M3" s="22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -16532,6 +16784,38 @@
       </c>
       <c r="J39" s="19">
         <v>-11799.590587387436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.75">
+      <c r="A40" s="16">
+        <v>45504</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C40" s="17">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="19">
+        <v>3159.5575810044052</v>
+      </c>
+      <c r="F40" s="19">
+        <v>100958.94689614365</v>
+      </c>
+      <c r="G40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="H40" s="19">
+        <v>76000</v>
+      </c>
+      <c r="I40" s="19">
+        <v>63907.015022052161</v>
+      </c>
+      <c r="J40" s="19">
+        <v>-12092.984977947839</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -46,10 +46,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -123,11 +119,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
+    <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,14 +133,6 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -169,6 +153,18 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -201,6 +197,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2362,7 +2362,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2476,6 +2476,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2488,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2599,6 +2602,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2641,7 +2647,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2755,6 +2761,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,7 +2773,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2878,6 +2887,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>63907.015022052161</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63584.959050876947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,7 +2932,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3034,6 +3046,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,7 +3058,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3157,6 +3172,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-12092.984977947839</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14415.040949123053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3178,11 +3196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491295488"/>
-        <c:axId val="491297024"/>
+        <c:axId val="474851584"/>
+        <c:axId val="474853760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491295488"/>
+        <c:axId val="474851584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,14 +3243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491297024"/>
+        <c:crossAx val="474853760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491297024"/>
+        <c:axId val="474853760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491295488"/>
+        <c:crossAx val="474851584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3455,7 +3473,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3569,6 +3587,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3578,7 +3599,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3691,6 +3712,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3734,7 +3758,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3848,6 +3872,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,7 +3884,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3971,6 +3998,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>17578.905948901731</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16940.177892032083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,7 +4043,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4127,6 +4157,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4136,7 +4169,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4250,6 +4283,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-2421.0940510982691</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3059.822107967917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4271,11 +4307,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493891584"/>
-        <c:axId val="493893888"/>
+        <c:axId val="488712064"/>
+        <c:axId val="488880384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493891584"/>
+        <c:axId val="488712064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4318,14 +4354,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493893888"/>
+        <c:crossAx val="488880384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493893888"/>
+        <c:axId val="488880384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4376,7 +4412,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493891584"/>
+        <c:crossAx val="488712064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4548,7 +4584,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4662,6 +4698,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4671,7 +4710,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4785,6 +4824,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>85000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4827,7 +4869,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4941,6 +4983,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,7 +4995,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5064,6 +5109,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>70933.696735895181</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70356.326880547058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5106,7 +5154,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5220,6 +5268,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5229,7 +5280,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5343,6 +5394,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-14066.303264104819</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-16643.673119452942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5364,11 +5418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494251008"/>
-        <c:axId val="494380544"/>
+        <c:axId val="489233024"/>
+        <c:axId val="489270272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494251008"/>
+        <c:axId val="489233024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5411,14 +5465,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494380544"/>
+        <c:crossAx val="489270272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494380544"/>
+        <c:axId val="489270272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,7 +5523,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494251008"/>
+        <c:crossAx val="489233024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5641,7 +5695,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5755,6 +5809,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5764,7 +5821,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5878,6 +5935,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,7 +5980,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6034,6 +6094,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6043,7 +6106,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6157,6 +6220,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>65834.599767083608</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>65442.505167666997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6199,7 +6265,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6313,6 +6379,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6322,7 +6391,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6436,6 +6505,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-12165.400232916392</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14557.494832333003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6457,11 +6529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501216384"/>
-        <c:axId val="501237632"/>
+        <c:axId val="496788608"/>
+        <c:axId val="629145984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501216384"/>
+        <c:axId val="496788608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,14 +6576,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501237632"/>
+        <c:crossAx val="629145984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501237632"/>
+        <c:axId val="629145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6562,7 +6634,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501216384"/>
+        <c:crossAx val="496788608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6734,7 +6806,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6848,6 +6920,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6857,7 +6932,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6971,6 +7046,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7013,7 +7091,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7127,6 +7205,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7136,7 +7217,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7250,6 +7331,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>63907.015022052161</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63584.959050876947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7292,7 +7376,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7406,6 +7490,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7415,7 +7502,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7529,6 +7616,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-12092.984977947839</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-14415.040949123053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7550,11 +7640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="526570240"/>
-        <c:axId val="526572160"/>
+        <c:axId val="687105152"/>
+        <c:axId val="697189120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="526570240"/>
+        <c:axId val="687105152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7597,14 +7687,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526572160"/>
+        <c:crossAx val="697189120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="526572160"/>
+        <c:axId val="697189120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7655,7 +7745,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526570240"/>
+        <c:crossAx val="687105152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8209,7 +8299,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8246,31 +8336,31 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -8281,7 +8371,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -8320,25 +8410,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -9582,6 +9672,35 @@
       </c>
       <c r="I40" s="19">
         <v>-12092.984977947839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>104237.63534384526</v>
+      </c>
+      <c r="F41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="G41" s="19">
+        <v>78000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-14415.040949123053</v>
       </c>
     </row>
   </sheetData>
@@ -9595,7 +9714,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9631,34 +9750,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -9669,7 +9788,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -9710,25 +9829,25 @@
         <v>0</v>
       </c>
       <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -11068,6 +11187,38 @@
       </c>
       <c r="J40" s="7">
         <v>-35.422966834096719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0</v>
+      </c>
+      <c r="E41" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F41" s="19">
+        <v>16940.177892032083</v>
+      </c>
+      <c r="G41" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>16940.177892032083</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-3059.822107967917</v>
+      </c>
+      <c r="J41" s="7">
+        <v>170.37062431435149</v>
       </c>
     </row>
   </sheetData>
@@ -11081,7 +11232,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11118,46 +11269,46 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="M1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11167,7 +11318,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -11206,25 +11357,25 @@
       </c>
       <c r="J3" s="7"/>
       <c r="R3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -13008,6 +13159,50 @@
       </c>
       <c r="N40" s="1">
         <v>40.017205060415456</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>115338.23808298414</v>
+      </c>
+      <c r="F41" s="19">
+        <v>70356.326880547058</v>
+      </c>
+      <c r="G41" s="19">
+        <v>87000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>70356.326880547058</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-16643.673119452942</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="7">
+        <v>7.5600542564931957E-3</v>
+      </c>
+      <c r="L41" s="7">
+        <v>2.3000001907348633E-2</v>
+      </c>
+      <c r="M41" s="7">
+        <v>2.2725343338256893E-2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>33.267062873220716</v>
       </c>
     </row>
   </sheetData>
@@ -13021,7 +13216,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH40"/>
+  <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13058,55 +13253,55 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>9</v>
-      </c>
       <c r="J1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13116,7 +13311,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13178,25 +13373,25 @@
         <v>86.363636363635862</v>
       </c>
       <c r="R3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="Z3" s="21">
         <v>44561</v>
@@ -15313,6 +15508,59 @@
       </c>
       <c r="Q40" s="1">
         <v>77.251414536892625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="E41" s="19">
+        <v>107282.79284094153</v>
+      </c>
+      <c r="F41" s="19">
+        <v>65442.505167666997</v>
+      </c>
+      <c r="G41" s="19">
+        <v>80000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>65442.505167666997</v>
+      </c>
+      <c r="I41" s="19">
+        <v>-14557.494832333003</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N41" s="7">
+        <v>50.340131641102225</v>
+      </c>
+      <c r="O41" s="7">
+        <v>54.39787195227921</v>
+      </c>
+      <c r="P41" s="7">
+        <v>48.808894579663225</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>65.575826697511175</v>
       </c>
     </row>
   </sheetData>
@@ -15326,7 +15574,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC40"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15362,34 +15610,34 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="L1" s="13"/>
     </row>
@@ -15401,7 +15649,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -15443,25 +15691,25 @@
       </c>
       <c r="K3" s="7"/>
       <c r="M3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="U3" s="21">
         <v>44561</v>
@@ -16816,6 +17064,38 @@
       </c>
       <c r="J40" s="19">
         <v>-12092.984977947839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="12.75">
+      <c r="A41" s="16">
+        <v>45534</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C41" s="17">
+        <v>20.56999969</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="19">
+        <v>3278.6884477016156</v>
+      </c>
+      <c r="F41" s="19">
+        <v>104237.63534384526</v>
+      </c>
+      <c r="G41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="H41" s="19">
+        <v>78000</v>
+      </c>
+      <c r="I41" s="19">
+        <v>63584.959050876947</v>
+      </c>
+      <c r="J41" s="19">
+        <v>-14415.040949123053</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,11 +155,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>买卖金额</t>
+    <t>深创100ETF</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -197,10 +193,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2362,7 +2354,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2479,6 +2471,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2488,7 +2483,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2605,6 +2600,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,7 +2645,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2764,6 +2762,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2773,7 +2774,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2890,6 +2891,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>63584.959050876947</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81950.268346608806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,7 +2936,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3049,6 +3053,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,7 +3065,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3175,6 +3182,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-14415.040949123053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1950.2683466088056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3196,11 +3206,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474851584"/>
-        <c:axId val="474853760"/>
+        <c:axId val="439729152"/>
+        <c:axId val="440346880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474851584"/>
+        <c:axId val="439729152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3243,14 +3253,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474853760"/>
+        <c:crossAx val="440346880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="474853760"/>
+        <c:axId val="440346880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3301,7 +3311,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474851584"/>
+        <c:crossAx val="439729152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3473,7 +3483,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3590,6 +3600,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3599,7 +3612,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3715,6 +3728,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3758,7 +3774,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3875,6 +3891,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3884,7 +3903,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4001,6 +4020,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>16940.177892032083</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21300.190933889982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,7 +4065,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4160,6 +4182,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,7 +4194,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4286,6 +4311,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-3059.822107967917</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1300.1909338899823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4307,11 +4335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488712064"/>
-        <c:axId val="488880384"/>
+        <c:axId val="451410560"/>
+        <c:axId val="468302464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488712064"/>
+        <c:axId val="451410560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,14 +4382,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488880384"/>
+        <c:crossAx val="468302464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="488880384"/>
+        <c:axId val="468302464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4440,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488712064"/>
+        <c:crossAx val="451410560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4584,7 +4612,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4701,6 +4729,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4710,7 +4741,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4827,6 +4858,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>87000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,7 +4903,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4986,6 +5020,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,7 +5032,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5112,6 +5149,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>70356.326880547058</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>90464.430864548704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,7 +5194,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5271,6 +5311,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,7 +5323,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5397,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-16643.673119452942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1464.4308645487035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5418,11 +5464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489233024"/>
-        <c:axId val="489270272"/>
+        <c:axId val="470529536"/>
+        <c:axId val="470531456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489233024"/>
+        <c:axId val="470529536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,14 +5511,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489270272"/>
+        <c:crossAx val="470531456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489270272"/>
+        <c:axId val="470531456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5523,7 +5569,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489233024"/>
+        <c:crossAx val="470529536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5695,7 +5741,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5812,6 +5858,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5821,7 +5870,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5938,6 +5987,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5980,7 +6032,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6097,6 +6149,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6106,7 +6161,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6223,6 +6278,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>65442.505167666997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84285.904206415464</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6265,7 +6323,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6382,6 +6440,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6391,7 +6452,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6508,6 +6569,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-14557.494832333003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2285.9042064154637</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,11 +6593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496788608"/>
-        <c:axId val="629145984"/>
+        <c:axId val="472024576"/>
+        <c:axId val="472036096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496788608"/>
+        <c:axId val="472024576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6576,14 +6640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629145984"/>
+        <c:crossAx val="472036096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="629145984"/>
+        <c:axId val="472036096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6634,7 +6698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496788608"/>
+        <c:crossAx val="472024576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6806,7 +6870,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6923,6 +6987,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6932,7 +6999,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7049,6 +7116,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,7 +7161,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7208,6 +7278,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7217,7 +7290,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7334,6 +7407,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>63584.959050876947</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>81950.268346608806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7376,7 +7452,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7493,6 +7569,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7502,7 +7581,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7619,6 +7698,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-14415.040949123053</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1950.2683466088056</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7640,11 +7722,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="687105152"/>
-        <c:axId val="697189120"/>
+        <c:axId val="474449408"/>
+        <c:axId val="497140480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="687105152"/>
+        <c:axId val="474449408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,14 +7769,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="697189120"/>
+        <c:crossAx val="497140480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="697189120"/>
+        <c:axId val="497140480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7745,7 +7827,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="687105152"/>
+        <c:crossAx val="474449408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8299,7 +8381,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9703,6 +9785,35 @@
         <v>-14415.040949123053</v>
       </c>
     </row>
+    <row r="42" spans="1:9" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="E42" s="19">
+        <v>106845.19720697607</v>
+      </c>
+      <c r="F42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="G42" s="19">
+        <v>80000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1950.2683466088056</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9714,7 +9825,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9750,13 +9861,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -9777,7 +9888,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="13"/>
     </row>
@@ -11219,6 +11330,38 @@
       </c>
       <c r="J41" s="7">
         <v>170.37062431435149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F42" s="19">
+        <v>21300.190933889982</v>
+      </c>
+      <c r="G42" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>21300.190933889982</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1300.1909338899823</v>
+      </c>
+      <c r="J42" s="7">
+        <v>265.35751850843906</v>
       </c>
     </row>
   </sheetData>
@@ -11232,7 +11375,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11296,19 +11439,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="N1" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11318,7 +11461,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13203,6 +13346,50 @@
       </c>
       <c r="N41" s="1">
         <v>33.267062873220716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="E42" s="19">
+        <v>117945.79994611494</v>
+      </c>
+      <c r="F42" s="19">
+        <v>90464.430864548704</v>
+      </c>
+      <c r="G42" s="19">
+        <v>89000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>90464.430864548704</v>
+      </c>
+      <c r="I42" s="19">
+        <v>1464.4308645487035</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.15700000524520874</v>
+      </c>
+      <c r="K42" s="7">
+        <v>3.2466712754612458E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.15700000524520874</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4.5104453656082198E-2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>71.981168427775472</v>
       </c>
     </row>
   </sheetData>
@@ -13216,7 +13403,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13253,13 +13440,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -13280,28 +13467,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13311,7 +13498,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15561,6 +15748,59 @@
       </c>
       <c r="Q41" s="1">
         <v>65.575826697511175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="E42" s="19">
+        <v>109890.35470407234</v>
+      </c>
+      <c r="F42" s="19">
+        <v>84285.904206415464</v>
+      </c>
+      <c r="G42" s="19">
+        <v>82000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>84285.904206415464</v>
+      </c>
+      <c r="I42" s="19">
+        <v>2285.9042064154637</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N42" s="7">
+        <v>100</v>
+      </c>
+      <c r="O42" s="7">
+        <v>69.598581301519474</v>
+      </c>
+      <c r="P42" s="7">
+        <v>55.738790153615305</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>97.318163597327825</v>
       </c>
     </row>
   </sheetData>
@@ -15574,7 +15814,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15610,13 +15850,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>2</v>
@@ -17096,6 +17336,38 @@
       </c>
       <c r="J41" s="19">
         <v>-14415.040949123053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12.75">
+      <c r="A42" s="16">
+        <v>45565</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C42" s="17">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D42" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="19">
+        <v>2607.561863130798</v>
+      </c>
+      <c r="F42" s="19">
+        <v>106845.19720697607</v>
+      </c>
+      <c r="G42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="H42" s="19">
+        <v>80000</v>
+      </c>
+      <c r="I42" s="19">
+        <v>81950.268346608806</v>
+      </c>
+      <c r="J42" s="19">
+        <v>1950.2683466088056</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -163,6 +163,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -193,6 +197,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2354,7 +2362,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2474,6 +2482,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2483,7 +2494,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2603,6 +2614,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,7 +2659,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2765,6 +2779,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2774,7 +2791,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2894,6 +2911,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81950.268346608806</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85018.719299723365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,7 +2956,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3056,6 +3076,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3065,7 +3088,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3185,6 +3208,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1950.2683466088056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3018.7192997233651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,11 +3232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="439729152"/>
-        <c:axId val="440346880"/>
+        <c:axId val="475592192"/>
+        <c:axId val="477258496"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="439729152"/>
+        <c:axId val="475592192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,14 +3279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440346880"/>
+        <c:crossAx val="477258496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="440346880"/>
+        <c:axId val="477258496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,7 +3337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439729152"/>
+        <c:crossAx val="475592192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3483,7 +3509,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3603,6 +3629,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,7 +3641,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3731,6 +3760,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3774,7 +3806,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3894,6 +3926,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,7 +3938,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4023,6 +4058,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>21300.190933889982</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21577.898496830239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,7 +4103,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4185,6 +4223,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4194,7 +4235,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4314,6 +4355,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1300.1909338899823</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1577.8984968302393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4335,11 +4379,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451410560"/>
-        <c:axId val="468302464"/>
+        <c:axId val="494274048"/>
+        <c:axId val="494275584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="451410560"/>
+        <c:axId val="494274048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,14 +4426,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="468302464"/>
+        <c:crossAx val="494275584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="468302464"/>
+        <c:axId val="494275584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4484,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451410560"/>
+        <c:crossAx val="494274048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4612,7 +4656,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4732,6 +4776,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4741,7 +4788,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4861,6 +4908,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>91000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4903,7 +4953,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5023,6 +5073,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,7 +5085,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5152,6 +5205,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>90464.430864548704</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>93643.88773919105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5194,7 +5250,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5314,6 +5370,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5323,7 +5382,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5443,6 +5502,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1464.4308645487035</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2643.8877391910501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,11 +5526,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470529536"/>
-        <c:axId val="470531456"/>
+        <c:axId val="496159360"/>
+        <c:axId val="496221184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="470529536"/>
+        <c:axId val="496159360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5511,14 +5573,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470531456"/>
+        <c:crossAx val="496221184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="470531456"/>
+        <c:axId val="496221184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5569,7 +5631,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470529536"/>
+        <c:crossAx val="496159360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5741,7 +5803,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5861,6 +5923,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5870,7 +5935,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5990,6 +6055,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6032,7 +6100,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6152,6 +6220,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6161,7 +6232,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6281,6 +6352,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>84285.904206415464</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87384.806705460098</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6323,7 +6397,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6443,6 +6517,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6452,7 +6529,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6572,6 +6649,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2285.9042064154637</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3384.8067054600979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6593,11 +6673,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472024576"/>
-        <c:axId val="472036096"/>
+        <c:axId val="498380160"/>
+        <c:axId val="507263232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="472024576"/>
+        <c:axId val="498380160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6640,14 +6720,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472036096"/>
+        <c:crossAx val="507263232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472036096"/>
+        <c:axId val="507263232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6698,7 +6778,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472024576"/>
+        <c:crossAx val="498380160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6870,7 +6950,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6990,6 +7070,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6999,7 +7082,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7119,6 +7202,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>82000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,7 +7247,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7281,6 +7367,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7290,7 +7379,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7410,6 +7499,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>81950.268346608806</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>85018.719299723365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,7 +7544,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7572,6 +7664,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7581,7 +7676,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7701,6 +7796,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1950.2683466088056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3018.7192997233651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7722,11 +7820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="474449408"/>
-        <c:axId val="497140480"/>
+        <c:axId val="511979904"/>
+        <c:axId val="512307584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="474449408"/>
+        <c:axId val="511979904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7769,14 +7867,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497140480"/>
+        <c:crossAx val="512307584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497140480"/>
+        <c:axId val="512307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7827,7 +7925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474449408"/>
+        <c:crossAx val="511979904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8381,7 +8479,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9814,6 +9912,35 @@
         <v>1950.2683466088056</v>
       </c>
     </row>
+    <row r="43" spans="1:9" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="E43" s="19">
+        <v>109419.19974780621</v>
+      </c>
+      <c r="F43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="G43" s="19">
+        <v>82000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="I43" s="19">
+        <v>3018.7192997233651</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9825,7 +9952,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11364,6 +11491,38 @@
         <v>265.35751850843906</v>
       </c>
     </row>
+    <row r="43" spans="1:10" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F43" s="19">
+        <v>21577.898496830239</v>
+      </c>
+      <c r="G43" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>21577.898496830239</v>
+      </c>
+      <c r="I43" s="19">
+        <v>1577.8984968302393</v>
+      </c>
+      <c r="J43" s="7">
+        <v>15.433066648351565</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11375,7 +11534,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13392,6 +13551,50 @@
         <v>71.981168427775472</v>
       </c>
     </row>
+    <row r="43" spans="1:14" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="E43" s="19">
+        <v>120519.80248694509</v>
+      </c>
+      <c r="F43" s="19">
+        <v>93643.88773919105</v>
+      </c>
+      <c r="G43" s="19">
+        <v>91000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>93643.88773919105</v>
+      </c>
+      <c r="I43" s="19">
+        <v>2643.8877391910501</v>
+      </c>
+      <c r="J43" s="7">
+        <v>9.9999904632568359E-3</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2.8722259039386522E-2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>9.9999904632568359E-3</v>
+      </c>
+      <c r="M43" s="7">
+        <v>3.9253709790611303E-2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>73.17081415386707</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13403,7 +13606,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13446,7 +13649,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>3</v>
@@ -13467,28 +13670,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13498,7 +13701,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15801,6 +16004,59 @@
       </c>
       <c r="Q42" s="1">
         <v>97.318163597327825</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="E43" s="19">
+        <v>112464.35724490248</v>
+      </c>
+      <c r="F43" s="19">
+        <v>87384.806705460098</v>
+      </c>
+      <c r="G43" s="19">
+        <v>84000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>87384.806705460098</v>
+      </c>
+      <c r="I43" s="19">
+        <v>3384.8067054600979</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.53600001335144043</v>
+      </c>
+      <c r="N43" s="7">
+        <v>71.301774260986164</v>
+      </c>
+      <c r="O43" s="7">
+        <v>70.166312288008371</v>
+      </c>
+      <c r="P43" s="7">
+        <v>60.547964198412991</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>89.403008467199115</v>
       </c>
     </row>
   </sheetData>
@@ -15814,7 +16070,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC42"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17370,6 +17626,38 @@
         <v>1950.2683466088056</v>
       </c>
     </row>
+    <row r="43" spans="1:10" ht="12.75">
+      <c r="A43" s="16">
+        <v>45596</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C43" s="17">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D43" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2574.0025408301399</v>
+      </c>
+      <c r="F43" s="19">
+        <v>109419.19974780621</v>
+      </c>
+      <c r="G43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="H43" s="19">
+        <v>82000</v>
+      </c>
+      <c r="I43" s="19">
+        <v>85018.719299723365</v>
+      </c>
+      <c r="J43" s="19">
+        <v>3018.7192997233651</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -131,6 +131,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +157,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
@@ -2362,7 +2362,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2485,6 +2485,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2494,7 +2497,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2617,6 +2620,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,7 +2665,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2782,6 +2788,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2791,7 +2800,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2914,6 +2923,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>85018.719299723365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87456.396985691987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2956,7 +2968,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3079,6 +3091,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3088,7 +3103,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3211,6 +3226,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3018.7192997233651</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3456.3969856919866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,11 +3250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="475592192"/>
-        <c:axId val="477258496"/>
+        <c:axId val="497474560"/>
+        <c:axId val="502805248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="475592192"/>
+        <c:axId val="497474560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,14 +3297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477258496"/>
+        <c:crossAx val="502805248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="477258496"/>
+        <c:axId val="502805248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,7 +3355,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475592192"/>
+        <c:crossAx val="497474560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3509,7 +3527,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3632,6 +3650,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3641,7 +3662,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3763,6 +3784,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3806,7 +3830,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3929,6 +3953,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3938,7 +3965,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4061,6 +4088,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>21577.898496830239</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21688.981853059871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,7 +4133,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4226,6 +4256,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4235,7 +4268,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4358,6 +4391,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1577.8984968302393</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1688.9818530598714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4379,11 +4415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="494274048"/>
-        <c:axId val="494275584"/>
+        <c:axId val="502888320"/>
+        <c:axId val="502889856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="494274048"/>
+        <c:axId val="502888320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,14 +4462,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494275584"/>
+        <c:crossAx val="502889856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="494275584"/>
+        <c:axId val="502889856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4484,7 +4520,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="494274048"/>
+        <c:crossAx val="502888320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4656,7 +4692,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4779,6 +4815,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4788,7 +4827,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4911,6 +4950,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>93000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4953,7 +4995,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5076,6 +5118,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,7 +5130,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5208,6 +5253,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>93643.88773919105</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>96125.967926100289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5250,7 +5298,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5373,6 +5421,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5382,7 +5433,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5505,6 +5556,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2643.8877391910501</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3125.9679261002893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5526,11 +5580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="496159360"/>
-        <c:axId val="496221184"/>
+        <c:axId val="538591232"/>
+        <c:axId val="538592768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="496159360"/>
+        <c:axId val="538591232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5573,14 +5627,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496221184"/>
+        <c:crossAx val="538592768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="496221184"/>
+        <c:axId val="538592768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5631,7 +5685,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496159360"/>
+        <c:crossAx val="538591232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5803,7 +5857,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5926,6 +5980,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5935,7 +5992,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6058,6 +6115,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>86000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6100,7 +6160,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6223,6 +6283,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6232,7 +6295,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6355,6 +6418,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>87384.806705460098</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89834.665046101858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6397,7 +6463,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6520,6 +6586,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6529,7 +6598,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6652,6 +6721,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3384.8067054600979</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3834.665046101858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6673,11 +6745,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="498380160"/>
-        <c:axId val="507263232"/>
+        <c:axId val="541025792"/>
+        <c:axId val="541190784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="498380160"/>
+        <c:axId val="541025792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6720,14 +6792,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507263232"/>
+        <c:crossAx val="541190784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507263232"/>
+        <c:axId val="541190784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6778,7 +6850,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="498380160"/>
+        <c:crossAx val="541025792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6950,7 +7022,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7073,6 +7145,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7082,7 +7157,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7205,6 +7280,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>82000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>84000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7247,7 +7325,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7370,6 +7448,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7379,7 +7460,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7502,6 +7583,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>85018.719299723365</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>87456.396985691987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7544,7 +7628,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7667,6 +7751,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7676,7 +7763,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7799,6 +7886,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3018.7192997233651</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3456.3969856919866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7820,11 +7910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511979904"/>
-        <c:axId val="512307584"/>
+        <c:axId val="557974656"/>
+        <c:axId val="558318720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511979904"/>
+        <c:axId val="557974656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7867,14 +7957,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512307584"/>
+        <c:crossAx val="558318720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="512307584"/>
+        <c:axId val="558318720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7925,7 +8015,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511979904"/>
+        <c:crossAx val="557974656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8479,7 +8569,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9941,6 +10031,35 @@
         <v>3018.7192997233651</v>
       </c>
     </row>
+    <row r="44" spans="1:9" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E44" s="19">
+        <v>111980.01915062111</v>
+      </c>
+      <c r="F44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="G44" s="19">
+        <v>84000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3456.3969856919866</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9952,7 +10071,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11523,6 +11642,38 @@
         <v>15.433066648351565</v>
       </c>
     </row>
+    <row r="44" spans="1:10" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F44" s="19">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="G44" s="19">
+        <v>20000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="I44" s="19">
+        <v>1688.9818530598714</v>
+      </c>
+      <c r="J44" s="7">
+        <v>-59.010045260336092</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11534,7 +11685,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11571,7 +11722,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
@@ -11598,19 +11749,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -11620,7 +11771,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13593,6 +13744,50 @@
       </c>
       <c r="N43" s="1">
         <v>73.17081415386707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E44" s="19">
+        <v>123080.62188975999</v>
+      </c>
+      <c r="F44" s="19">
+        <v>96125.967926100289</v>
+      </c>
+      <c r="G44" s="19">
+        <v>93000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>96125.967926100289</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3125.9679261002893</v>
+      </c>
+      <c r="J44" s="7">
+        <v>4.0000081062316895E-3</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2.4601883883860715E-2</v>
+      </c>
+      <c r="L44" s="7">
+        <v>4.0000081062316895E-3</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3.3378092843214698E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>73.706679406225973</v>
       </c>
     </row>
   </sheetData>
@@ -13606,7 +13801,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13643,7 +13838,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>28</v>
@@ -16057,6 +16252,59 @@
       </c>
       <c r="Q43" s="1">
         <v>89.403008467199115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E44" s="19">
+        <v>115025.17664771738</v>
+      </c>
+      <c r="F44" s="19">
+        <v>89834.665046101858</v>
+      </c>
+      <c r="G44" s="19">
+        <v>86000</v>
+      </c>
+      <c r="H44" s="19">
+        <v>89834.665046101858</v>
+      </c>
+      <c r="I44" s="19">
+        <v>3834.665046101858</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N44" s="7">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="O44" s="7">
+        <v>69.421221080104587</v>
+      </c>
+      <c r="P44" s="7">
+        <v>63.505716492310192</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>81.252230255693362</v>
       </c>
     </row>
   </sheetData>
@@ -16070,7 +16318,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AC44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17658,6 +17906,38 @@
         <v>3018.7192997233651</v>
       </c>
     </row>
+    <row r="44" spans="1:10" ht="12.75">
+      <c r="A44" s="16">
+        <v>45625</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C44" s="17">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="19">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="F44" s="19">
+        <v>111980.01915062111</v>
+      </c>
+      <c r="G44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="H44" s="19">
+        <v>84000</v>
+      </c>
+      <c r="I44" s="19">
+        <v>87456.396985691987</v>
+      </c>
+      <c r="J44" s="19">
+        <v>3456.3969856919866</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -155,6 +155,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>最高价</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -185,10 +197,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1955,7 +1963,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2006,7 +2014,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="231">
     <cellStyle name="20% - 着色 1" xfId="3"/>
@@ -3248,11 +3255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="419183616"/>
-        <c:axId val="441948416"/>
+        <c:axId val="476506752"/>
+        <c:axId val="476820608"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="419183616"/>
+        <c:axId val="476506752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,14 +3302,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441948416"/>
+        <c:crossAx val="476820608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="441948416"/>
+        <c:axId val="476820608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3360,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419183616"/>
+        <c:crossAx val="476506752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4431,11 +4438,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460888704"/>
-        <c:axId val="460946432"/>
+        <c:axId val="478215168"/>
+        <c:axId val="478323840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460888704"/>
+        <c:axId val="478215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,14 +4485,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460946432"/>
+        <c:crossAx val="478323840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460946432"/>
+        <c:axId val="478323840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4543,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460888704"/>
+        <c:crossAx val="478215168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5614,11 +5621,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461338112"/>
-        <c:axId val="461351552"/>
+        <c:axId val="478712576"/>
+        <c:axId val="478714112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461338112"/>
+        <c:axId val="478712576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5661,14 +5668,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461351552"/>
+        <c:crossAx val="478714112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461351552"/>
+        <c:axId val="478714112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5719,7 +5726,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461338112"/>
+        <c:crossAx val="478712576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6797,11 +6804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461453952"/>
-        <c:axId val="461615488"/>
+        <c:axId val="531303424"/>
+        <c:axId val="531321600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461453952"/>
+        <c:axId val="531303424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6844,14 +6851,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461615488"/>
+        <c:crossAx val="531321600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461615488"/>
+        <c:axId val="531321600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6902,7 +6909,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461453952"/>
+        <c:crossAx val="531303424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7980,11 +7987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="532096128"/>
-        <c:axId val="532098048"/>
+        <c:axId val="549110912"/>
+        <c:axId val="549112832"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="532096128"/>
+        <c:axId val="549110912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8027,14 +8034,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532098048"/>
+        <c:crossAx val="549112832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="532098048"/>
+        <c:axId val="549112832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8085,7 +8092,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="532096128"/>
+        <c:crossAx val="549110912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8639,7 +8646,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10215,9 +10222,6 @@
         <v>4352.232279839649</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10229,7 +10233,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11920,9 +11924,6 @@
         <v>-30.986086283622882</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11934,7 +11935,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14139,9 +14140,6 @@
         <v>74.909406364253414</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14153,7 +14151,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14190,13 +14188,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14217,28 +14215,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -14248,7 +14246,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -16767,9 +16765,6 @@
       <c r="Q45" s="1">
         <v>78.295111835872916</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -16782,7 +16777,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18490,9 +18485,6 @@
         <v>4352.232279839649</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="26"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -115,6 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +133,14 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -153,10 +165,6 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
@@ -2349,7 +2357,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2478,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,7 +2498,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2616,6 +2627,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,7 +2672,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2787,6 +2801,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,7 +2813,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2925,6 +2942,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>90352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2967,7 +2987,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3096,6 +3116,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3128,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3234,6 +3257,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3255,11 +3281,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476506752"/>
-        <c:axId val="476820608"/>
+        <c:axId val="518050944"/>
+        <c:axId val="518052864"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="476506752"/>
+        <c:axId val="518050944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,14 +3328,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476820608"/>
+        <c:crossAx val="518052864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="476820608"/>
+        <c:axId val="518052864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3386,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476506752"/>
+        <c:crossAx val="518050944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3532,7 +3558,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3661,6 +3687,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3670,7 +3699,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3798,6 +3827,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="42">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3841,7 +3873,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3970,6 +4002,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3979,7 +4014,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4108,6 +4143,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>21911.146910251489</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21688.981853059871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4150,7 +4188,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4279,6 +4317,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4288,7 +4329,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4417,6 +4458,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1911.1469102514893</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1688.9818530598714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,11 +4482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478215168"/>
-        <c:axId val="478323840"/>
+        <c:axId val="527250944"/>
+        <c:axId val="529912960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478215168"/>
+        <c:axId val="527250944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,14 +4529,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478323840"/>
+        <c:crossAx val="529912960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478323840"/>
+        <c:axId val="529912960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4543,7 +4587,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478215168"/>
+        <c:crossAx val="527250944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4715,7 +4759,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4844,6 +4888,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4853,7 +4900,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -4982,6 +5029,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>95000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5024,7 +5074,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5153,6 +5203,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5162,7 +5215,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5291,6 +5344,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>99110.607560481702</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>100105.68920147656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5333,7 +5389,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5462,6 +5518,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,7 +5530,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5600,6 +5659,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4110.6075604817015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3105.6892014765617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5621,11 +5683,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="478712576"/>
-        <c:axId val="478714112"/>
+        <c:axId val="548026240"/>
+        <c:axId val="548029568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="478712576"/>
+        <c:axId val="548026240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,14 +5730,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478714112"/>
+        <c:crossAx val="548029568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="478714112"/>
+        <c:axId val="548029568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5726,7 +5788,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="478712576"/>
+        <c:crossAx val="548026240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5898,7 +5960,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6027,6 +6089,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6036,7 +6101,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6165,6 +6230,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6207,7 +6275,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6336,6 +6404,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6345,7 +6416,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6474,6 +6545,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>92754.861468090268</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93814.38632147813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6516,7 +6590,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6645,6 +6719,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6654,7 +6731,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6783,6 +6860,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4754.8614680902683</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3814.3863214781304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6804,11 +6884,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="531303424"/>
-        <c:axId val="531321600"/>
+        <c:axId val="550014976"/>
+        <c:axId val="550016896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="531303424"/>
+        <c:axId val="550014976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6851,14 +6931,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531321600"/>
+        <c:crossAx val="550016896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531321600"/>
+        <c:axId val="550016896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6909,7 +6989,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531303424"/>
+        <c:crossAx val="550014976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7081,7 +7161,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7210,6 +7290,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7219,7 +7302,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7348,6 +7431,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7390,7 +7476,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7519,6 +7605,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7528,7 +7617,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7657,6 +7746,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>90352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7699,7 +7791,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7828,6 +7920,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7837,7 +7932,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7966,6 +8061,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4352.232279839649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3436.118261068259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7987,11 +8085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549110912"/>
-        <c:axId val="549112832"/>
+        <c:axId val="570975360"/>
+        <c:axId val="571599872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="549110912"/>
+        <c:axId val="570975360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8034,14 +8132,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549112832"/>
+        <c:crossAx val="571599872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="549112832"/>
+        <c:axId val="571599872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8092,7 +8190,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549110912"/>
+        <c:crossAx val="570975360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8646,7 +8744,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10222,6 +10320,35 @@
         <v>4352.232279839649</v>
       </c>
     </row>
+    <row r="46" spans="1:9" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E46" s="18">
+        <v>117075.69288051051</v>
+      </c>
+      <c r="F46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="G46" s="18">
+        <v>88000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3436.118261068259</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10233,7 +10360,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10269,13 +10396,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -10296,7 +10423,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -11922,6 +12049,38 @@
       </c>
       <c r="J45" s="6">
         <v>-30.986086283622882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0</v>
+      </c>
+      <c r="D46" s="18">
+        <v>0</v>
+      </c>
+      <c r="E46" s="18">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F46" s="18">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="G46" s="18">
+        <v>20000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>21688.981853059871</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1688.9818530598714</v>
+      </c>
+      <c r="J46" s="6">
+        <v>63.311229058108523</v>
       </c>
     </row>
   </sheetData>
@@ -11935,7 +12094,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11975,10 +12134,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11999,19 +12158,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12021,7 +12180,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14138,6 +14297,50 @@
       </c>
       <c r="N45" s="1">
         <v>74.909406364253414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E46" s="18">
+        <v>128176.29561964939</v>
+      </c>
+      <c r="F46" s="18">
+        <v>100105.68920147656</v>
+      </c>
+      <c r="G46" s="18">
+        <v>97000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>100105.68920147656</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3105.6892014765617</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1.8195746670433634E-2</v>
+      </c>
+      <c r="L46" s="6">
+        <v>7.9999566078186035E-3</v>
+      </c>
+      <c r="M46" s="6">
+        <v>2.5623662326843669E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>71.01149881830726</v>
       </c>
     </row>
   </sheetData>
@@ -14151,7 +14354,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH45"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14188,13 +14391,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14215,28 +14418,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16764,6 +16967,59 @@
       </c>
       <c r="Q45" s="1">
         <v>78.295111835872916</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="E46" s="18">
+        <v>120120.85037760678</v>
+      </c>
+      <c r="F46" s="18">
+        <v>93814.38632147813</v>
+      </c>
+      <c r="G46" s="18">
+        <v>90000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>93814.38632147813</v>
+      </c>
+      <c r="I46" s="18">
+        <v>3814.3863214781304</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N46" s="6">
+        <v>67.931038664297006</v>
+      </c>
+      <c r="O46" s="6">
+        <v>69.206365409704674</v>
+      </c>
+      <c r="P46" s="6">
+        <v>66.814446640352415</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>73.990202948409177</v>
       </c>
     </row>
   </sheetData>
@@ -16777,7 +17033,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC45"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16813,13 +17069,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -18483,6 +18739,38 @@
       </c>
       <c r="J45" s="18">
         <v>4352.232279839649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75">
+      <c r="A46" s="15">
+        <v>45684</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C46" s="16">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D46" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2560.819402814896</v>
+      </c>
+      <c r="F46" s="18">
+        <v>117075.69288051051</v>
+      </c>
+      <c r="G46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="H46" s="18">
+        <v>88000</v>
+      </c>
+      <c r="I46" s="18">
+        <v>91436.118261068259</v>
+      </c>
+      <c r="J46" s="18">
+        <v>3436.118261068259</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -135,14 +135,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,6 +197,10 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2357,7 +2353,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2489,6 +2485,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2497,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2630,6 +2629,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,7 +2674,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2804,6 +2806,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2813,7 +2818,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2945,6 +2950,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>91436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98821.600580180064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,7 +2995,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3119,6 +3127,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,7 +3139,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3260,6 +3271,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8821.6005801800638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,11 +3295,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="518050944"/>
-        <c:axId val="518052864"/>
+        <c:axId val="460486144"/>
+        <c:axId val="460488064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="518050944"/>
+        <c:axId val="460486144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,14 +3342,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518052864"/>
+        <c:crossAx val="460488064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="518052864"/>
+        <c:axId val="460488064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3400,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="518050944"/>
+        <c:crossAx val="460486144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3558,7 +3572,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3690,6 +3704,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3699,7 +3716,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3830,6 +3847,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>20000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3873,7 +3893,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4005,6 +4025,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,7 +4037,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4146,6 +4169,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>21688.981853059871</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22966.437966799167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4188,7 +4214,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4320,6 +4346,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,7 +4358,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4461,6 +4490,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1688.9818530598714</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2966.437966799167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,11 +4514,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527250944"/>
-        <c:axId val="529912960"/>
+        <c:axId val="460892800"/>
+        <c:axId val="461021568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="527250944"/>
+        <c:axId val="460892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4529,14 +4561,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529912960"/>
+        <c:crossAx val="461021568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529912960"/>
+        <c:axId val="461021568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4587,7 +4619,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527250944"/>
+        <c:crossAx val="460892800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4759,7 +4791,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4891,6 +4923,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4900,7 +4935,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5032,6 +5067,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>97000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>99000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5074,7 +5112,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5206,6 +5244,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5215,7 +5256,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5347,6 +5388,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>100105.68920147656</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108001.79928893418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5389,7 +5433,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5521,6 +5565,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5530,7 +5577,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5662,6 +5709,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3105.6892014765617</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9001.799288934184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5683,11 +5733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548026240"/>
-        <c:axId val="548029568"/>
+        <c:axId val="640128896"/>
+        <c:axId val="640130432"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="548026240"/>
+        <c:axId val="640128896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5730,14 +5780,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548029568"/>
+        <c:crossAx val="640130432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="548029568"/>
+        <c:axId val="640130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5788,7 +5838,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548026240"/>
+        <c:crossAx val="640128896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5960,7 +6010,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6092,6 +6142,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,7 +6154,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6233,6 +6286,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>92000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6275,7 +6331,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6407,6 +6463,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6416,7 +6475,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6548,6 +6607,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>93814.38632147813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>101339.94589707271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6590,7 +6652,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6722,6 +6784,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6731,7 +6796,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6863,6 +6928,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3814.3863214781304</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9339.9458970727137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6884,11 +6952,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="550014976"/>
-        <c:axId val="550016896"/>
+        <c:axId val="648180096"/>
+        <c:axId val="648182400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="550014976"/>
+        <c:axId val="648180096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6931,14 +6999,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550016896"/>
+        <c:crossAx val="648182400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550016896"/>
+        <c:axId val="648182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6989,7 +7057,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550014976"/>
+        <c:crossAx val="648180096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7161,7 +7229,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7293,6 +7361,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7302,7 +7373,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7434,6 +7505,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>88000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7476,7 +7550,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7608,6 +7682,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7617,7 +7694,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7749,6 +7826,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>91436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98821.600580180064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7791,7 +7871,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7923,6 +8003,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7932,7 +8015,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8064,6 +8147,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3436.118261068259</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8821.6005801800638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8085,11 +8171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="570975360"/>
-        <c:axId val="571599872"/>
+        <c:axId val="649585408"/>
+        <c:axId val="649588096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="570975360"/>
+        <c:axId val="649585408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8132,14 +8218,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="571599872"/>
+        <c:crossAx val="649588096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="571599872"/>
+        <c:axId val="649588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8190,7 +8276,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570975360"/>
+        <c:crossAx val="649585408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8744,7 +8830,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10349,6 +10435,35 @@
         <v>3436.118261068259</v>
       </c>
     </row>
+    <row r="47" spans="1:9" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="E47" s="18">
+        <v>119494.0725019785</v>
+      </c>
+      <c r="F47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="G47" s="18">
+        <v>90000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="I47" s="18">
+        <v>8821.6005801800638</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10360,7 +10475,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12083,6 +12198,38 @@
         <v>63.311229058108523</v>
       </c>
     </row>
+    <row r="47" spans="1:10" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0</v>
+      </c>
+      <c r="D47" s="18">
+        <v>0</v>
+      </c>
+      <c r="E47" s="18">
+        <v>27770.782778307948</v>
+      </c>
+      <c r="F47" s="18">
+        <v>22966.437966799167</v>
+      </c>
+      <c r="G47" s="18">
+        <v>20000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>22966.437966799167</v>
+      </c>
+      <c r="I47" s="18">
+        <v>2966.437966799167</v>
+      </c>
+      <c r="J47" s="6">
+        <v>-39.803160451219114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12094,7 +12241,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12131,13 +12278,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12158,19 +12305,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12180,7 +12327,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14341,6 +14488,50 @@
       </c>
       <c r="N46" s="1">
         <v>71.01149881830726</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="E47" s="18">
+        <v>130594.67524111738</v>
+      </c>
+      <c r="F47" s="18">
+        <v>108001.79928893418</v>
+      </c>
+      <c r="G47" s="18">
+        <v>99000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>108001.79928893418</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9001.799288934184</v>
+      </c>
+      <c r="J47" s="6">
+        <v>4.6000003814697266E-2</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2.2829789527810906E-2</v>
+      </c>
+      <c r="L47" s="6">
+        <v>4.6000003814697266E-2</v>
+      </c>
+      <c r="M47" s="6">
+        <v>2.9019719241485931E-2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>78.66991867782771</v>
       </c>
     </row>
   </sheetData>
@@ -14354,7 +14545,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14394,10 +14585,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14418,28 +14609,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -14449,7 +14640,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -17020,6 +17211,59 @@
       </c>
       <c r="Q46" s="1">
         <v>73.990202948409177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="E47" s="18">
+        <v>122539.22999907477</v>
+      </c>
+      <c r="F47" s="18">
+        <v>101339.94589707271</v>
+      </c>
+      <c r="G47" s="18">
+        <v>92000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>101339.94589707271</v>
+      </c>
+      <c r="I47" s="18">
+        <v>9339.9458970727137</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N47" s="6">
+        <v>83.79310777156131</v>
+      </c>
+      <c r="O47" s="6">
+        <v>74.068612863656881</v>
+      </c>
+      <c r="P47" s="6">
+        <v>69.232502048120566</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>83.740834494729512</v>
       </c>
     </row>
   </sheetData>
@@ -17033,7 +17277,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18773,6 +19017,38 @@
         <v>3436.118261068259</v>
       </c>
     </row>
+    <row r="47" spans="1:10" ht="12.75">
+      <c r="A47" s="15">
+        <v>45716</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C47" s="16">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D47" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2418.3796214679924</v>
+      </c>
+      <c r="F47" s="18">
+        <v>119494.0725019785</v>
+      </c>
+      <c r="G47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="H47" s="18">
+        <v>90000</v>
+      </c>
+      <c r="I47" s="18">
+        <v>98821.600580180064</v>
+      </c>
+      <c r="J47" s="18">
+        <v>8821.6005801800638</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,6 +129,18 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -197,10 +205,6 @@
   <si>
     <t>J</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2353,7 +2357,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2488,6 +2492,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2497,7 +2504,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2632,6 +2639,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2674,7 +2684,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2809,6 +2819,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2818,7 +2831,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2953,6 +2966,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>98821.600580180064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99268.176270153213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,7 +3011,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3130,6 +3146,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,7 +3158,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3274,6 +3293,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>8821.6005801800638</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7268.1762701532134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3295,11 +3317,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460486144"/>
-        <c:axId val="460488064"/>
+        <c:axId val="461773824"/>
+        <c:axId val="461792000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460486144"/>
+        <c:axId val="461773824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,14 +3364,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460488064"/>
+        <c:crossAx val="461792000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="460488064"/>
+        <c:axId val="461792000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3422,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460486144"/>
+        <c:crossAx val="461773824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3572,7 +3594,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3707,6 +3729,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,7 +3741,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3851,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3893,7 +3921,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4028,6 +4056,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4037,7 +4068,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4172,6 +4203,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>22966.437966799167</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24605.417472869776</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4214,7 +4248,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4349,6 +4383,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4358,7 +4395,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4493,6 +4530,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2966.437966799167</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2605.4174728697762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,11 +4554,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="460892800"/>
-        <c:axId val="461021568"/>
+        <c:axId val="465901056"/>
+        <c:axId val="465902592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="460892800"/>
+        <c:axId val="465901056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,14 +4601,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461021568"/>
+        <c:crossAx val="465902592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461021568"/>
+        <c:axId val="465902592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4619,7 +4659,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460892800"/>
+        <c:crossAx val="465901056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4791,7 +4831,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4926,6 +4966,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4935,7 +4978,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5070,6 +5113,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>99000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5112,7 +5158,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5247,6 +5293,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5256,7 +5305,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5391,6 +5440,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>108001.79928893418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>108304.06701626221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5433,7 +5485,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5568,6 +5620,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5577,7 +5632,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5712,6 +5767,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>9001.799288934184</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7304.0670162622118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5733,11 +5791,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="640128896"/>
-        <c:axId val="640130432"/>
+        <c:axId val="488066432"/>
+        <c:axId val="502727808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="640128896"/>
+        <c:axId val="488066432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5780,14 +5838,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640130432"/>
+        <c:crossAx val="502727808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="640130432"/>
+        <c:axId val="502727808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5838,7 +5896,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="640128896"/>
+        <c:crossAx val="488066432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6010,7 +6068,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6145,6 +6203,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6154,7 +6215,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6289,6 +6350,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>94000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6331,7 +6395,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6466,6 +6530,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,7 +6542,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6610,6 +6677,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>101339.94589707271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>101746.93450473454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6652,7 +6722,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6787,6 +6857,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6796,7 +6869,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6931,6 +7004,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>9339.9458970727137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7746.9345047345414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6952,11 +7028,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="648180096"/>
-        <c:axId val="648182400"/>
+        <c:axId val="652216960"/>
+        <c:axId val="699023360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="648180096"/>
+        <c:axId val="652216960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6999,14 +7075,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648182400"/>
+        <c:crossAx val="699023360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="648182400"/>
+        <c:axId val="699023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7057,7 +7133,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648180096"/>
+        <c:crossAx val="652216960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7229,7 +7305,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7364,6 +7440,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7373,7 +7452,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7508,6 +7587,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>92000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7550,7 +7632,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7685,6 +7767,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7694,7 +7779,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7829,6 +7914,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>98821.600580180064</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99268.176270153213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7871,7 +7959,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8006,6 +8094,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8015,7 +8106,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8150,6 +8241,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>8821.6005801800638</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7268.1762701532134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8171,11 +8265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="649585408"/>
-        <c:axId val="649588096"/>
+        <c:axId val="705598208"/>
+        <c:axId val="705600512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="649585408"/>
+        <c:axId val="705598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8218,14 +8312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649588096"/>
+        <c:crossAx val="705600512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="649588096"/>
+        <c:axId val="705600512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8276,7 +8370,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="649585408"/>
+        <c:crossAx val="705598208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8830,7 +8924,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10464,6 +10558,35 @@
         <v>8821.6005801800638</v>
       </c>
     </row>
+    <row r="48" spans="1:9" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>121951.07492731637</v>
+      </c>
+      <c r="F48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="G48" s="18">
+        <v>92000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7268.1762701532134</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10475,7 +10598,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10511,13 +10634,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -10538,7 +10661,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -12228,6 +12351,38 @@
       </c>
       <c r="J47" s="6">
         <v>-39.803160451219114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>30227.78520364581</v>
+      </c>
+      <c r="F48" s="18">
+        <v>24605.417472869776</v>
+      </c>
+      <c r="G48" s="18">
+        <v>22000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>24605.417472869776</v>
+      </c>
+      <c r="I48" s="18">
+        <v>2605.4174728697762</v>
+      </c>
+      <c r="J48" s="6">
+        <v>-119.64106934981089</v>
       </c>
     </row>
   </sheetData>
@@ -12241,7 +12396,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12278,13 +12433,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12305,19 +12460,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12327,7 +12482,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14532,6 +14687,50 @@
       </c>
       <c r="N47" s="1">
         <v>78.66991867782771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>133051.67766645525</v>
+      </c>
+      <c r="F48" s="18">
+        <v>108304.06701626221</v>
+      </c>
+      <c r="G48" s="18">
+        <v>101000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>108304.06701626221</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7304.0670162622118</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>1.9024824606509089E-2</v>
+      </c>
+      <c r="L48" s="6">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="M48" s="6">
+        <v>2.6349767941920243E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>72.201108747687343</v>
       </c>
     </row>
   </sheetData>
@@ -14545,7 +14744,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH47"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14582,13 +14781,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14609,28 +14808,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -14640,7 +14839,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -17264,6 +17463,59 @@
       </c>
       <c r="Q47" s="1">
         <v>83.740834494729512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="E48" s="18">
+        <v>124996.23242441264</v>
+      </c>
+      <c r="F48" s="18">
+        <v>101746.93450473454</v>
+      </c>
+      <c r="G48" s="18">
+        <v>94000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>101746.93450473454</v>
+      </c>
+      <c r="I48" s="18">
+        <v>7746.9345047345414</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N48" s="6">
+        <v>79.31034553632152</v>
+      </c>
+      <c r="O48" s="6">
+        <v>75.815857087878427</v>
+      </c>
+      <c r="P48" s="6">
+        <v>71.426953728039848</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>84.593663807555572</v>
       </c>
     </row>
   </sheetData>
@@ -17277,7 +17529,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -17313,13 +17565,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -19047,6 +19299,38 @@
       </c>
       <c r="J47" s="18">
         <v>8821.6005801800638</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75">
+      <c r="A48" s="15">
+        <v>45747</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C48" s="16">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D48" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="18">
+        <v>2457.002425337861</v>
+      </c>
+      <c r="F48" s="18">
+        <v>121951.07492731637</v>
+      </c>
+      <c r="G48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="H48" s="18">
+        <v>92000</v>
+      </c>
+      <c r="I48" s="18">
+        <v>99268.176270153213</v>
+      </c>
+      <c r="J48" s="18">
+        <v>7268.1762701532134</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -168,10 +168,6 @@
   </si>
   <si>
     <t>深创100ETF</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2357,7 +2353,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2495,6 +2491,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2504,7 +2503,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2642,6 +2641,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,7 +2686,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2822,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2831,7 +2836,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2969,6 +2974,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>99268.176270153213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95780.375863145833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3011,7 +3019,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3149,6 +3157,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3158,7 +3169,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3296,6 +3307,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7268.1762701532134</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1780.3758631458331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,11 +3331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="461773824"/>
-        <c:axId val="461792000"/>
+        <c:axId val="447960192"/>
+        <c:axId val="447961728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="461773824"/>
+        <c:axId val="447960192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,14 +3378,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461792000"/>
+        <c:crossAx val="447961728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="461792000"/>
+        <c:axId val="447961728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3422,7 +3436,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461773824"/>
+        <c:crossAx val="447960192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,7 +3608,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3732,6 +3746,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3741,7 +3758,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3878,6 +3895,9 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>22000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3921,7 +3941,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4059,6 +4079,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,7 +4091,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4206,6 +4229,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>24605.417472869776</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23245.166634225123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4248,7 +4274,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4386,6 +4412,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4395,7 +4424,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4533,6 +4562,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>2605.4174728697762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1245.1666342251228</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4554,11 +4586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465901056"/>
-        <c:axId val="465902592"/>
+        <c:axId val="463456512"/>
+        <c:axId val="469565440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465901056"/>
+        <c:axId val="463456512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,14 +4633,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465902592"/>
+        <c:crossAx val="469565440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465902592"/>
+        <c:axId val="469565440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4691,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465901056"/>
+        <c:crossAx val="463456512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4831,7 +4863,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4969,6 +5001,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4978,7 +5013,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5116,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>101000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,7 +5196,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5296,6 +5334,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5305,7 +5346,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5443,6 +5484,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>108304.06701626221</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>104316.7393007323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5485,7 +5529,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5623,6 +5667,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5632,7 +5679,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5770,6 +5817,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7304.0670162622118</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1316.7393007322971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5791,11 +5841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="488066432"/>
-        <c:axId val="502727808"/>
+        <c:axId val="471517440"/>
+        <c:axId val="472671744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="488066432"/>
+        <c:axId val="471517440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5838,14 +5888,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502727808"/>
+        <c:crossAx val="472671744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="502727808"/>
+        <c:axId val="472671744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5896,7 +5946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488066432"/>
+        <c:crossAx val="471517440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6068,7 +6118,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6206,6 +6256,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6215,7 +6268,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6353,6 +6406,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6395,7 +6451,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6533,6 +6589,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6542,7 +6601,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6680,6 +6739,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>101746.93450473454</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98122.101959536289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6722,7 +6784,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6860,6 +6922,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6869,7 +6934,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7007,6 +7072,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7746.9345047345414</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2122.1019595362886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7028,11 +7096,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="652216960"/>
-        <c:axId val="699023360"/>
+        <c:axId val="542660096"/>
+        <c:axId val="542662016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="652216960"/>
+        <c:axId val="542660096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7075,14 +7143,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699023360"/>
+        <c:crossAx val="542662016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="699023360"/>
+        <c:axId val="542662016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7133,7 +7201,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="652216960"/>
+        <c:crossAx val="542660096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7305,7 +7373,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7443,6 +7511,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7452,7 +7523,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7590,6 +7661,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>92000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>94000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,7 +7706,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7770,6 +7844,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7779,7 +7856,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7917,6 +7994,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>99268.176270153213</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>95780.375863145833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7959,7 +8039,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8097,6 +8177,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8106,7 +8189,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8244,6 +8327,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>7268.1762701532134</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1780.3758631458331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8265,11 +8351,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="705598208"/>
-        <c:axId val="705600512"/>
+        <c:axId val="545104256"/>
+        <c:axId val="545106176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="705598208"/>
+        <c:axId val="545104256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8312,14 +8398,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705600512"/>
+        <c:crossAx val="545106176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="705600512"/>
+        <c:axId val="545106176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8370,7 +8456,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="705598208"/>
+        <c:crossAx val="545104256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8924,7 +9010,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10587,6 +10673,35 @@
         <v>7268.1762701532134</v>
       </c>
     </row>
+    <row r="49" spans="1:9" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="E49" s="18">
+        <v>124551.85518235138</v>
+      </c>
+      <c r="F49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="G49" s="18">
+        <v>94000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1780.3758631458331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10598,7 +10713,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12385,6 +12500,38 @@
         <v>-119.64106934981089</v>
       </c>
     </row>
+    <row r="49" spans="1:10" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0</v>
+      </c>
+      <c r="D49" s="18">
+        <v>0</v>
+      </c>
+      <c r="E49" s="18">
+        <v>30227.78520364581</v>
+      </c>
+      <c r="F49" s="18">
+        <v>23245.166634225123</v>
+      </c>
+      <c r="G49" s="18">
+        <v>22000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>23245.166634225123</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1245.1666342251228</v>
+      </c>
+      <c r="J49" s="6">
+        <v>80.163519018203786</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12396,7 +12543,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14733,6 +14880,50 @@
         <v>72.201108747687343</v>
       </c>
     </row>
+    <row r="49" spans="1:14" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="E49" s="18">
+        <v>135652.45792149028</v>
+      </c>
+      <c r="F49" s="18">
+        <v>104316.7393007323</v>
+      </c>
+      <c r="G49" s="18">
+        <v>103000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>104316.7393007323</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1316.7393007322971</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1.5854020505424241E-2</v>
+      </c>
+      <c r="L49" s="6">
+        <v>4.5000016689300537E-2</v>
+      </c>
+      <c r="M49" s="6">
+        <v>2.9458142733150294E-2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>53.818805377649106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14744,7 +14935,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH48"/>
+  <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14787,7 +14978,7 @@
         <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -14808,28 +14999,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17516,6 +17707,59 @@
       </c>
       <c r="Q48" s="1">
         <v>84.593663807555572</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="E49" s="18">
+        <v>127597.01267944765</v>
+      </c>
+      <c r="F49" s="18">
+        <v>98122.101959536289</v>
+      </c>
+      <c r="G49" s="18">
+        <v>96000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>98122.101959536289</v>
+      </c>
+      <c r="I49" s="18">
+        <v>2122.1019595362886</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="N49" s="6">
+        <v>63.793099550231602</v>
+      </c>
+      <c r="O49" s="6">
+        <v>71.808271241996152</v>
+      </c>
+      <c r="P49" s="6">
+        <v>71.554059566025288</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>72.316694593937882</v>
       </c>
     </row>
   </sheetData>
@@ -17529,7 +17773,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19333,6 +19577,38 @@
         <v>7268.1762701532134</v>
       </c>
     </row>
+    <row r="49" spans="1:10" ht="12.75">
+      <c r="A49" s="15">
+        <v>45777</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C49" s="16">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D49" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2600.7802550350229</v>
+      </c>
+      <c r="F49" s="18">
+        <v>124551.85518235138</v>
+      </c>
+      <c r="G49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="H49" s="18">
+        <v>94000</v>
+      </c>
+      <c r="I49" s="18">
+        <v>95780.375863145833</v>
+      </c>
+      <c r="J49" s="18">
+        <v>1780.3758631458331</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -131,18 +131,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +153,10 @@
   <si>
     <t>单位：元</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
@@ -2353,7 +2345,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2494,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,7 +2498,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2644,6 +2639,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2686,7 +2684,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2827,6 +2825,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2836,7 +2837,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2977,6 +2978,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95780.375863145833</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99399.55140589927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3019,7 +3023,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3160,6 +3164,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,7 +3176,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3310,6 +3317,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1780.3758631458331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3399.5514058992703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3331,11 +3341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="447960192"/>
-        <c:axId val="447961728"/>
+        <c:axId val="593742464"/>
+        <c:axId val="593826176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="447960192"/>
+        <c:axId val="593742464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,14 +3388,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447961728"/>
+        <c:crossAx val="593826176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="447961728"/>
+        <c:axId val="593826176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,7 +3446,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="447960192"/>
+        <c:crossAx val="593742464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3608,7 +3618,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3749,6 +3759,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3758,7 +3771,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3899,6 +3912,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3941,7 +3957,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4082,6 +4098,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4091,7 +4110,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4232,6 +4251,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>23245.166634225123</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25638.128187802067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4274,7 +4296,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4415,6 +4437,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,7 +4449,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4565,6 +4590,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1245.1666342251228</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1638.1281878020673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4586,11 +4614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463456512"/>
-        <c:axId val="469565440"/>
+        <c:axId val="594166912"/>
+        <c:axId val="594168448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="463456512"/>
+        <c:axId val="594166912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,14 +4661,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469565440"/>
+        <c:crossAx val="594168448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469565440"/>
+        <c:axId val="594168448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4691,7 +4719,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463456512"/>
+        <c:crossAx val="594166912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4863,7 +4891,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5004,6 +5032,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5013,7 +5044,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5154,6 +5185,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>103000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>105000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5196,7 +5230,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5337,6 +5371,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5346,7 +5383,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5487,6 +5524,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>104316.7393007323</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>108080.22280613086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,7 +5569,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5670,6 +5710,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5679,7 +5722,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5820,6 +5863,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1316.7393007322971</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3080.222806130856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5841,11 +5887,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="471517440"/>
-        <c:axId val="472671744"/>
+        <c:axId val="602433792"/>
+        <c:axId val="602735360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="471517440"/>
+        <c:axId val="602433792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5888,14 +5934,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472671744"/>
+        <c:crossAx val="602735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="472671744"/>
+        <c:axId val="602735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5946,7 +5992,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471517440"/>
+        <c:crossAx val="602433792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6118,7 +6164,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6259,6 +6305,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6268,7 +6317,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6409,6 +6458,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6451,7 +6503,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6592,6 +6644,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6601,7 +6656,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6742,6 +6797,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>98122.101959536289</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>101780.86458460103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6784,7 +6842,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6925,6 +6983,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6934,7 +6995,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7075,6 +7136,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2122.1019595362886</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3780.8645846010331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7096,11 +7160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542660096"/>
-        <c:axId val="542662016"/>
+        <c:axId val="602872064"/>
+        <c:axId val="602882048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542660096"/>
+        <c:axId val="602872064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7143,14 +7207,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542662016"/>
+        <c:crossAx val="602882048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="542662016"/>
+        <c:axId val="602882048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7201,7 +7265,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542660096"/>
+        <c:crossAx val="602872064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7373,7 +7437,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7514,6 +7578,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7523,7 +7590,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7664,6 +7731,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7706,7 +7776,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7847,6 +7917,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7856,7 +7929,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7997,6 +8070,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>95780.375863145833</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99399.55140589927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8039,7 +8115,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8180,6 +8256,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8189,7 +8268,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8330,6 +8409,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1780.3758631458331</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3399.5514058992703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8351,11 +8433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="545104256"/>
-        <c:axId val="545106176"/>
+        <c:axId val="606882432"/>
+        <c:axId val="622576384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="545104256"/>
+        <c:axId val="606882432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8398,14 +8480,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545106176"/>
+        <c:crossAx val="622576384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="545106176"/>
+        <c:axId val="622576384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8456,7 +8538,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="545104256"/>
+        <c:crossAx val="606882432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9010,7 +9092,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10702,6 +10784,35 @@
         <v>1780.3758631458331</v>
       </c>
     </row>
+    <row r="50" spans="1:9" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>127109.39992223009</v>
+      </c>
+      <c r="F50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="G50" s="18">
+        <v>96000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="I50" s="18">
+        <v>3399.5514058992703</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10713,7 +10824,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12532,6 +12643,38 @@
         <v>80.163519018203786</v>
       </c>
     </row>
+    <row r="50" spans="1:10" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F50" s="18">
+        <v>25638.128187802067</v>
+      </c>
+      <c r="G50" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>25638.128187802067</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1638.1281878020673</v>
+      </c>
+      <c r="J50" s="6">
+        <v>-112.23623009437114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12543,7 +12686,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12580,13 +12723,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12607,19 +12750,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="N1" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12629,7 +12772,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -14922,6 +15065,50 @@
       </c>
       <c r="N49" s="1">
         <v>53.818805377649106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>138210.00266136898</v>
+      </c>
+      <c r="F50" s="18">
+        <v>108080.22280613086</v>
+      </c>
+      <c r="G50" s="18">
+        <v>105000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>108080.22280613086</v>
+      </c>
+      <c r="I50" s="18">
+        <v>3080.222806130856</v>
+      </c>
+      <c r="J50" s="6">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1.5378352328535501E-2</v>
+      </c>
+      <c r="L50" s="6">
+        <v>1.3000011444091797E-2</v>
+      </c>
+      <c r="M50" s="6">
+        <v>2.6715120851640545E-2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>57.56422519642517</v>
       </c>
     </row>
   </sheetData>
@@ -14935,7 +15122,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH49"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -14972,10 +15159,10 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>19</v>
@@ -14999,28 +15186,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -17760,6 +17947,59 @@
       </c>
       <c r="Q49" s="1">
         <v>72.316694593937882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="E50" s="18">
+        <v>130154.55741932636</v>
+      </c>
+      <c r="F50" s="18">
+        <v>101780.86458460103</v>
+      </c>
+      <c r="G50" s="18">
+        <v>98000</v>
+      </c>
+      <c r="H50" s="18">
+        <v>101780.86458460103</v>
+      </c>
+      <c r="I50" s="18">
+        <v>3780.8645846010331</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="N50" s="6">
+        <v>67.719298539142571</v>
+      </c>
+      <c r="O50" s="6">
+        <v>70.445280341044963</v>
+      </c>
+      <c r="P50" s="6">
+        <v>71.184466491031841</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>68.966908041071207</v>
       </c>
     </row>
   </sheetData>
@@ -17773,7 +18013,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19609,6 +19849,38 @@
         <v>1780.3758631458331</v>
       </c>
     </row>
+    <row r="50" spans="1:10" ht="12.75">
+      <c r="A50" s="15">
+        <v>45807</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C50" s="16">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D50" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="18">
+        <v>2557.5447398787005</v>
+      </c>
+      <c r="F50" s="18">
+        <v>127109.39992223009</v>
+      </c>
+      <c r="G50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="H50" s="18">
+        <v>96000</v>
+      </c>
+      <c r="I50" s="18">
+        <v>99399.55140589927</v>
+      </c>
+      <c r="J50" s="18">
+        <v>3399.5514058992703</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -115,6 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,6 +133,10 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -151,15 +159,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
+    <t>买卖金额</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2345,7 +2345,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2489,6 +2489,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2498,7 +2501,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2642,6 +2645,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,7 +2690,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2828,6 +2834,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2837,7 +2846,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2981,6 +2990,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99399.55140589927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105212.82976693707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,7 +3035,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3167,6 +3179,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3176,7 +3191,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3320,6 +3335,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3399.5514058992703</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7212.8297669370659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,11 +3359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593742464"/>
-        <c:axId val="593826176"/>
+        <c:axId val="444390400"/>
+        <c:axId val="444392192"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="593742464"/>
+        <c:axId val="444390400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,14 +3406,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593826176"/>
+        <c:crossAx val="444392192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="593826176"/>
+        <c:axId val="444392192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3464,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593742464"/>
+        <c:crossAx val="444390400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3618,7 +3636,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3762,6 +3780,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3771,7 +3792,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3914,6 +3935,9 @@
                   <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3957,7 +3981,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4101,6 +4125,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,7 +4137,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4254,6 +4281,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>25638.128187802067</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26621.687148111989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,7 +4326,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4440,6 +4470,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4449,7 +4482,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4593,6 +4626,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1638.1281878020673</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2621.6871481119888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,11 +4650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594166912"/>
-        <c:axId val="594168448"/>
+        <c:axId val="464595200"/>
+        <c:axId val="464601472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594166912"/>
+        <c:axId val="464595200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4661,14 +4697,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594168448"/>
+        <c:crossAx val="464601472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594168448"/>
+        <c:axId val="464601472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,7 +4755,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594166912"/>
+        <c:crossAx val="464595200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4891,7 +4927,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5035,6 +5071,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5044,7 +5083,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5188,6 +5227,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>105000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5230,7 +5272,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5374,6 +5416,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5383,7 +5428,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5527,6 +5572,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>108080.22280613086</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>114226.51893175203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,7 +5617,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5713,6 +5761,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5722,7 +5773,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5866,6 +5917,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3080.222806130856</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7226.5189317520271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,11 +5941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602433792"/>
-        <c:axId val="602735360"/>
+        <c:axId val="465577472"/>
+        <c:axId val="465579392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602433792"/>
+        <c:axId val="465577472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5934,14 +5988,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602735360"/>
+        <c:crossAx val="465579392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602735360"/>
+        <c:axId val="465579392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5992,7 +6046,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602433792"/>
+        <c:crossAx val="465577472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6164,7 +6218,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6308,6 +6362,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6317,7 +6374,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6461,6 +6518,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6503,7 +6563,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6647,6 +6707,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6656,7 +6719,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6800,6 +6863,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>101780.86458460103</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>107685.49758342907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6842,7 +6908,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6986,6 +7052,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6995,7 +7064,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7139,6 +7208,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3780.8645846010331</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7685.4975834290672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7160,11 +7232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="602872064"/>
-        <c:axId val="602882048"/>
+        <c:axId val="465593472"/>
+        <c:axId val="465595008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="602872064"/>
+        <c:axId val="465593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,14 +7279,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602882048"/>
+        <c:crossAx val="465595008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="602882048"/>
+        <c:axId val="465595008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7265,7 +7337,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="602872064"/>
+        <c:crossAx val="465593472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7437,7 +7509,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7581,6 +7653,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7590,7 +7665,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7734,6 +7809,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>98000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7776,7 +7854,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7920,6 +7998,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7929,7 +8010,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8073,6 +8154,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99399.55140589927</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105212.82976693707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8115,7 +8199,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8259,6 +8343,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8268,7 +8355,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8412,6 +8499,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3399.5514058992703</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7212.8297669370659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8433,11 +8523,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="606882432"/>
-        <c:axId val="622576384"/>
+        <c:axId val="465613568"/>
+        <c:axId val="465615488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="606882432"/>
+        <c:axId val="465613568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8480,14 +8570,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="622576384"/>
+        <c:crossAx val="465615488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="622576384"/>
+        <c:axId val="465615488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8538,7 +8628,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="606882432"/>
+        <c:crossAx val="465613568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9092,7 +9182,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10813,6 +10903,35 @@
         <v>3399.5514058992703</v>
       </c>
     </row>
+    <row r="51" spans="1:9" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="E51" s="18">
+        <v>129572.45418029575</v>
+      </c>
+      <c r="F51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="G51" s="18">
+        <v>98000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="I51" s="18">
+        <v>7212.8297669370659</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10824,7 +10943,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10863,10 +10982,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -10887,7 +11006,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -12673,6 +12792,38 @@
       </c>
       <c r="J50" s="6">
         <v>-112.23623009437114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0</v>
+      </c>
+      <c r="D51" s="18">
+        <v>0</v>
+      </c>
+      <c r="E51" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F51" s="18">
+        <v>26621.687148111989</v>
+      </c>
+      <c r="G51" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>26621.687148111989</v>
+      </c>
+      <c r="I51" s="18">
+        <v>2621.6871481119888</v>
+      </c>
+      <c r="J51" s="6">
+        <v>116.62513925726178</v>
       </c>
     </row>
   </sheetData>
@@ -12686,7 +12837,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12723,7 +12874,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>1</v>
@@ -12750,19 +12901,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12772,7 +12923,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15109,6 +15260,50 @@
       </c>
       <c r="N50" s="1">
         <v>57.56422519642517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="E51" s="18">
+        <v>140673.05691943463</v>
+      </c>
+      <c r="F51" s="18">
+        <v>114226.51893175203</v>
+      </c>
+      <c r="G51" s="18">
+        <v>107000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>114226.51893175203</v>
+      </c>
+      <c r="I51" s="18">
+        <v>7226.5189317520271</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="K51" s="6">
+        <v>1.7815288838741335E-2</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2.9999971389770508E-2</v>
+      </c>
+      <c r="M51" s="6">
+        <v>2.7262595941328873E-2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>65.34700098655739</v>
       </c>
     </row>
   </sheetData>
@@ -15122,7 +15317,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15159,13 +15354,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -18000,6 +18195,59 @@
       </c>
       <c r="Q50" s="1">
         <v>68.966908041071207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="E51" s="18">
+        <v>132617.61167739201</v>
+      </c>
+      <c r="F51" s="18">
+        <v>107685.49758342907</v>
+      </c>
+      <c r="G51" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H51" s="18">
+        <v>107685.49758342907</v>
+      </c>
+      <c r="I51" s="18">
+        <v>7685.4975834290672</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N51" s="6">
+        <v>71.162778318994029</v>
+      </c>
+      <c r="O51" s="6">
+        <v>70.684446333694652</v>
+      </c>
+      <c r="P51" s="6">
+        <v>71.017793105252778</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>70.017752790578385</v>
       </c>
     </row>
   </sheetData>
@@ -18013,7 +18261,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC50"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18052,10 +18300,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -19879,6 +20127,38 @@
       </c>
       <c r="J50" s="18">
         <v>3399.5514058992703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="12.75">
+      <c r="A51" s="15">
+        <v>45838</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="C51" s="16">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D51" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E51" s="18">
+        <v>2463.0542580656575</v>
+      </c>
+      <c r="F51" s="18">
+        <v>129572.45418029575</v>
+      </c>
+      <c r="G51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="H51" s="18">
+        <v>98000</v>
+      </c>
+      <c r="I51" s="18">
+        <v>105212.82976693707</v>
+      </c>
+      <c r="J51" s="18">
+        <v>7212.8297669370659</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -123,6 +123,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -135,8 +143,8 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>买卖金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MAX</t>
@@ -157,6 +165,10 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -2345,7 +2357,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2492,6 +2504,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2501,7 +2516,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2648,6 +2663,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2690,7 +2708,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2837,6 +2855,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,7 +2867,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2993,6 +3014,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>105212.82976693707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>111488.72748944756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,7 +3059,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3182,6 +3206,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3191,7 +3218,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3338,6 +3365,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7212.8297669370659</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11488.727489447556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3359,11 +3389,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="444390400"/>
-        <c:axId val="444392192"/>
+        <c:axId val="458136960"/>
+        <c:axId val="459212288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="444390400"/>
+        <c:axId val="458136960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3406,14 +3436,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444392192"/>
+        <c:crossAx val="459212288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="444392192"/>
+        <c:axId val="459212288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,7 +3494,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444390400"/>
+        <c:crossAx val="458136960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3636,7 +3666,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3783,6 +3813,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3825,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3938,6 +3971,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3981,7 +4017,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4128,6 +4164,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4137,7 +4176,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4284,6 +4323,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>26621.687148111989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27703.604740274026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4326,7 +4368,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4473,6 +4515,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,7 +4527,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4629,6 +4674,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2621.6871481119888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3703.604740274026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,11 +4698,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464595200"/>
-        <c:axId val="464601472"/>
+        <c:axId val="459264384"/>
+        <c:axId val="459266304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464595200"/>
+        <c:axId val="459264384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4697,14 +4745,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464601472"/>
+        <c:crossAx val="459266304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464601472"/>
+        <c:axId val="459266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4755,7 +4803,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464595200"/>
+        <c:crossAx val="459264384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4927,7 +4975,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5074,6 +5122,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5083,7 +5134,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5230,6 +5281,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>107000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,7 +5326,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5419,6 +5473,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,7 +5485,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5575,6 +5632,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>114226.51893175203</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>120868.7371216107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5617,7 +5677,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5764,6 +5824,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5773,7 +5836,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5920,6 +5983,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7226.5189317520271</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11868.737121610699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5941,11 +6007,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465577472"/>
-        <c:axId val="465579392"/>
+        <c:axId val="500780416"/>
+        <c:axId val="501660672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465577472"/>
+        <c:axId val="500780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,14 +6054,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465579392"/>
+        <c:crossAx val="501660672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465579392"/>
+        <c:axId val="501660672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6046,7 +6112,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465577472"/>
+        <c:crossAx val="500780416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6218,7 +6284,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6365,6 +6431,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6374,7 +6443,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6521,6 +6590,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6563,7 +6635,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6710,6 +6782,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6719,7 +6794,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6866,6 +6941,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>107685.49758342907</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>114061.88566161656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6908,7 +6986,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7055,6 +7133,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7064,7 +7145,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7211,6 +7292,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7685.4975834290672</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12061.885661616558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7232,11 +7316,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465593472"/>
-        <c:axId val="465595008"/>
+        <c:axId val="508754560"/>
+        <c:axId val="508880768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465593472"/>
+        <c:axId val="508754560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7279,14 +7363,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465595008"/>
+        <c:crossAx val="508880768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465595008"/>
+        <c:axId val="508880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7337,7 +7421,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465593472"/>
+        <c:crossAx val="508754560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7509,7 +7593,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7656,6 +7740,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7665,7 +7752,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7812,6 +7899,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>98000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7854,7 +7944,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8001,6 +8091,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8010,7 +8103,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8157,6 +8250,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>105212.82976693707</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>111488.72748944756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8199,7 +8295,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8346,6 +8442,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8355,7 +8454,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8502,6 +8601,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>7212.8297669370659</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11488.727489447556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8523,11 +8625,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="465613568"/>
-        <c:axId val="465615488"/>
+        <c:axId val="577522688"/>
+        <c:axId val="577528576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="465613568"/>
+        <c:axId val="577522688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,14 +8672,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465615488"/>
+        <c:crossAx val="577528576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="465615488"/>
+        <c:axId val="577528576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8628,7 +8730,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="465613568"/>
+        <c:crossAx val="577522688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9182,7 +9284,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10932,6 +11034,35 @@
         <v>7212.8297669370659</v>
       </c>
     </row>
+    <row r="52" spans="1:9" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="E52" s="18">
+        <v>131939.31800548331</v>
+      </c>
+      <c r="F52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="G52" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="I52" s="18">
+        <v>11488.727489447556</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10943,7 +11074,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10979,13 +11110,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11006,7 +11137,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -11017,7 +11148,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12824,6 +12955,38 @@
       </c>
       <c r="J51" s="6">
         <v>116.62513925726178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0</v>
+      </c>
+      <c r="D52" s="18">
+        <v>0</v>
+      </c>
+      <c r="E52" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F52" s="18">
+        <v>27703.604740274026</v>
+      </c>
+      <c r="G52" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>27703.604740274026</v>
+      </c>
+      <c r="I52" s="18">
+        <v>3703.604740274026</v>
+      </c>
+      <c r="J52" s="6">
+        <v>21.060721400501365</v>
       </c>
     </row>
   </sheetData>
@@ -12837,7 +13000,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -12874,13 +13037,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -12901,19 +13064,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -12923,7 +13086,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15304,6 +15467,50 @@
       </c>
       <c r="N51" s="1">
         <v>65.34700098655739</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="E52" s="18">
+        <v>143039.92074462218</v>
+      </c>
+      <c r="F52" s="18">
+        <v>120868.7371216107</v>
+      </c>
+      <c r="G52" s="18">
+        <v>109000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>120868.7371216107</v>
+      </c>
+      <c r="I52" s="18">
+        <v>11868.737121610699</v>
+      </c>
+      <c r="J52" s="6">
+        <v>3.3000051975250244E-2</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2.0346082694826153E-2</v>
+      </c>
+      <c r="L52" s="6">
+        <v>3.3000051975250244E-2</v>
+      </c>
+      <c r="M52" s="6">
+        <v>2.82188386136491E-2</v>
+      </c>
+      <c r="N52" s="1">
+        <v>72.101063312311538</v>
       </c>
     </row>
   </sheetData>
@@ -15317,7 +15524,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15357,10 +15564,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15381,28 +15588,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15412,7 +15619,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -18248,6 +18455,59 @@
       </c>
       <c r="Q51" s="1">
         <v>70.017752790578385</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="E52" s="18">
+        <v>134984.47550257956</v>
+      </c>
+      <c r="F52" s="18">
+        <v>114061.88566161656</v>
+      </c>
+      <c r="G52" s="18">
+        <v>102000</v>
+      </c>
+      <c r="H52" s="18">
+        <v>114061.88566161656</v>
+      </c>
+      <c r="I52" s="18">
+        <v>12061.885661616558</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N52" s="6">
+        <v>86.915892015346799</v>
+      </c>
+      <c r="O52" s="6">
+        <v>76.094928227578706</v>
+      </c>
+      <c r="P52" s="6">
+        <v>72.710171479361421</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>82.86444172401329</v>
       </c>
     </row>
   </sheetData>
@@ -18261,7 +18521,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC51"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18336,7 +18596,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -20159,6 +20419,38 @@
       </c>
       <c r="J51" s="18">
         <v>7212.8297669370659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75">
+      <c r="A52" s="15">
+        <v>45869</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C52" s="16">
+        <v>25.25</v>
+      </c>
+      <c r="D52" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2366.8638251875536</v>
+      </c>
+      <c r="F52" s="18">
+        <v>131939.31800548331</v>
+      </c>
+      <c r="G52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="H52" s="18">
+        <v>100000</v>
+      </c>
+      <c r="I52" s="18">
+        <v>111488.72748944756</v>
+      </c>
+      <c r="J52" s="18">
+        <v>11488.727489447556</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -167,11 +159,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>买卖金额</t>
+    <t>深创100ETF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2357,7 +2349,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2507,6 +2499,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2516,7 +2511,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2666,6 +2661,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2708,7 +2706,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2858,6 +2856,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2867,7 +2868,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3017,6 +3018,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>111488.72748944756</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>135126.76444373146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3059,7 +3063,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3209,6 +3213,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3218,7 +3225,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3368,6 +3375,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11488.727489447556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33126.764443731459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,11 +3399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="458136960"/>
-        <c:axId val="459212288"/>
+        <c:axId val="393059712"/>
+        <c:axId val="393073792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="458136960"/>
+        <c:axId val="393059712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3436,14 +3446,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459212288"/>
+        <c:crossAx val="393073792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459212288"/>
+        <c:axId val="393073792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3504,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458136960"/>
+        <c:crossAx val="393059712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3666,7 +3676,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3816,6 +3826,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3825,7 +3838,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3974,6 +3987,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4017,7 +4033,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4167,6 +4183,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4176,7 +4195,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4326,6 +4345,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>27703.604740274026</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33080.396068291135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4368,7 +4390,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4518,6 +4540,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,7 +4552,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4677,6 +4702,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3703.604740274026</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9080.3960682911347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,11 +4726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459264384"/>
-        <c:axId val="459266304"/>
+        <c:axId val="399465088"/>
+        <c:axId val="399466880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459264384"/>
+        <c:axId val="399465088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4745,14 +4773,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459266304"/>
+        <c:crossAx val="399466880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="459266304"/>
+        <c:axId val="399466880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4831,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459264384"/>
+        <c:crossAx val="399465088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4975,7 +5003,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5125,6 +5153,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5134,7 +5165,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5284,6 +5315,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>109000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>111000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5326,7 +5360,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5476,6 +5510,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5485,7 +5522,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5635,6 +5672,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>120868.7371216107</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146327.27198292734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5677,7 +5717,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5827,6 +5867,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,7 +5879,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5986,6 +6029,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11868.737121610699</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35327.271982927341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6007,11 +6053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="500780416"/>
-        <c:axId val="501660672"/>
+        <c:axId val="400070912"/>
+        <c:axId val="400080896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="500780416"/>
+        <c:axId val="400070912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6054,14 +6100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501660672"/>
+        <c:crossAx val="400080896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501660672"/>
+        <c:axId val="400080896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,7 +6158,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500780416"/>
+        <c:crossAx val="400070912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6284,7 +6330,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6434,6 +6480,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6492,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6593,6 +6642,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>104000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6635,7 +6687,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6785,6 +6837,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6794,7 +6849,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6944,6 +6999,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>114061.88566161656</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>138199.32818696034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6986,7 +7044,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7136,6 +7194,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7145,7 +7206,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7295,6 +7356,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>12061.885661616558</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34199.328186960338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7316,11 +7380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508754560"/>
-        <c:axId val="508880768"/>
+        <c:axId val="428939520"/>
+        <c:axId val="428945408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="508754560"/>
+        <c:axId val="428939520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7363,14 +7427,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508880768"/>
+        <c:crossAx val="428945408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="508880768"/>
+        <c:axId val="428945408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7421,7 +7485,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="508754560"/>
+        <c:crossAx val="428939520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7593,7 +7657,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7743,6 +7807,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7752,7 +7819,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7902,6 +7969,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>102000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7944,7 +8014,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8094,6 +8164,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8103,7 +8176,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8253,6 +8326,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>111488.72748944756</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>135126.76444373146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8295,7 +8371,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8445,6 +8521,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8454,7 +8533,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8604,6 +8683,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>11488.727489447556</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33126.764443731459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8625,11 +8707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="577522688"/>
-        <c:axId val="577528576"/>
+        <c:axId val="429635072"/>
+        <c:axId val="446121856"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="577522688"/>
+        <c:axId val="429635072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8672,14 +8754,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577528576"/>
+        <c:crossAx val="446121856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="577528576"/>
+        <c:axId val="446121856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8730,7 +8812,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577522688"/>
+        <c:crossAx val="429635072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9284,7 +9366,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11063,6 +11145,35 @@
         <v>11488.727489447556</v>
       </c>
     </row>
+    <row r="53" spans="1:9" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="E53" s="18">
+        <v>133921.47867102324</v>
+      </c>
+      <c r="F53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="G53" s="18">
+        <v>102000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="I53" s="18">
+        <v>33126.764443731459</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11074,7 +11185,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11110,13 +11221,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11137,7 +11248,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -11148,7 +11259,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -12987,6 +13098,38 @@
       </c>
       <c r="J52" s="6">
         <v>21.060721400501365</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0</v>
+      </c>
+      <c r="D53" s="18">
+        <v>0</v>
+      </c>
+      <c r="E53" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F53" s="18">
+        <v>33080.396068291135</v>
+      </c>
+      <c r="G53" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>33080.396068291135</v>
+      </c>
+      <c r="I53" s="18">
+        <v>9080.3960682911347</v>
+      </c>
+      <c r="J53" s="6">
+        <v>143.9725445834176</v>
       </c>
     </row>
   </sheetData>
@@ -13000,7 +13143,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13043,7 +13186,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -13064,19 +13207,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13086,7 +13229,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15511,6 +15654,50 @@
       </c>
       <c r="N52" s="1">
         <v>72.101063312311538</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="E53" s="18">
+        <v>145022.08141016212</v>
+      </c>
+      <c r="F53" s="18">
+        <v>146327.27198292734</v>
+      </c>
+      <c r="G53" s="18">
+        <v>111000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>146327.27198292734</v>
+      </c>
+      <c r="I53" s="18">
+        <v>35327.271982927341</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.16399991512298584</v>
+      </c>
+      <c r="K53" s="6">
+        <v>4.4288388099519432E-2</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.16399991512298584</v>
+      </c>
+      <c r="M53" s="6">
+        <v>5.084901803187189E-2</v>
+      </c>
+      <c r="N53" s="1">
+        <v>87.097823741177677</v>
       </c>
     </row>
   </sheetData>
@@ -15524,7 +15711,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH52"/>
+  <dimension ref="A1:AH53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15561,13 +15748,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15588,28 +15775,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15619,7 +15806,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -18508,6 +18695,59 @@
       </c>
       <c r="Q52" s="1">
         <v>82.86444172401329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="E53" s="18">
+        <v>136966.6361681195</v>
+      </c>
+      <c r="F53" s="18">
+        <v>138199.32818696034</v>
+      </c>
+      <c r="G53" s="18">
+        <v>104000</v>
+      </c>
+      <c r="H53" s="18">
+        <v>138199.32818696034</v>
+      </c>
+      <c r="I53" s="18">
+        <v>34199.328186960338</v>
+      </c>
+      <c r="J53" s="6">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="L53" s="6">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N53" s="6">
+        <v>96.952898296479447</v>
+      </c>
+      <c r="O53" s="6">
+        <v>83.047584917212291</v>
+      </c>
+      <c r="P53" s="6">
+        <v>76.155975958645044</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>96.83080283434677</v>
       </c>
     </row>
   </sheetData>
@@ -18521,7 +18761,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18596,7 +18836,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -20451,6 +20691,38 @@
       </c>
       <c r="J52" s="18">
         <v>11488.727489447556</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75">
+      <c r="A53" s="15">
+        <v>45898</v>
+      </c>
+      <c r="B53" s="16">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="C53" s="16">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D53" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1982.1606655399478</v>
+      </c>
+      <c r="F53" s="18">
+        <v>133921.47867102324</v>
+      </c>
+      <c r="G53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="H53" s="18">
+        <v>102000</v>
+      </c>
+      <c r="I53" s="18">
+        <v>135126.76444373146</v>
+      </c>
+      <c r="J53" s="18">
+        <v>33126.764443731459</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -123,6 +123,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -133,6 +137,10 @@
   <si>
     <t>CCI</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -159,11 +167,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>深创100ETF</t>
+    <t>买卖金额</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2349,7 +2353,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2502,6 +2506,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,7 +2518,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2664,6 +2671,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2706,7 +2716,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2859,6 +2869,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2868,7 +2881,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3021,6 +3034,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>135126.76444373146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147706.57671255671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,7 +3079,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3216,6 +3232,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3225,7 +3244,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3378,6 +3397,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>33126.764443731459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43706.576712556707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3399,11 +3421,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="393059712"/>
-        <c:axId val="393073792"/>
+        <c:axId val="270390016"/>
+        <c:axId val="270391936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="393059712"/>
+        <c:axId val="270390016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,14 +3468,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393073792"/>
+        <c:crossAx val="270391936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="393073792"/>
+        <c:axId val="270391936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,7 +3526,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393059712"/>
+        <c:crossAx val="270390016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3676,7 +3698,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3829,6 +3851,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3838,7 +3863,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3990,6 +4015,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4033,7 +4061,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4186,6 +4214,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,7 +4226,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4348,6 +4379,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>33080.396068291135</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35670.440917079351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,7 +4424,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4543,6 +4577,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,7 +4589,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4705,6 +4742,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>9080.3960682911347</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11670.440917079351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4726,11 +4766,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="399465088"/>
-        <c:axId val="399466880"/>
+        <c:axId val="306927872"/>
+        <c:axId val="306941952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="399465088"/>
+        <c:axId val="306927872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,14 +4813,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399466880"/>
+        <c:crossAx val="306941952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="399466880"/>
+        <c:axId val="306941952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,7 +4871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399465088"/>
+        <c:crossAx val="306927872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5003,7 +5043,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5156,6 +5196,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,7 +5208,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5318,6 +5361,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>111000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>113000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5360,7 +5406,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5513,6 +5559,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5522,7 +5571,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5675,6 +5724,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>146327.27198292734</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>159784.03314909412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5717,7 +5769,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5870,6 +5922,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,7 +5934,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6032,6 +6087,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>35327.271982927341</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46784.033149094117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6053,11 +6111,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="400070912"/>
-        <c:axId val="400080896"/>
+        <c:axId val="519635712"/>
+        <c:axId val="519637632"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="400070912"/>
+        <c:axId val="519635712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6100,14 +6158,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400080896"/>
+        <c:crossAx val="519637632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="400080896"/>
+        <c:axId val="519637632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,7 +6216,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400070912"/>
+        <c:crossAx val="519635712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6330,7 +6388,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6483,6 +6541,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6492,7 +6553,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6645,6 +6706,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6687,7 +6751,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6840,6 +6904,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6849,7 +6916,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7002,6 +7069,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>138199.32818696034</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>151019.70824945092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7044,7 +7114,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7197,6 +7267,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7206,7 +7279,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7359,6 +7432,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>34199.328186960338</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45019.708249450923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7380,11 +7456,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="428939520"/>
-        <c:axId val="428945408"/>
+        <c:axId val="519802880"/>
+        <c:axId val="519804416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="428939520"/>
+        <c:axId val="519802880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7427,14 +7503,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428945408"/>
+        <c:crossAx val="519804416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="428945408"/>
+        <c:axId val="519804416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7485,7 +7561,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428939520"/>
+        <c:crossAx val="519802880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7657,7 +7733,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7810,6 +7886,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7819,7 +7898,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7972,6 +8051,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>102000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8014,7 +8096,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8167,6 +8249,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8176,7 +8261,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8329,6 +8414,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>135126.76444373146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>147706.57671255671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8371,7 +8459,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8524,6 +8612,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8533,7 +8624,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8686,6 +8777,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>33126.764443731459</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43706.576712556707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8707,11 +8801,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="429635072"/>
-        <c:axId val="446121856"/>
+        <c:axId val="519826048"/>
+        <c:axId val="519828224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="429635072"/>
+        <c:axId val="519826048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8754,14 +8848,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446121856"/>
+        <c:crossAx val="519828224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446121856"/>
+        <c:axId val="519828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8812,7 +8906,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429635072"/>
+        <c:crossAx val="519826048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9366,7 +9460,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11174,6 +11268,35 @@
         <v>33126.764443731459</v>
       </c>
     </row>
+    <row r="54" spans="1:9" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="E54" s="18">
+        <v>135759.71386524124</v>
+      </c>
+      <c r="F54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="G54" s="18">
+        <v>104000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="I54" s="18">
+        <v>43706.576712556707</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11185,7 +11308,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11224,10 +11347,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11248,7 +11371,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -11259,7 +11382,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13130,6 +13253,38 @@
       </c>
       <c r="J53" s="6">
         <v>143.9725445834176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0</v>
+      </c>
+      <c r="D54" s="18">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F54" s="18">
+        <v>35670.440917079351</v>
+      </c>
+      <c r="G54" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>35670.440917079351</v>
+      </c>
+      <c r="I54" s="18">
+        <v>11670.440917079351</v>
+      </c>
+      <c r="J54" s="6">
+        <v>121.58175372392238</v>
       </c>
     </row>
   </sheetData>
@@ -13143,7 +13298,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13186,7 +13341,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -13207,19 +13362,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13229,7 +13384,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15698,6 +15853,50 @@
       </c>
       <c r="N53" s="1">
         <v>87.097823741177677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="E54" s="18">
+        <v>146860.31660438012</v>
+      </c>
+      <c r="F54" s="18">
+        <v>159784.03314909412</v>
+      </c>
+      <c r="G54" s="18">
+        <v>113000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>159784.03314909412</v>
+      </c>
+      <c r="I54" s="18">
+        <v>46784.033149094117</v>
+      </c>
+      <c r="J54" s="6">
+        <v>7.9000115394592285E-2</v>
+      </c>
+      <c r="K54" s="6">
+        <v>5.0073675982031572E-2</v>
+      </c>
+      <c r="L54" s="6">
+        <v>7.9000115394592285E-2</v>
+      </c>
+      <c r="M54" s="6">
+        <v>5.5540867592325294E-2</v>
+      </c>
+      <c r="N54" s="1">
+        <v>90.156452631558849</v>
       </c>
     </row>
   </sheetData>
@@ -15711,7 +15910,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH53"/>
+  <dimension ref="A1:AH54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15748,13 +15947,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15775,28 +15974,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -15806,7 +16005,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -18748,6 +18947,59 @@
       </c>
       <c r="Q53" s="1">
         <v>96.83080283434677</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="E54" s="18">
+        <v>138804.87136233749</v>
+      </c>
+      <c r="F54" s="18">
+        <v>151019.70824945092</v>
+      </c>
+      <c r="G54" s="18">
+        <v>106000</v>
+      </c>
+      <c r="H54" s="18">
+        <v>151019.70824945092</v>
+      </c>
+      <c r="I54" s="18">
+        <v>45019.708249450923</v>
+      </c>
+      <c r="J54" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="L54" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N54" s="6">
+        <v>87.195130446328506</v>
+      </c>
+      <c r="O54" s="6">
+        <v>84.430100093584358</v>
+      </c>
+      <c r="P54" s="6">
+        <v>78.914017336958139</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>95.46226560683678</v>
       </c>
     </row>
   </sheetData>
@@ -18761,7 +19013,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18878,7 +19130,7 @@
       </c>
       <c r="K3" s="6"/>
       <c r="M3" s="21" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>10</v>
@@ -20723,6 +20975,38 @@
       </c>
       <c r="J53" s="18">
         <v>33126.764443731459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75">
+      <c r="A54" s="15">
+        <v>45930</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="C54" s="16">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D54" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1838.2351942179992</v>
+      </c>
+      <c r="F54" s="18">
+        <v>135759.71386524124</v>
+      </c>
+      <c r="G54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="H54" s="18">
+        <v>104000</v>
+      </c>
+      <c r="I54" s="18">
+        <v>147706.57671255671</v>
+      </c>
+      <c r="J54" s="18">
+        <v>43706.576712556707</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -115,16 +115,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单位：元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>深创100ETF</t>
@@ -139,7 +139,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
+    <t>深创100ETF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,6 +165,10 @@
   <si>
     <t>RSI</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深创100ETF</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>买卖金额</t>
@@ -2353,7 +2357,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2509,6 +2513,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,7 +2525,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2674,6 +2681,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,7 +2726,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2872,6 +2882,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2881,7 +2894,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3037,6 +3050,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>147706.57671255671</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147670.16676281733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3079,7 +3095,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3235,6 +3251,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,7 +3263,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3400,6 +3419,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43706.576712556707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41670.166762817331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,11 +3443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270390016"/>
-        <c:axId val="270391936"/>
+        <c:axId val="420450304"/>
+        <c:axId val="420451840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="270390016"/>
+        <c:axId val="420450304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3468,14 +3490,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270391936"/>
+        <c:crossAx val="420451840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="270391936"/>
+        <c:axId val="420451840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +3548,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270390016"/>
+        <c:crossAx val="420450304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3698,7 +3720,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3854,6 +3876,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3863,7 +3888,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4018,6 +4043,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4061,7 +4089,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4217,6 +4245,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4226,7 +4257,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4382,6 +4413,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>35670.440917079351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35178.657528608499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4424,7 +4458,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4580,6 +4614,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4589,7 +4626,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4745,6 +4782,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>11670.440917079351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11178.657528608499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,11 +4806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="306927872"/>
-        <c:axId val="306941952"/>
+        <c:axId val="420478336"/>
+        <c:axId val="420509184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="306927872"/>
+        <c:axId val="420478336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4813,14 +4853,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306941952"/>
+        <c:crossAx val="420509184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="306941952"/>
+        <c:axId val="420509184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4871,7 +4911,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306927872"/>
+        <c:crossAx val="420478336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5043,7 +5083,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5199,6 +5239,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5208,7 +5251,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5364,6 +5407,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>113000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>115000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,7 +5452,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5562,6 +5608,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,7 +5620,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5727,6 +5776,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>159784.03314909412</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>159581.1129937681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,7 +5821,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5925,6 +5977,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5934,7 +5989,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6090,6 +6145,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>46784.033149094117</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44581.112993768096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6111,11 +6169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519635712"/>
-        <c:axId val="519637632"/>
+        <c:axId val="420813824"/>
+        <c:axId val="420816000"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519635712"/>
+        <c:axId val="420813824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,14 +6216,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519637632"/>
+        <c:crossAx val="420816000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519637632"/>
+        <c:axId val="420816000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,7 +6274,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519635712"/>
+        <c:crossAx val="420813824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6388,7 +6446,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6544,6 +6602,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6553,7 +6614,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6709,6 +6770,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6751,7 +6815,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6907,6 +6971,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6916,7 +6983,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7072,6 +7139,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>151019.70824945092</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>150937.62061780537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7114,7 +7184,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7270,6 +7340,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7279,7 +7352,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7435,6 +7508,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45019.708249450923</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42937.620617805369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7456,11 +7532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519802880"/>
-        <c:axId val="519804416"/>
+        <c:axId val="420859264"/>
+        <c:axId val="463593472"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519802880"/>
+        <c:axId val="420859264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7503,14 +7579,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519804416"/>
+        <c:crossAx val="463593472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519804416"/>
+        <c:axId val="463593472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7561,7 +7637,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519802880"/>
+        <c:crossAx val="420859264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7733,7 +7809,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7889,6 +7965,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7898,7 +7977,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8054,6 +8133,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>106000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8096,7 +8178,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8252,6 +8334,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8261,7 +8346,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8417,6 +8502,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>147706.57671255671</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147670.16676281733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8459,7 +8547,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8615,6 +8703,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8624,7 +8715,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8780,6 +8871,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>43706.576712556707</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41670.166762817331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8801,11 +8895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="519826048"/>
-        <c:axId val="519828224"/>
+        <c:axId val="485095680"/>
+        <c:axId val="560714112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="519826048"/>
+        <c:axId val="485095680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8848,14 +8942,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519828224"/>
+        <c:crossAx val="560714112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="519828224"/>
+        <c:axId val="560714112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8906,7 +9000,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519826048"/>
+        <c:crossAx val="485095680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9460,7 +9554,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11297,6 +11391,35 @@
         <v>43706.576712556707</v>
       </c>
     </row>
+    <row r="55" spans="1:9" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="E55" s="18">
+        <v>137623.64684317607</v>
+      </c>
+      <c r="F55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="G55" s="18">
+        <v>106000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="I55" s="18">
+        <v>41670.166762817331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11308,7 +11431,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11344,7 +11467,7 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>20</v>
@@ -11382,7 +11505,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13285,6 +13408,38 @@
       </c>
       <c r="J54" s="6">
         <v>121.58175372392238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0</v>
+      </c>
+      <c r="D55" s="18">
+        <v>0</v>
+      </c>
+      <c r="E55" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F55" s="18">
+        <v>35178.657528608499</v>
+      </c>
+      <c r="G55" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>35178.657528608499</v>
+      </c>
+      <c r="I55" s="18">
+        <v>11178.657528608499</v>
+      </c>
+      <c r="J55" s="6">
+        <v>57.419730839413582</v>
       </c>
     </row>
   </sheetData>
@@ -13298,7 +13453,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13338,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>24</v>
@@ -13384,7 +13539,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -15897,6 +16052,50 @@
       </c>
       <c r="N54" s="1">
         <v>90.156452631558849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="E55" s="18">
+        <v>148724.24958231495</v>
+      </c>
+      <c r="F55" s="18">
+        <v>159581.1129937681</v>
+      </c>
+      <c r="G55" s="18">
+        <v>115000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>159581.1129937681</v>
+      </c>
+      <c r="I55" s="18">
+        <v>44581.112993768096</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>4.1728063318359647E-2</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1.5000104904174805E-2</v>
+      </c>
+      <c r="M55" s="6">
+        <v>4.8784073810966881E-2</v>
+      </c>
+      <c r="N55" s="1">
+        <v>85.53624176621959</v>
       </c>
     </row>
   </sheetData>
@@ -15910,7 +16109,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH54"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -15950,10 +16149,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -15974,28 +16173,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16005,7 +16204,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -19000,6 +19199,59 @@
       </c>
       <c r="Q54" s="1">
         <v>95.46226560683678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="E55" s="18">
+        <v>140668.80434027233</v>
+      </c>
+      <c r="F55" s="18">
+        <v>150937.62061780537</v>
+      </c>
+      <c r="G55" s="18">
+        <v>108000</v>
+      </c>
+      <c r="H55" s="18">
+        <v>150937.62061780537</v>
+      </c>
+      <c r="I55" s="18">
+        <v>42937.620617805369</v>
+      </c>
+      <c r="J55" s="6">
+        <v>1.128000020980835</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="L55" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="M55" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N55" s="6">
+        <v>84.146328905427424</v>
+      </c>
+      <c r="O55" s="6">
+        <v>84.335509697532046</v>
+      </c>
+      <c r="P55" s="6">
+        <v>80.721181457149441</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>91.564166178297256</v>
       </c>
     </row>
   </sheetData>
@@ -19013,7 +19265,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC54"/>
+  <dimension ref="A1:AC55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19052,10 +19304,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -19088,7 +19340,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -19130,7 +19382,7 @@
       </c>
       <c r="K3" s="6"/>
       <c r="M3" s="21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>10</v>
@@ -21007,6 +21259,38 @@
       </c>
       <c r="J54" s="18">
         <v>43706.576712556707</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75">
+      <c r="A55" s="15">
+        <v>45961</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C55" s="16">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D55" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1863.9329779348373</v>
+      </c>
+      <c r="F55" s="18">
+        <v>137623.64684317607</v>
+      </c>
+      <c r="G55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="H55" s="18">
+        <v>106000</v>
+      </c>
+      <c r="I55" s="18">
+        <v>147670.16676281733</v>
+      </c>
+      <c r="J55" s="18">
+        <v>41670.166762817331</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
+++ b/lai/valuationquan/szseinnovation100ETF/szseinnovation100ETFmodel1cn.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单位：元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>深创100ETF</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -167,12 +159,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深创100ETF</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>买卖金额</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最高价</t>
@@ -2357,7 +2345,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2516,6 +2504,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2525,7 +2516,7 @@
               <c:f>模型一!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -2684,6 +2675,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +2720,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -2885,6 +2879,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2894,7 +2891,7 @@
               <c:f>模型一!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -3053,6 +3050,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>147670.16676281733</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>145128.58746697762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3095,7 +3095,7 @@
               <c:f>模型一!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3254,6 +3254,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,7 +3266,7 @@
               <c:f>模型一!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3422,6 +3425,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41670.166762817331</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37128.587466977624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,11 +3449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420450304"/>
-        <c:axId val="420451840"/>
+        <c:axId val="160755712"/>
+        <c:axId val="160757248"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420450304"/>
+        <c:axId val="160755712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,14 +3496,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420451840"/>
+        <c:crossAx val="160757248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420451840"/>
+        <c:axId val="160757248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420450304"/>
+        <c:crossAx val="160755712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3720,7 +3726,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -3879,6 +3885,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,7 +3897,7 @@
               <c:f>模型一计算CCI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4046,6 +4055,9 @@
                   <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>24000</c:v>
                 </c:pt>
               </c:numCache>
@@ -4089,7 +4101,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4248,6 +4260,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4257,7 +4272,7 @@
               <c:f>模型一计算CCI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4416,6 +4431,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>35178.657528608499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34096.741890604411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4458,7 +4476,7 @@
               <c:f>模型一计算CCI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -4617,6 +4635,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4626,7 +4647,7 @@
               <c:f>模型一计算CCI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4785,6 +4806,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>11178.657528608499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10096.741890604411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4806,11 +4830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420478336"/>
-        <c:axId val="420509184"/>
+        <c:axId val="342870656"/>
+        <c:axId val="342872448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420478336"/>
+        <c:axId val="342870656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4853,14 +4877,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420509184"/>
+        <c:crossAx val="342872448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420509184"/>
+        <c:axId val="342872448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420478336"/>
+        <c:crossAx val="342870656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5083,7 +5107,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5242,6 +5266,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5251,7 +5278,7 @@
               <c:f>模型一计算RSI!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5410,6 +5437,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>115000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>117000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5452,7 +5482,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5611,6 +5641,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5620,7 +5653,7 @@
               <c:f>模型一计算RSI!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -5779,6 +5812,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>159581.1129937681</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>156673.21389222765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5821,7 +5857,7 @@
               <c:f>模型一计算RSI!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -5980,6 +6016,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5989,7 +6028,7 @@
               <c:f>模型一计算RSI!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6148,6 +6187,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>44581.112993768096</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>39673.21389222765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6169,11 +6211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420813824"/>
-        <c:axId val="420816000"/>
+        <c:axId val="433785472"/>
+        <c:axId val="433840896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420813824"/>
+        <c:axId val="433785472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6216,14 +6258,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420816000"/>
+        <c:crossAx val="433840896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="420816000"/>
+        <c:axId val="433840896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6274,7 +6316,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420813824"/>
+        <c:crossAx val="433785472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6446,7 +6488,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6605,6 +6647,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6614,7 +6659,7 @@
               <c:f>模型一计算KDJ!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -6773,6 +6818,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>108000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>110000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6815,7 +6863,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -6974,6 +7022,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6983,7 +7034,7 @@
               <c:f>模型一计算KDJ!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -7142,6 +7193,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>150937.62061780537</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148295.55114779418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7184,7 +7238,7 @@
               <c:f>模型一计算KDJ!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7343,6 +7397,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7352,7 +7409,7 @@
               <c:f>模型一计算KDJ!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7511,6 +7568,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>42937.620617805369</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38295.551147794176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7532,11 +7592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="420859264"/>
-        <c:axId val="463593472"/>
+        <c:axId val="434154880"/>
+        <c:axId val="467999360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="420859264"/>
+        <c:axId val="434154880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7579,14 +7639,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463593472"/>
+        <c:crossAx val="467999360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="463593472"/>
+        <c:axId val="467999360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7637,7 +7697,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420859264"/>
+        <c:crossAx val="434154880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7809,7 +7869,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -7968,6 +8028,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7977,7 +8040,7 @@
               <c:f>'模型一&amp;PE'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8136,6 +8199,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>106000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>108000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8178,7 +8244,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8337,6 +8403,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8346,7 +8415,7 @@
               <c:f>'模型一&amp;PE'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>2000</c:v>
                 </c:pt>
@@ -8505,6 +8574,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>147670.16676281733</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>145128.58746697762</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8547,7 +8619,7 @@
               <c:f>'模型一&amp;PE'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44377</c:v>
                 </c:pt>
@@ -8706,6 +8778,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8715,7 +8790,7 @@
               <c:f>'模型一&amp;PE'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8874,6 +8949,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41670.166762817331</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37128.587466977624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8895,11 +8973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485095680"/>
-        <c:axId val="560714112"/>
+        <c:axId val="574255104"/>
+        <c:axId val="574256640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="485095680"/>
+        <c:axId val="574255104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8942,14 +9020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="560714112"/>
+        <c:crossAx val="574256640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="560714112"/>
+        <c:axId val="574256640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9000,7 +9078,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485095680"/>
+        <c:crossAx val="574255104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9554,7 +9632,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11420,6 +11498,35 @@
         <v>41670.166762817331</v>
       </c>
     </row>
+    <row r="56" spans="1:9" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="E56" s="18">
+        <v>139546.72383679103</v>
+      </c>
+      <c r="F56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="G56" s="18">
+        <v>108000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="I56" s="18">
+        <v>37128.587466977624</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11431,7 +11538,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11467,13 +11574,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -11494,7 +11601,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K1" s="12"/>
     </row>
@@ -11505,7 +11612,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -13440,6 +13547,38 @@
       </c>
       <c r="J55" s="6">
         <v>57.419730839413582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0</v>
+      </c>
+      <c r="D56" s="18">
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <v>32785.329943524514</v>
+      </c>
+      <c r="F56" s="18">
+        <v>34096.741890604411</v>
+      </c>
+      <c r="G56" s="18">
+        <v>24000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>34096.741890604411</v>
+      </c>
+      <c r="I56" s="18">
+        <v>10096.741890604411</v>
+      </c>
+      <c r="J56" s="6">
+        <v>-25.623704638394841</v>
       </c>
     </row>
   </sheetData>
@@ -13453,7 +13592,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -13493,10 +13632,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -13517,19 +13656,19 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -13539,7 +13678,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -16096,6 +16235,50 @@
       </c>
       <c r="N55" s="1">
         <v>85.53624176621959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="E56" s="18">
+        <v>150647.32657592991</v>
+      </c>
+      <c r="F56" s="18">
+        <v>156673.21389222765</v>
+      </c>
+      <c r="G56" s="18">
+        <v>117000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>156673.21389222765</v>
+      </c>
+      <c r="I56" s="18">
+        <v>39673.21389222765</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>3.4773386098633043E-2</v>
+      </c>
+      <c r="L56" s="6">
+        <v>3.2999992370605469E-2</v>
+      </c>
+      <c r="M56" s="6">
+        <v>4.6153393570906642E-2</v>
+      </c>
+      <c r="N56" s="1">
+        <v>75.343075358499476</v>
       </c>
     </row>
   </sheetData>
@@ -16109,7 +16292,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AH55"/>
+  <dimension ref="A1:AH56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -16146,13 +16329,13 @@
   <sheetData>
     <row r="1" spans="1:34" s="11" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
@@ -16173,28 +16356,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="N1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>36</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="14.1" customHeight="1">
@@ -16204,7 +16387,7 @@
         <v>2000</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -19252,6 +19435,59 @@
       </c>
       <c r="Q55" s="1">
         <v>91.564166178297256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="E56" s="18">
+        <v>142591.88133388729</v>
+      </c>
+      <c r="F56" s="18">
+        <v>148295.55114779418</v>
+      </c>
+      <c r="G56" s="18">
+        <v>110000</v>
+      </c>
+      <c r="H56" s="18">
+        <v>148295.55114779418</v>
+      </c>
+      <c r="I56" s="18">
+        <v>38295.551147794176</v>
+      </c>
+      <c r="J56" s="6">
+        <v>1.093000054359436</v>
+      </c>
+      <c r="K56" s="6">
+        <v>1</v>
+      </c>
+      <c r="L56" s="6">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="M56" s="6">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="N56" s="6">
+        <v>77.439013974501577</v>
+      </c>
+      <c r="O56" s="6">
+        <v>82.036677789855219</v>
+      </c>
+      <c r="P56" s="6">
+        <v>81.159680234718039</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>83.790672900129579</v>
       </c>
     </row>
   </sheetData>
@@ -19265,7 +19501,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AC55"/>
+  <dimension ref="A1:AC56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -19340,7 +19576,7 @@
         <v>2000</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -21291,6 +21527,38 @@
       </c>
       <c r="J55" s="18">
         <v>41670.166762817331</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75">
+      <c r="A56" s="15">
+        <v>45989</v>
+      </c>
+      <c r="B56" s="16">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C56" s="16">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D56" s="17">
+        <v>2000</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1923.0769936149668</v>
+      </c>
+      <c r="F56" s="18">
+        <v>139546.72383679103</v>
+      </c>
+      <c r="G56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="H56" s="18">
+        <v>108000</v>
+      </c>
+      <c r="I56" s="18">
+        <v>145128.58746697762</v>
+      </c>
+      <c r="J56" s="18">
+        <v>37128.587466977624</v>
       </c>
     </row>
   </sheetData>
